--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E29FEF-FE1E-4145-ADB8-4C408C9031A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC72471-8DE4-2B4C-9D58-E9D660A55DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="129">
   <si>
     <t>Code</t>
   </si>
@@ -465,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -499,11 +499,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -529,6 +538,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F9F8A-A699-4B69-A229-2709480D0D98}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -989,6 +1001,9 @@
       <c r="D8" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E8" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="19" thickBot="1">
       <c r="A9" s="4" t="s">
@@ -1003,6 +1018,9 @@
       <c r="D9" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E9" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="19" thickBot="1">
       <c r="A10" s="5" t="s">
@@ -1017,6 +1035,9 @@
       <c r="D10" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E10" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="19" thickBot="1">
       <c r="A11" s="4" t="s">
@@ -1031,6 +1052,9 @@
       <c r="D11" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E11" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="19" thickBot="1">
       <c r="A12" s="5" t="s">
@@ -1045,6 +1069,9 @@
       <c r="D12" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E12" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="19" thickBot="1">
       <c r="A13" s="4" t="s">
@@ -1059,6 +1086,9 @@
       <c r="D13" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E13" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="19" thickBot="1">
       <c r="A14" s="5" t="s">
@@ -1073,6 +1103,9 @@
       <c r="D14" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E14" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="19" thickBot="1">
       <c r="A15" s="4" t="s">
@@ -1087,6 +1120,9 @@
       <c r="D15" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E15" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="19" thickBot="1">
       <c r="A16" s="5" t="s">
@@ -1101,6 +1137,9 @@
       <c r="D16" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E16" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="19" thickBot="1">
       <c r="A17" s="4" t="s">
@@ -1143,6 +1182,9 @@
       <c r="D19" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E19" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="19" thickBot="1">
       <c r="A20" s="5" t="s">
@@ -1157,6 +1199,9 @@
       <c r="D20" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E20" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="19" thickBot="1">
       <c r="A21" s="4" t="s">
@@ -1171,6 +1216,9 @@
       <c r="D21" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E21" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="19" thickBot="1">
       <c r="A22" s="5" t="s">
@@ -1320,6 +1368,9 @@
       <c r="D31" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E31" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="19" thickBot="1">
       <c r="A32" s="5" t="s">
@@ -1334,6 +1385,9 @@
       <c r="D32" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E32" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="19" thickBot="1">
       <c r="A33" s="4" t="s">
@@ -1348,6 +1402,9 @@
       <c r="D33" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E33" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="19" thickBot="1">
       <c r="A34" s="5" t="s">
@@ -1362,6 +1419,9 @@
       <c r="D34" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E34" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="19" thickBot="1">
       <c r="A35" s="4" t="s">
@@ -1466,6 +1526,9 @@
       <c r="D41" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E41" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="19" thickBot="1">
       <c r="A42" s="5" t="s">
@@ -1480,6 +1543,9 @@
       <c r="D42" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E42" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="19" thickBot="1">
       <c r="A43" s="4" t="s">
@@ -1494,6 +1560,9 @@
       <c r="D43" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E43" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="19" thickBot="1">
       <c r="A44" s="5" t="s">
@@ -1508,6 +1577,9 @@
       <c r="D44" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E44" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="19" thickBot="1">
       <c r="A45" s="4" t="s">
@@ -1522,6 +1594,9 @@
       <c r="D45" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E45" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="19" thickBot="1">
       <c r="A46" s="5" t="s">
@@ -1536,6 +1611,9 @@
       <c r="D46" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E46" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="19" thickBot="1">
       <c r="A47" s="4" t="s">
@@ -1550,6 +1628,9 @@
       <c r="D47" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E47" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="19" thickBot="1">
       <c r="A48" s="5" t="s">
@@ -1564,6 +1645,9 @@
       <c r="D48" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E48" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="19" thickBot="1">
       <c r="A49" s="4" t="s">
@@ -1578,6 +1662,9 @@
       <c r="D49" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E49" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="19" thickBot="1">
       <c r="A50" s="5" t="s">
@@ -1590,6 +1677,9 @@
         <v>19</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC72471-8DE4-2B4C-9D58-E9D660A55DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E643663-4E81-2D46-B3EA-DFEDA60233CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E643663-4E81-2D46-B3EA-DFEDA60233CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8D94C-EDAB-7048-A29D-76B1F8A0A927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="129">
   <si>
     <t>Code</t>
   </si>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F9F8A-A699-4B69-A229-2709480D0D98}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1253,6 +1253,9 @@
       <c r="D23" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="E23" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="19" thickBot="1">
       <c r="A24" s="5" t="s">
@@ -1326,6 +1329,9 @@
       <c r="D28" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E28" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="19" thickBot="1">
       <c r="A29" s="4" t="s">
@@ -1498,6 +1504,9 @@
       <c r="D39" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E39" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="19" thickBot="1">
       <c r="A40" s="5" t="s">
@@ -1728,6 +1737,9 @@
         <v>5</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E29FEF-FE1E-4145-ADB8-4C408C9031A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1710FE-96D1-4279-9239-100F310637B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="555" yWindow="3255" windowWidth="21600" windowHeight="11325" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,27 +845,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F9F8A-A699-4B69-A229-2709480D0D98}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="2"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="19" thickBot="1">
+    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -885,7 +886,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" thickBot="1">
+    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -905,7 +906,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19" thickBot="1">
+    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -922,7 +923,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19" thickBot="1">
+    <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -939,7 +940,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19" thickBot="1">
+    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -959,7 +960,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19" thickBot="1">
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -976,7 +977,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19" thickBot="1">
+    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -990,7 +991,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19" thickBot="1">
+    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" thickBot="1">
+    <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19" thickBot="1">
+    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19" thickBot="1">
+    <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19" thickBot="1">
+    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19" thickBot="1">
+    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19" thickBot="1">
+    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19" thickBot="1">
+    <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19" thickBot="1">
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19" thickBot="1">
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19" thickBot="1">
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" thickBot="1">
+    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19" thickBot="1">
+    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19" thickBot="1">
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19" thickBot="1">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19" thickBot="1">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19" thickBot="1">
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19" thickBot="1">
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19" thickBot="1">
+    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19" thickBot="1">
+    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19" thickBot="1">
+    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19" thickBot="1">
+    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19" thickBot="1">
+    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="19" thickBot="1">
+    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19" thickBot="1">
+    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19" thickBot="1">
+    <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="19" thickBot="1">
+    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="19" thickBot="1">
+    <row r="36" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="19" thickBot="1">
+    <row r="37" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="19" thickBot="1">
+    <row r="38" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>78</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="19" thickBot="1">
+    <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19" thickBot="1">
+    <row r="40" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19" thickBot="1">
+    <row r="41" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>84</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="19" thickBot="1">
+    <row r="42" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>86</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="19" thickBot="1">
+    <row r="43" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>88</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="19" thickBot="1">
+    <row r="44" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>90</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19" thickBot="1">
+    <row r="45" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>92</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19" thickBot="1">
+    <row r="46" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>94</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19" thickBot="1">
+    <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>96</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19" thickBot="1">
+    <row r="48" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>98</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="19" thickBot="1">
+    <row r="49" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="19" thickBot="1">
+    <row r="50" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>101</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="19" thickBot="1">
+    <row r="51" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="19" thickBot="1">
+    <row r="52" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>105</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="19" thickBot="1">
+    <row r="53" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="19" thickBot="1">
+    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>109</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="19" thickBot="1">
+    <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="19" thickBot="1">
+    <row r="56" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="19" thickBot="1">
+    <row r="57" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -1695,7 +1696,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="19" thickBot="1">
+    <row r="58" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -1704,7 +1705,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="19" thickBot="1">
+    <row r="59" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8D94C-EDAB-7048-A29D-76B1F8A0A927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A211EA-D5A0-5541-B16E-1E6CCABAE8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="129">
   <si>
     <t>Code</t>
   </si>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F9F8A-A699-4B69-A229-2709480D0D98}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1270,6 +1270,9 @@
       <c r="D24" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E24" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="19" thickBot="1">
       <c r="A25" s="4" t="s">
@@ -1284,6 +1287,9 @@
       <c r="D25" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E25" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="19" thickBot="1">
       <c r="A26" s="5" t="s">
@@ -1298,6 +1304,9 @@
       <c r="D26" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E26" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="19" thickBot="1">
       <c r="A27" s="4" t="s">
@@ -1442,6 +1451,9 @@
       <c r="D35" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E35" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="19" thickBot="1">
       <c r="A36" s="5" t="s">
@@ -1456,6 +1468,9 @@
       <c r="D36" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E36" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="19" thickBot="1">
       <c r="A37" s="4" t="s">
@@ -1519,6 +1534,9 @@
         <v>19</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8D94C-EDAB-7048-A29D-76B1F8A0A927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C384A95-AEC1-49CB-8131-748F6E41F61E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="131">
   <si>
     <t>Code</t>
   </si>
@@ -417,14 +417,20 @@
     <t>Fn Creation</t>
   </si>
   <si>
-    <t>Tested</t>
+    <t>Primary Tested</t>
+  </si>
+  <si>
+    <t>Edge Tested</t>
+  </si>
+  <si>
+    <t>d (jr = 0 only)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,27 +863,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F9F8A-A699-4B69-A229-2709480D0D98}">
-  <dimension ref="A1:F59"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="19" thickBot="1">
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -896,8 +906,11 @@
       <c r="F2" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="19" thickBot="1">
+      <c r="G2" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -913,11 +926,9 @@
       <c r="E3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19" thickBot="1">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -934,7 +945,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19" thickBot="1">
+    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -951,7 +962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19" thickBot="1">
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -967,11 +978,9 @@
       <c r="E6" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19" thickBot="1">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -988,7 +997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19" thickBot="1">
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1005,7 +1014,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19" thickBot="1">
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" thickBot="1">
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19" thickBot="1">
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19" thickBot="1">
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19" thickBot="1">
+    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19" thickBot="1">
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19" thickBot="1">
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1124,7 +1133,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19" thickBot="1">
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19" thickBot="1">
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19" thickBot="1">
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19" thickBot="1">
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" thickBot="1">
+    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19" thickBot="1">
+    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19" thickBot="1">
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1237,10 +1246,10 @@
         <v>122</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19" thickBot="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19" thickBot="1">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1271,7 +1280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19" thickBot="1">
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19" thickBot="1">
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1299,7 +1308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19" thickBot="1">
+    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1315,8 +1324,11 @@
       <c r="E27" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="19" thickBot="1">
+      <c r="F27" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1345,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19" thickBot="1">
+    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1347,7 +1359,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19" thickBot="1">
+    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -1361,7 +1373,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19" thickBot="1">
+    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -1378,7 +1390,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="19" thickBot="1">
+    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -1395,7 +1407,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19" thickBot="1">
+    <row r="33" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19" thickBot="1">
+    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="19" thickBot="1">
+    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -1443,7 +1455,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="19" thickBot="1">
+    <row r="36" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -1457,7 +1469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="19" thickBot="1">
+    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -1473,8 +1485,11 @@
       <c r="E37" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="19" thickBot="1">
+      <c r="F37" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>78</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="19" thickBot="1">
+    <row r="39" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -1508,7 +1523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19" thickBot="1">
+    <row r="40" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -1522,7 +1537,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19" thickBot="1">
+    <row r="41" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>84</v>
       </c>
@@ -1539,7 +1554,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="19" thickBot="1">
+    <row r="42" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>86</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="19" thickBot="1">
+    <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>88</v>
       </c>
@@ -1573,7 +1588,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="19" thickBot="1">
+    <row r="44" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>90</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19" thickBot="1">
+    <row r="45" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>92</v>
       </c>
@@ -1607,7 +1622,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19" thickBot="1">
+    <row r="46" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>94</v>
       </c>
@@ -1624,7 +1639,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19" thickBot="1">
+    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>96</v>
       </c>
@@ -1641,7 +1656,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19" thickBot="1">
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>98</v>
       </c>
@@ -1658,7 +1673,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="19" thickBot="1">
+    <row r="49" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -1675,7 +1690,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="19" thickBot="1">
+    <row r="50" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>101</v>
       </c>
@@ -1692,7 +1707,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="19" thickBot="1">
+    <row r="51" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -1709,7 +1724,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="19" thickBot="1">
+    <row r="52" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>105</v>
       </c>
@@ -1726,7 +1741,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="19" thickBot="1">
+    <row r="53" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="19" thickBot="1">
+    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>109</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="19" thickBot="1">
+    <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="19" thickBot="1">
+    <row r="56" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -1788,7 +1803,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="19" thickBot="1">
+    <row r="57" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -1797,7 +1812,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="19" thickBot="1">
+    <row r="58" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -1806,7 +1821,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="19" thickBot="1">
+    <row r="59" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C384A95-AEC1-49CB-8131-748F6E41F61E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36432410-0FFC-694B-AC4D-838D472C4860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="132">
   <si>
     <t>Code</t>
   </si>
@@ -424,13 +424,16 @@
   </si>
   <si>
     <t>d (jr = 0 only)</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -547,6 +550,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -864,30 +870,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F9F8A-A699-4B69-A229-2709480D0D98}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -909,8 +916,11 @@
       <c r="G2" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -928,7 +938,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -944,8 +954,14 @@
       <c r="E4" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -961,8 +977,14 @@
       <c r="E5" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -980,7 +1002,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -997,7 +1019,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1036,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1031,7 +1053,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1070,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1065,7 +1087,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1082,7 +1104,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1099,7 +1121,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1116,7 +1138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1133,7 +1155,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1164,7 +1186,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="19" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1178,7 +1200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="19" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1195,7 +1217,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="19" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1212,7 +1234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="19" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1229,7 +1251,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="19" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1249,7 +1271,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="19" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1266,7 +1288,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="19" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1280,7 +1302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="19" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1294,7 +1316,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="19" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1308,7 +1330,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="19" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1327,8 +1349,11 @@
       <c r="F27" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -1345,7 +1370,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="19" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1359,7 +1384,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="19" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -1373,7 +1398,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="19" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -1390,7 +1415,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="19" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -1407,7 +1432,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="19" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -1424,7 +1449,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="19" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -1441,7 +1466,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="19" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -1455,7 +1480,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="19" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -1469,7 +1494,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="19" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -1488,8 +1513,11 @@
       <c r="F37" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>78</v>
       </c>
@@ -1506,7 +1534,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="19" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -1523,7 +1551,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="19" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -1537,7 +1565,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="19" thickBot="1">
       <c r="A41" s="4" t="s">
         <v>84</v>
       </c>
@@ -1554,7 +1582,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="19" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>86</v>
       </c>
@@ -1571,7 +1599,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="19" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>88</v>
       </c>
@@ -1588,7 +1616,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="19" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>90</v>
       </c>
@@ -1605,7 +1633,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="19" thickBot="1">
       <c r="A45" s="4" t="s">
         <v>92</v>
       </c>
@@ -1622,7 +1650,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="19" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>94</v>
       </c>
@@ -1639,7 +1667,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="19" thickBot="1">
       <c r="A47" s="4" t="s">
         <v>96</v>
       </c>
@@ -1656,7 +1684,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="19" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>98</v>
       </c>
@@ -1673,7 +1701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="19" thickBot="1">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -1690,7 +1718,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="19" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>101</v>
       </c>
@@ -1707,7 +1735,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="19" thickBot="1">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -1724,7 +1752,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="19" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>105</v>
       </c>
@@ -1741,7 +1769,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="19" thickBot="1">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -1758,7 +1786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="19" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>109</v>
       </c>
@@ -1775,7 +1803,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="19" thickBot="1">
       <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
@@ -1792,7 +1820,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="19" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -1803,7 +1831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="19" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -1812,7 +1840,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="19" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -1821,7 +1849,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="19" thickBot="1">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36432410-0FFC-694B-AC4D-838D472C4860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF8589D-9F97-184E-A6A2-CA1A05F2B135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="132">
   <si>
     <t>Code</t>
   </si>
@@ -872,8 +872,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -936,7 +936,9 @@
       <c r="E3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="19" thickBot="1">
       <c r="A4" s="5" t="s">
@@ -1000,7 +1002,9 @@
       <c r="E6" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19" thickBot="1">
       <c r="A7" s="4" t="s">
@@ -1018,6 +1022,9 @@
       <c r="E7" s="9" t="s">
         <v>122</v>
       </c>
+      <c r="F7" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="19" thickBot="1">
       <c r="A8" s="5" t="s">
@@ -1035,6 +1042,9 @@
       <c r="E8" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="F8" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="19" thickBot="1">
       <c r="A9" s="4" t="s">
@@ -1301,6 +1311,9 @@
       <c r="D24" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E24" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="19" thickBot="1">
       <c r="A25" s="4" t="s">
@@ -1315,6 +1328,9 @@
       <c r="D25" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E25" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="19" thickBot="1">
       <c r="A26" s="5" t="s">
@@ -1329,6 +1345,9 @@
       <c r="D26" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E26" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="19" thickBot="1">
       <c r="A27" s="4" t="s">
@@ -1479,6 +1498,9 @@
       <c r="D35" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E35" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="19" thickBot="1">
       <c r="A36" s="5" t="s">
@@ -1493,6 +1515,9 @@
       <c r="D36" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E36" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="19" thickBot="1">
       <c r="A37" s="4" t="s">
@@ -1533,6 +1558,9 @@
       <c r="E38" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="F38" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="19" thickBot="1">
       <c r="A39" s="4" t="s">
@@ -1564,6 +1592,9 @@
       <c r="D40" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="E40" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="19" thickBot="1">
       <c r="A41" s="4" t="s">
@@ -1701,7 +1732,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="19" thickBot="1">
+    <row r="49" spans="1:6" ht="19" thickBot="1">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -1718,7 +1749,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="19" thickBot="1">
+    <row r="50" spans="1:6" ht="19" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>101</v>
       </c>
@@ -1735,7 +1766,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="19" thickBot="1">
+    <row r="51" spans="1:6" ht="19" thickBot="1">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -1751,8 +1782,11 @@
       <c r="E51" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="19" thickBot="1">
+      <c r="F51" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="19" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>105</v>
       </c>
@@ -1768,8 +1802,11 @@
       <c r="E52" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="19" thickBot="1">
+      <c r="F52" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="19" thickBot="1">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -1786,7 +1823,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="19" thickBot="1">
+    <row r="54" spans="1:6" ht="19" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>109</v>
       </c>
@@ -1802,8 +1839,11 @@
       <c r="E54" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="19" thickBot="1">
+      <c r="F54" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="19" thickBot="1">
       <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
@@ -1819,8 +1859,11 @@
       <c r="E55" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="19" thickBot="1">
+      <c r="F55" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="19" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -1831,7 +1874,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="19" thickBot="1">
+    <row r="57" spans="1:6" ht="19" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -1840,7 +1883,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="19" thickBot="1">
+    <row r="58" spans="1:6" ht="19" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -1849,7 +1892,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="19" thickBot="1">
+    <row r="59" spans="1:6" ht="19" thickBot="1">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF8589D-9F97-184E-A6A2-CA1A05F2B135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82721F11-B889-1E4B-83A1-B0F614CEA973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17480" windowHeight="20540" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="153">
   <si>
     <t>Code</t>
   </si>
@@ -427,13 +428,76 @@
   </si>
   <si>
     <t>Exceptions</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>INSTRUCTION</t>
+  </si>
+  <si>
+    <t>TEST CASE</t>
+  </si>
+  <si>
+    <t>OUTCOME</t>
+  </si>
+  <si>
+    <t>Exit program</t>
+  </si>
+  <si>
+    <t>0x10000000</t>
+  </si>
+  <si>
+    <t>Jump to first instruction</t>
+  </si>
+  <si>
+    <t>Address is stored in R31</t>
+  </si>
+  <si>
+    <t>RD = 0</t>
+  </si>
+  <si>
+    <t>PC-4</t>
+  </si>
+  <si>
+    <t>Instruction at PC+4 is run first</t>
+  </si>
+  <si>
+    <t>0x7FFFFFFF + 0x7FFFFFFF</t>
+  </si>
+  <si>
+    <t>Error: Arithmetic overflow</t>
+  </si>
+  <si>
+    <t>0x7000000 + 0xFFFFFFF</t>
+  </si>
+  <si>
+    <t>0x8000000 + 0x1</t>
+  </si>
+  <si>
+    <t>0x1 + 0x80000000</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF + 0x80000001</t>
+  </si>
+  <si>
+    <t>0x8000000 + 0x80000000</t>
+  </si>
+  <si>
+    <t>0x7FFFFFFF + 0x7FFF</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF + 0x1</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF + 0x8000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +516,21 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -521,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -555,6 +634,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,8 +953,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1195,6 +1276,9 @@
       <c r="D17" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="E17" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="19" thickBot="1">
       <c r="A18" s="5" t="s">
@@ -1207,6 +1291,9 @@
         <v>24</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1908,4 +1995,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9">
+        <v>-2147483647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10">
+        <v>-2147483647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11">
+        <v>-2147483648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15">
+        <v>4294967294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16">
+        <v>2147483649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17">
+        <v>2147483649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22">
+        <v>-32769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82721F11-B889-1E4B-83A1-B0F614CEA973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3DD486-1F78-344A-9B35-281507BF3F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17480" windowHeight="20540" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="155">
   <si>
     <t>Code</t>
   </si>
@@ -484,6 +484,9 @@
     <t>0x8000000 + 0x80000000</t>
   </si>
   <si>
+    <t>0x7000000 + 0xFFFF</t>
+  </si>
+  <si>
     <t>0x7FFFFFFF + 0x7FFF</t>
   </si>
   <si>
@@ -491,6 +494,9 @@
   </si>
   <si>
     <t>0xFFFFFFFF + 0x8000</t>
+  </si>
+  <si>
+    <t>0x8000000 + 0x8000</t>
   </si>
 </sst>
 </file>
@@ -1999,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="167" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2079,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2141,10 +2147,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2160,7 +2166,7 @@
         <v>143</v>
       </c>
       <c r="D15">
-        <v>4294967294</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2168,7 +2174,7 @@
         <v>146</v>
       </c>
       <c r="D16">
-        <v>2147483649</v>
+        <v>-2147483647</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2176,7 +2182,7 @@
         <v>147</v>
       </c>
       <c r="D17">
-        <v>2147483649</v>
+        <v>-2147483647</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2203,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2211,7 +2217,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="C21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
         <v>144</v>
@@ -2219,7 +2225,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="C22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D22">
         <v>-32769</v>
@@ -2227,9 +2233,71 @@
     </row>
     <row r="23" spans="1:4">
       <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1879113727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26">
+        <v>-2147450882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27">
+        <v>-2147483647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28">
+        <v>-2147483647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" t="s">
         <v>149</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D30" t="s">
         <v>144</v>
       </c>
     </row>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3DD486-1F78-344A-9B35-281507BF3F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569F7BC9-00EF-C945-AC99-C55CCAFD6213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17480" windowHeight="20540" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="161">
   <si>
     <t>Code</t>
   </si>
@@ -497,6 +497,24 @@
   </si>
   <si>
     <t>0x8000000 + 0x8000</t>
+  </si>
+  <si>
+    <t>0x1 - 0x1</t>
+  </si>
+  <si>
+    <t>0x1 - 0xFFFFFFFF</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF - 0xFFFFFFFF</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF - 0x1</t>
+  </si>
+  <si>
+    <t>0x0 - 0x80000000</t>
+  </si>
+  <si>
+    <t>0x80000000 - 0x1</t>
   </si>
 </sst>
 </file>
@@ -2005,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="167" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2055,169 +2073,139 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
         <v>141</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>152</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2147483647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9">
-        <v>-2147483647</v>
+        <v>145</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2147483647</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10">
-        <v>-2147483647</v>
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11">
-        <v>-2147483648</v>
+        <v>-2147483647</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="D12">
+        <v>-2147483647</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
       <c r="C13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="D13">
+        <v>-2147483648</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="14">
-        <v>2147483647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15">
-        <v>-2</v>
+        <v>149</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
       <c r="C16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16">
-        <v>-2147483647</v>
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="C17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17">
-        <v>-2147483647</v>
+        <v>145</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2147483647</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="D18">
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="D19">
+        <v>-2147483647</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-2147483647</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="C21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
         <v>144</v>
@@ -2225,69 +2213,59 @@
     </row>
     <row r="22" spans="1:4">
       <c r="C22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22">
-        <v>-32769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="C23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
         <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>152</v>
       </c>
-      <c r="D24" t="s">
-        <v>144</v>
+      <c r="D24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="14">
-        <v>1879113727</v>
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="C26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D26">
-        <v>-2147450882</v>
+        <v>-32769</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="C27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27">
-        <v>-2147483647</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="C28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28">
-        <v>-2147483647</v>
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:4">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
         <v>144</v>
@@ -2295,9 +2273,103 @@
     </row>
     <row r="30" spans="1:4">
       <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1879113727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31">
+        <v>-2147450882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32">
+        <v>-2147483647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33">
+        <v>-2147483647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="C34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="C35" t="s">
         <v>149</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="C38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" t="s">
         <v>144</v>
       </c>
     </row>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569F7BC9-00EF-C945-AC99-C55CCAFD6213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C3AD99-FD1C-BA44-AEE8-FAA7EF0A51EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17480" windowHeight="20540" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="163">
   <si>
     <t>Code</t>
   </si>
@@ -515,6 +515,12 @@
   </si>
   <si>
     <t>0x80000000 - 0x1</t>
+  </si>
+  <si>
+    <t>0x80000000 - 0x7FFFFFFF</t>
+  </si>
+  <si>
+    <t>Jump to out of memory</t>
   </si>
 </sst>
 </file>
@@ -2023,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2073,69 +2079,66 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="4" spans="1:4">
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>140</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="C6" t="s">
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
         <v>141</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>152</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2147483647</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2147483647</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11">
-        <v>-2147483647</v>
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12">
         <v>-2147483647</v>
@@ -2143,61 +2146,61 @@
     </row>
     <row r="13" spans="1:4">
       <c r="C13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13">
-        <v>-2147483648</v>
+        <v>-2147483647</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14">
+        <v>-2147483648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>152</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="14">
-        <v>2147483647</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18">
-        <v>-2</v>
+        <v>145</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2147483647</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D19">
-        <v>-2147483647</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="C20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20">
         <v>-2147483647</v>
@@ -2205,99 +2208,99 @@
     </row>
     <row r="21" spans="1:4">
       <c r="C21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="D21">
+        <v>-2147483647</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="C22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>152</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="C25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="C26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26">
-        <v>-32769</v>
+        <v>151</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27">
+        <v>-32769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
         <v>154</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+    <row r="30" spans="1:4">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>152</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="C30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="14">
-        <v>1879113727</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="C31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31">
-        <v>-2147450882</v>
+        <v>150</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1879113727</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="C32" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D32">
-        <v>-2147483647</v>
+        <v>-2147450882</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="C33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33">
         <v>-2147483647</v>
@@ -2305,72 +2308,150 @@
     </row>
     <row r="34" spans="1:4">
       <c r="C34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="D34">
+        <v>-2147483647</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="C35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
+    <row r="36" spans="1:4">
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>155</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="C38" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="C41" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" t="s">
-        <v>144</v>
+        <v>158</v>
+      </c>
+      <c r="D41">
+        <v>-2</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="C42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C3AD99-FD1C-BA44-AEE8-FAA7EF0A51EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C40E4-14CD-472A-A4B2-DE091D94B3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17480" windowHeight="20540" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="168">
   <si>
     <t>Code</t>
   </si>
@@ -445,12 +445,6 @@
     <t>Exit program</t>
   </si>
   <si>
-    <t>0x10000000</t>
-  </si>
-  <si>
-    <t>Jump to first instruction</t>
-  </si>
-  <si>
     <t>Address is stored in R31</t>
   </si>
   <si>
@@ -469,15 +463,9 @@
     <t>Error: Arithmetic overflow</t>
   </si>
   <si>
-    <t>0x7000000 + 0xFFFFFFF</t>
-  </si>
-  <si>
     <t>0x8000000 + 0x1</t>
   </si>
   <si>
-    <t>0x1 + 0x80000000</t>
-  </si>
-  <si>
     <t>0xFFFFFFFF + 0x80000001</t>
   </si>
   <si>
@@ -521,13 +509,40 @@
   </si>
   <si>
     <t>Jump to out of memory</t>
+  </si>
+  <si>
+    <t>Return Code</t>
+  </si>
+  <si>
+    <t>Jump to 2 instructions later</t>
+  </si>
+  <si>
+    <t>success BUT no delay slot!!</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>Normal Case</t>
+  </si>
+  <si>
+    <t>0x70000000 + 0x0FFFFFFF</t>
+  </si>
+  <si>
+    <t>normal case</t>
+  </si>
+  <si>
+    <t>0x7000000 + 0x0FFFFFFF</t>
+  </si>
+  <si>
+    <t>0XFFFFFFFF + 0xFFFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,25 +1002,25 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="2"/>
+    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="19" thickBot="1">
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1046,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19" thickBot="1">
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19" thickBot="1">
+    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1089,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19" thickBot="1">
+    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1112,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19" thickBot="1">
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1132,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19" thickBot="1">
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1152,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19" thickBot="1">
+    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19" thickBot="1">
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1174,7 +1189,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19" thickBot="1">
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1191,7 +1206,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19" thickBot="1">
+    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1208,7 +1223,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19" thickBot="1">
+    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1240,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19" thickBot="1">
+    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19" thickBot="1">
+    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1259,7 +1274,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19" thickBot="1">
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1276,7 +1291,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19" thickBot="1">
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19" thickBot="1">
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1310,7 +1325,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" thickBot="1">
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1327,7 +1342,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19" thickBot="1">
+    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1344,7 +1359,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" thickBot="1">
+    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1361,7 +1376,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" thickBot="1">
+    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1393,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19" thickBot="1">
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1398,7 +1413,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19" thickBot="1">
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19" thickBot="1">
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1432,7 +1447,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19" thickBot="1">
+    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1449,7 +1464,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" thickBot="1">
+    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1466,7 +1481,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" thickBot="1">
+    <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1489,7 +1504,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" thickBot="1">
+    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -1506,7 +1521,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19" thickBot="1">
+    <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1520,7 +1535,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19" thickBot="1">
+    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -1534,7 +1549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19" thickBot="1">
+    <row r="31" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -1551,7 +1566,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19" thickBot="1">
+    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -1568,7 +1583,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19" thickBot="1">
+    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -1585,7 +1600,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19" thickBot="1">
+    <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -1602,7 +1617,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19" thickBot="1">
+    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -1619,7 +1634,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" thickBot="1">
+    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -1636,7 +1651,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19" thickBot="1">
+    <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -1659,7 +1674,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19" thickBot="1">
+    <row r="38" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>78</v>
       </c>
@@ -1679,7 +1694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="19" thickBot="1">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -1696,7 +1711,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="19" thickBot="1">
+    <row r="40" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -1713,7 +1728,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="19" thickBot="1">
+    <row r="41" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>84</v>
       </c>
@@ -1730,7 +1745,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="19" thickBot="1">
+    <row r="42" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>86</v>
       </c>
@@ -1747,7 +1762,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="19" thickBot="1">
+    <row r="43" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>88</v>
       </c>
@@ -1764,7 +1779,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="19" thickBot="1">
+    <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>90</v>
       </c>
@@ -1781,7 +1796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="19" thickBot="1">
+    <row r="45" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>92</v>
       </c>
@@ -1798,7 +1813,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="19" thickBot="1">
+    <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>94</v>
       </c>
@@ -1815,7 +1830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="19" thickBot="1">
+    <row r="47" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>96</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="19" thickBot="1">
+    <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>98</v>
       </c>
@@ -1849,7 +1864,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="19" thickBot="1">
+    <row r="49" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -1866,7 +1881,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="19" thickBot="1">
+    <row r="50" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>101</v>
       </c>
@@ -1883,7 +1898,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="19" thickBot="1">
+    <row r="51" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -1903,7 +1918,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="19" thickBot="1">
+    <row r="52" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>105</v>
       </c>
@@ -1923,7 +1938,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="19" thickBot="1">
+    <row r="53" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -1940,7 +1955,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="19" thickBot="1">
+    <row r="54" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>109</v>
       </c>
@@ -1960,7 +1975,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="19" thickBot="1">
+    <row r="55" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
@@ -1980,7 +1995,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="19" thickBot="1">
+    <row r="56" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -1991,7 +2006,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="19" thickBot="1">
+    <row r="57" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -2000,7 +2015,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="19" thickBot="1">
+    <row r="58" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -2009,7 +2024,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:6" ht="19" thickBot="1">
+    <row r="59" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
@@ -2029,21 +2044,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
-  <dimension ref="A1:D52"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="167" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>132</v>
       </c>
@@ -2056,8 +2072,11 @@
       <c r="D1" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2070,21 +2089,36 @@
       <c r="D2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="E4">
+        <v>245</v>
+      </c>
+      <c r="F4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2092,21 +2126,21 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
         <v>140</v>
       </c>
-      <c r="D6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2114,61 +2148,79 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="14">
         <v>2147483647</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" t="s">
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12">
+        <v>-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>143</v>
-      </c>
-      <c r="D11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12">
-        <v>-2147483647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
-        <v>147</v>
       </c>
       <c r="D13">
         <v>-2147483647</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D14">
         <v>-2147483648</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2176,61 +2228,79 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="14">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="14">
         <v>2147483647</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="C19" t="s">
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20">
+        <v>-2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>143</v>
-      </c>
-      <c r="D19">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="C20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20">
-        <v>-2147483647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="C21" t="s">
-        <v>147</v>
       </c>
       <c r="D21">
         <v>-2147483647</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2238,220 +2308,269 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27">
+        <v>147</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28">
         <v>-32769</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="C28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
       <c r="C31" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="14">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="14">
         <v>1879113727</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="C32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32">
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33">
         <v>-2147450882</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="C33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33">
-        <v>-2147483647</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D34">
         <v>-2147483647</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="C36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
+        <v>142</v>
+      </c>
+      <c r="F35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>7</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B37" t="s">
         <v>103</v>
       </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40">
+        <v>-2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>155</v>
       </c>
-      <c r="D38">
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="C39" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>156</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="C40" t="s">
+      <c r="D49">
+        <v>2147483647</v>
+      </c>
+      <c r="F49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="C41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="C42" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="C43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="C47" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="C48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50">
-        <v>2147483647</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52">
+      <c r="D51">
         <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C40E4-14CD-472A-A4B2-DE091D94B3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8ADFAD-A10B-7F4D-88B6-91B6763710FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="196">
   <si>
     <t>Code</t>
   </si>
@@ -536,13 +536,97 @@
   </si>
   <si>
     <t>0XFFFFFFFF + 0xFFFF</t>
+  </si>
+  <si>
+    <t>0x0 &amp; 0x0</t>
+  </si>
+  <si>
+    <t>0xAAAAAAAA &amp; 0x55555555</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFFF &amp; 0xFFFFFFFF</t>
+  </si>
+  <si>
+    <t>0xAAAAAAAA &amp; 0x5555</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &amp; 0xFFFF</t>
+  </si>
+  <si>
+    <t>0x0 | 0x0</t>
+  </si>
+  <si>
+    <t>0x0FFFFFFF &amp; 0x0FFFFFFF</t>
+  </si>
+  <si>
+    <t>0x0FFFFFFF &amp; 0xFFFF</t>
+  </si>
+  <si>
+    <t>0x0 ^ 0x0</t>
+  </si>
+  <si>
+    <t>0x0</t>
+  </si>
+  <si>
+    <t>0xFFFF</t>
+  </si>
+  <si>
+    <t>SLL(V)</t>
+  </si>
+  <si>
+    <t>0x0 &lt;&lt; 16</t>
+  </si>
+  <si>
+    <t>0xFFFF &lt;&lt; 16</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &lt;&lt; 16</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &lt;&lt; 32</t>
+  </si>
+  <si>
+    <t>SRL(V)</t>
+  </si>
+  <si>
+    <t>0x0 &gt;&gt; 16</t>
+  </si>
+  <si>
+    <t>0xFFFF0000 &gt;&gt; 16</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &gt;&gt; 16</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &gt;&gt; 32</t>
+  </si>
+  <si>
+    <t>SRA(V)</t>
+  </si>
+  <si>
+    <t>0x8000000 &gt;&gt; 16</t>
+  </si>
+  <si>
+    <t>0x7FFFFFFF &gt;&gt; 16</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFE &lt; 0xFFFFFFFF</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &lt; 0x80000000</t>
+  </si>
+  <si>
+    <t>0x7FFFFFFF &lt; 0x80000000</t>
+  </si>
+  <si>
+    <t>0x7FFFFFFF &lt; 0x7FFFFFFE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,25 +1086,25 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1130,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1089,7 +1173,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1196,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1216,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1236,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1256,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1189,7 +1273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1290,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1307,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1240,7 +1324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1257,7 +1341,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1274,7 +1358,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1291,7 +1375,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1308,7 +1392,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1325,7 +1409,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="19" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1342,7 +1426,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="19" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1359,7 +1443,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="19" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1376,7 +1460,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="19" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1393,7 +1477,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="19" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1413,7 +1497,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="19" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1430,7 +1514,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="19" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1447,7 +1531,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="19" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1464,7 +1548,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="19" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1481,7 +1565,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="19" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1504,7 +1588,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="19" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -1521,7 +1605,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="19" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1535,7 +1619,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="19" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -1549,7 +1633,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="19" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -1566,7 +1650,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="19" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -1583,7 +1667,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="19" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -1600,7 +1684,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="19" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -1617,7 +1701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="19" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -1634,7 +1718,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="19" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -1651,7 +1735,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="19" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -1674,7 +1758,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="19" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>78</v>
       </c>
@@ -1694,7 +1778,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="19" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -1711,7 +1795,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="19" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -1728,7 +1812,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="19" thickBot="1">
       <c r="A41" s="4" t="s">
         <v>84</v>
       </c>
@@ -1745,7 +1829,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="19" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>86</v>
       </c>
@@ -1762,7 +1846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="19" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>88</v>
       </c>
@@ -1779,7 +1863,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="19" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>90</v>
       </c>
@@ -1796,7 +1880,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="19" thickBot="1">
       <c r="A45" s="4" t="s">
         <v>92</v>
       </c>
@@ -1813,7 +1897,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="19" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>94</v>
       </c>
@@ -1830,7 +1914,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="19" thickBot="1">
       <c r="A47" s="4" t="s">
         <v>96</v>
       </c>
@@ -1847,7 +1931,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="19" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>98</v>
       </c>
@@ -1864,7 +1948,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="19" thickBot="1">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -1881,7 +1965,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="19" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>101</v>
       </c>
@@ -1898,7 +1982,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="19" thickBot="1">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -1918,7 +2002,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="19" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>105</v>
       </c>
@@ -1938,7 +2022,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="19" thickBot="1">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -1955,7 +2039,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="19" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>109</v>
       </c>
@@ -1975,7 +2059,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="19" thickBot="1">
       <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
@@ -1995,7 +2079,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="19" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -2006,7 +2090,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="19" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -2015,7 +2099,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="19" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -2024,7 +2108,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="19" thickBot="1">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
@@ -2045,21 +2129,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="167" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="167" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>132</v>
       </c>
@@ -2076,7 +2160,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2096,7 +2180,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="D3" t="s">
         <v>160</v>
       </c>
@@ -2107,7 +2191,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" t="s">
         <v>158</v>
       </c>
@@ -2118,7 +2202,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2132,7 +2216,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -2140,7 +2224,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2154,7 +2238,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" t="s">
         <v>148</v>
       </c>
@@ -2165,7 +2249,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -2176,7 +2260,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" t="s">
         <v>141</v>
       </c>
@@ -2187,7 +2271,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>143</v>
       </c>
@@ -2198,7 +2282,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>144</v>
       </c>
@@ -2209,7 +2293,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>145</v>
       </c>
@@ -2220,7 +2304,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2234,7 +2318,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="C18" t="s">
         <v>148</v>
       </c>
@@ -2245,7 +2329,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="C19" t="s">
         <v>166</v>
       </c>
@@ -2256,7 +2340,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -2267,7 +2351,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="C21" t="s">
         <v>143</v>
       </c>
@@ -2278,7 +2362,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -2289,7 +2373,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="C23" t="s">
         <v>145</v>
       </c>
@@ -2300,7 +2384,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2314,7 +2398,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="C26" t="s">
         <v>148</v>
       </c>
@@ -2325,7 +2409,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="C27" t="s">
         <v>147</v>
       </c>
@@ -2336,7 +2420,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="C28" t="s">
         <v>149</v>
       </c>
@@ -2347,7 +2431,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -2358,7 +2442,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2375,7 +2459,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="C32" t="s">
         <v>146</v>
       </c>
@@ -2386,7 +2470,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="C33" t="s">
         <v>147</v>
       </c>
@@ -2397,7 +2481,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="C34" t="s">
         <v>143</v>
       </c>
@@ -2408,7 +2492,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="C35" t="s">
         <v>167</v>
       </c>
@@ -2419,7 +2503,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2436,7 +2520,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="C38" t="s">
         <v>152</v>
       </c>
@@ -2447,7 +2531,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="C39" t="s">
         <v>153</v>
       </c>
@@ -2458,7 +2542,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="C40" t="s">
         <v>154</v>
       </c>
@@ -2469,7 +2553,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="C41" t="s">
         <v>156</v>
       </c>
@@ -2480,7 +2564,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="C42" t="s">
         <v>155</v>
       </c>
@@ -2491,7 +2575,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="C43" t="s">
         <v>157</v>
       </c>
@@ -2502,7 +2586,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2516,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="C46" t="s">
         <v>152</v>
       </c>
@@ -2524,7 +2608,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="C47" t="s">
         <v>153</v>
       </c>
@@ -2532,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="C48" t="s">
         <v>154</v>
       </c>
@@ -2540,7 +2624,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="C49" t="s">
         <v>156</v>
       </c>
@@ -2551,7 +2635,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="C50" t="s">
         <v>155</v>
       </c>
@@ -2562,7 +2646,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -2571,6 +2655,396 @@
       </c>
       <c r="F51" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="C55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="C63" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63">
+        <v>268435455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="C66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66">
+        <v>-1431633921</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67">
+        <v>268435455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="C71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71">
+        <v>-65536</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="C74" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74">
+        <v>-1431633921</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="C75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75">
+        <v>-65536</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78">
+        <v>-65536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81">
+        <v>-65536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82">
+        <v>-65536</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="C83" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="C86" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="C87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90">
+        <v>-65536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="C91" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="C92" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="C96" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="C97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="14">
+        <v>20</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8ADFAD-A10B-7F4D-88B6-91B6763710FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E188BA-AF25-0F4A-B27F-92CFCA41399D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="200">
   <si>
     <t>Code</t>
   </si>
@@ -620,6 +620,18 @@
   </si>
   <si>
     <t>0x7FFFFFFF &lt; 0x7FFFFFFE</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFE &lt; 0xFFFF</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &lt; 0x8000</t>
+  </si>
+  <si>
+    <t>0x7FFFFFFF &lt; 0xFFFF</t>
+  </si>
+  <si>
+    <t>0x7FFFFFFF &lt; 0x7FFF</t>
   </si>
 </sst>
 </file>
@@ -662,7 +674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +690,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -760,11 +778,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,7 +1111,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1130,129 +1158,141 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19" thickBot="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19" thickBot="1">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19" thickBot="1">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19" thickBot="1">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19" thickBot="1">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19" thickBot="1">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1565,26 +1605,26 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" thickBot="1">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="D27" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1735,46 +1775,49 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19" thickBot="1">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A37" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="19" thickBot="1">
-      <c r="A38" s="5" t="s">
+      <c r="D37" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A38" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="D38" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1812,217 +1855,223 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="19" thickBot="1">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A41" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19" thickBot="1">
-      <c r="A42" s="5" t="s">
+      <c r="D41" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A42" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="19" thickBot="1">
-      <c r="A43" s="4" t="s">
+      <c r="D42" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A43" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="19" thickBot="1">
-      <c r="A44" s="5" t="s">
+      <c r="D43" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A44" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="19" thickBot="1">
-      <c r="A45" s="4" t="s">
+      <c r="D44" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A45" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="19" thickBot="1">
-      <c r="A46" s="5" t="s">
+      <c r="D45" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A46" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="19" thickBot="1">
-      <c r="A47" s="4" t="s">
+      <c r="D46" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A47" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="19" thickBot="1">
-      <c r="A48" s="5" t="s">
+      <c r="D47" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A48" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="19" thickBot="1">
-      <c r="A49" s="4" t="s">
+      <c r="D48" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A49" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="19" thickBot="1">
-      <c r="A50" s="5" t="s">
+      <c r="D49" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A50" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="19" thickBot="1">
-      <c r="A51" s="4" t="s">
+      <c r="D50" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A51" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="19" thickBot="1">
-      <c r="A52" s="5" t="s">
+      <c r="D51" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A52" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="19" thickBot="1">
+      <c r="D52" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19" thickBot="1">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -2039,47 +2088,53 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="19" thickBot="1">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A54" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="19" thickBot="1">
-      <c r="A55" s="4" t="s">
+      <c r="D54" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A55" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="19" thickBot="1">
+      <c r="D55" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="19" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -2090,7 +2145,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="19" thickBot="1">
+    <row r="57" spans="1:7" ht="19" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -2099,7 +2154,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="19" thickBot="1">
+    <row r="58" spans="1:7" ht="19" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -2108,7 +2163,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:6" ht="19" thickBot="1">
+    <row r="59" spans="1:7" ht="19" thickBot="1">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
@@ -2129,10 +2184,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="167" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -2144,19 +2199,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2253,7 +2308,7 @@
       <c r="C11" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>2147483647</v>
       </c>
       <c r="F11" t="s">
@@ -2333,7 +2388,7 @@
       <c r="C19" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>2147483647</v>
       </c>
       <c r="F19" t="s">
@@ -2463,7 +2518,7 @@
       <c r="C32" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>1879113727</v>
       </c>
       <c r="F32" t="s">
@@ -2599,6 +2654,9 @@
       <c r="D45">
         <v>0</v>
       </c>
+      <c r="F45" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="C46" t="s">
@@ -2607,6 +2665,9 @@
       <c r="D46" t="s">
         <v>142</v>
       </c>
+      <c r="F46" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="C47" t="s">
@@ -2615,6 +2676,9 @@
       <c r="D47">
         <v>0</v>
       </c>
+      <c r="F47" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="C48" t="s">
@@ -2623,6 +2687,9 @@
       <c r="D48">
         <v>-2</v>
       </c>
+      <c r="F48" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="C49" t="s">
@@ -2670,6 +2737,9 @@
       <c r="D53">
         <v>0</v>
       </c>
+      <c r="F53" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="C54" t="s">
@@ -2678,6 +2748,9 @@
       <c r="D54">
         <v>0</v>
       </c>
+      <c r="F54" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="C55" t="s">
@@ -2686,6 +2759,9 @@
       <c r="D55">
         <v>-1</v>
       </c>
+      <c r="F55" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
@@ -2700,6 +2776,9 @@
       <c r="D57">
         <v>0</v>
       </c>
+      <c r="F57" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="C58" t="s">
@@ -2708,6 +2787,9 @@
       <c r="D58">
         <v>0</v>
       </c>
+      <c r="F58" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="C59" t="s">
@@ -2716,6 +2798,9 @@
       <c r="D59">
         <v>65535</v>
       </c>
+      <c r="F59" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
@@ -2730,6 +2815,9 @@
       <c r="D61">
         <v>0</v>
       </c>
+      <c r="F61" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="C62" t="s">
@@ -2738,6 +2826,9 @@
       <c r="D62">
         <v>-1</v>
       </c>
+      <c r="F62" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" t="s">
@@ -2746,8 +2837,11 @@
       <c r="D63">
         <v>268435455</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="F63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>12</v>
       </c>
@@ -2760,24 +2854,33 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="F65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="C66" t="s">
         <v>171</v>
       </c>
       <c r="D66">
         <v>-1431633921</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="F66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="C67" t="s">
         <v>175</v>
       </c>
       <c r="D67">
         <v>268435455</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="F67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>13</v>
       </c>
@@ -2790,24 +2893,33 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="F69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="C70" t="s">
         <v>169</v>
       </c>
       <c r="D70">
         <v>-1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="C71" t="s">
         <v>172</v>
       </c>
       <c r="D71">
         <v>-65536</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="F71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>14</v>
       </c>
@@ -2820,24 +2932,33 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="F73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="C74" t="s">
         <v>171</v>
       </c>
       <c r="D74">
         <v>-1431633921</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="F74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="C75" t="s">
         <v>172</v>
       </c>
       <c r="D75">
         <v>-65536</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="F75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>15</v>
       </c>
@@ -2850,16 +2971,22 @@
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="F77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="C78" t="s">
         <v>178</v>
       </c>
       <c r="D78">
         <v>-65536</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="F78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>16</v>
       </c>
@@ -3004,48 +3131,115 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="14">
+      <c r="A99" s="13">
         <v>20</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14" t="s">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D100" s="14">
+      <c r="D100" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14" t="s">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D101" s="14">
+      <c r="D101" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14" t="s">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D102" s="14">
+      <c r="D102" s="13">
         <v>1</v>
       </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="C105" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D105" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="C106" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D106" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="C107" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>22</v>
+      </c>
+      <c r="B109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>23</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E188BA-AF25-0F4A-B27F-92CFCA41399D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C4349-8F16-4EBB-A163-2FA96AB5AD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="201">
   <si>
     <t>Code</t>
   </si>
@@ -571,9 +571,6 @@
     <t>0xFFFF</t>
   </si>
   <si>
-    <t>SLL(V)</t>
-  </si>
-  <si>
     <t>0x0 &lt;&lt; 16</t>
   </si>
   <si>
@@ -632,13 +629,19 @@
   </si>
   <si>
     <t>0x7FFFFFFF &lt; 0x7FFF</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &lt;&lt; 31</t>
+  </si>
+  <si>
+    <t>0x80000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,25 +1117,25 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="2"/>
+    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="19" thickBot="1">
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="3" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="4" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="5" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="6" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="7" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="8" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19" thickBot="1">
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19" thickBot="1">
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19" thickBot="1">
+    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19" thickBot="1">
+    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19" thickBot="1">
+    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19" thickBot="1">
+    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19" thickBot="1">
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19" thickBot="1">
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19" thickBot="1">
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" thickBot="1">
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19" thickBot="1">
+    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" thickBot="1">
+    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" thickBot="1">
+    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19" thickBot="1">
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19" thickBot="1">
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19" thickBot="1">
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19" thickBot="1">
+    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" thickBot="1">
+    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="27" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" thickBot="1">
+    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19" thickBot="1">
+    <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19" thickBot="1">
+    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19" thickBot="1">
+    <row r="31" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19" thickBot="1">
+    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19" thickBot="1">
+    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19" thickBot="1">
+    <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19" thickBot="1">
+    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" thickBot="1">
+    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="37" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>76</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="38" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>78</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="19" thickBot="1">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="19" thickBot="1">
+    <row r="40" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="41" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>84</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="42" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>86</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="43" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>88</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="44" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>90</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="45" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>92</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="46" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>94</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="47" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>96</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="48" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>98</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="49" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>99</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="50" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>101</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="51" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>103</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="52" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>105</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="19" thickBot="1">
+    <row r="53" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="54" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>109</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="17" customFormat="1" ht="19" thickBot="1">
+    <row r="55" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>111</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="19" thickBot="1">
+    <row r="56" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="19" thickBot="1">
+    <row r="57" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -2154,7 +2157,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="19" thickBot="1">
+    <row r="58" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -2163,7 +2166,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:7" ht="19" thickBot="1">
+    <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
@@ -2184,21 +2187,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>160</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>158</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>148</v>
       </c>
@@ -2304,18 +2307,21 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>164</v>
       </c>
       <c r="D11" s="13">
         <v>2147483647</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="F11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>141</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>143</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>144</v>
       </c>
@@ -2348,18 +2354,21 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>145</v>
       </c>
       <c r="D15" t="s">
         <v>142</v>
       </c>
+      <c r="E15">
+        <v>246</v>
+      </c>
       <c r="F15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2373,7 +2382,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>148</v>
       </c>
@@ -2384,7 +2393,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>166</v>
       </c>
@@ -2395,7 +2404,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -2406,7 +2415,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>143</v>
       </c>
@@ -2417,7 +2426,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -2428,7 +2437,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>145</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>148</v>
       </c>
@@ -2464,7 +2473,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>147</v>
       </c>
@@ -2475,7 +2484,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>149</v>
       </c>
@@ -2486,7 +2495,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -2497,7 +2506,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2514,7 +2523,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>146</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>147</v>
       </c>
@@ -2536,7 +2545,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>143</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>167</v>
       </c>
@@ -2558,7 +2567,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>152</v>
       </c>
@@ -2586,7 +2595,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>153</v>
       </c>
@@ -2597,7 +2606,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>154</v>
       </c>
@@ -2608,7 +2617,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>156</v>
       </c>
@@ -2619,7 +2628,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>155</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>157</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2658,7 +2667,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>152</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>153</v>
       </c>
@@ -2680,7 +2689,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>154</v>
       </c>
@@ -2691,7 +2700,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>156</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>155</v>
       </c>
@@ -2713,7 +2722,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -2724,7 +2733,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9</v>
       </c>
@@ -2741,7 +2750,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>169</v>
       </c>
@@ -2752,7 +2761,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>170</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>171</v>
       </c>
@@ -2791,7 +2800,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>172</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>169</v>
       </c>
@@ -2830,7 +2839,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>174</v>
       </c>
@@ -2841,7 +2850,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -2858,7 +2867,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>171</v>
       </c>
@@ -2869,7 +2878,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>175</v>
       </c>
@@ -2880,7 +2889,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13</v>
       </c>
@@ -2897,7 +2906,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>169</v>
       </c>
@@ -2908,7 +2917,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>172</v>
       </c>
@@ -2919,7 +2928,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>14</v>
       </c>
@@ -2936,7 +2945,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>171</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>172</v>
       </c>
@@ -2958,7 +2967,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>15</v>
       </c>
@@ -2975,7 +2984,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>178</v>
       </c>
@@ -2986,260 +2995,307 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>16</v>
-      </c>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
         <v>179</v>
-      </c>
-      <c r="C80" t="s">
-        <v>180</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="F80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D81">
         <v>-65536</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D82">
         <v>-65536</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="F82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>183</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>199</v>
+      </c>
+      <c r="D83" t="s">
+        <v>200</v>
+      </c>
+      <c r="F83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D86">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-65536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D87">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-65536</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>18</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" t="s">
         <v>189</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D95">
+        <v>-65536</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
         <v>190</v>
       </c>
-      <c r="D90">
-        <v>-65536</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="C91" t="s">
+      <c r="D96">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" t="s">
         <v>191</v>
       </c>
-      <c r="D91">
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="C92" t="s">
-        <v>188</v>
-      </c>
-      <c r="D92">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>19</v>
-      </c>
-      <c r="B94" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
         <v>192</v>
       </c>
-      <c r="D94">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="C95" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="C96" t="s">
-        <v>194</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="C97" t="s">
-        <v>195</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="13">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
         <v>20</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B104" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D99" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D100" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D101" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D102" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>21</v>
-      </c>
-      <c r="B104" t="s">
-        <v>90</v>
-      </c>
       <c r="C104" s="13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D104" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D105" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D106" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D111" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D112" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="C107" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D107" s="13">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>22</v>
+      </c>
+      <c r="B114" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>22</v>
-      </c>
-      <c r="B109" t="s">
-        <v>92</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D109" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>23</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C4349-8F16-4EBB-A163-2FA96AB5AD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A4296-FC2B-4966-AF5F-38EBC3313342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="201">
   <si>
     <t>Code</t>
   </si>
@@ -517,9 +517,6 @@
     <t>Jump to 2 instructions later</t>
   </si>
   <si>
-    <t>success BUT no delay slot!!</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
     <t>0x70000000 + 0x0FFFFFFF</t>
   </si>
   <si>
-    <t>normal case</t>
-  </si>
-  <si>
     <t>0x7000000 + 0x0FFFFFFF</t>
   </si>
   <si>
@@ -580,12 +574,6 @@
     <t>0xFFFFFFFF &lt;&lt; 16</t>
   </si>
   <si>
-    <t>0xFFFFFFFF &lt;&lt; 32</t>
-  </si>
-  <si>
-    <t>SRL(V)</t>
-  </si>
-  <si>
     <t>0x0 &gt;&gt; 16</t>
   </si>
   <si>
@@ -598,9 +586,6 @@
     <t>0xFFFFFFFF &gt;&gt; 32</t>
   </si>
   <si>
-    <t>SRA(V)</t>
-  </si>
-  <si>
     <t>0x8000000 &gt;&gt; 16</t>
   </si>
   <si>
@@ -635,6 +620,21 @@
   </si>
   <si>
     <t>0x80000000</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &gt;&gt; 31</t>
+  </si>
+  <si>
+    <t>(normal case) 349756+ 2387468</t>
+  </si>
+  <si>
+    <t>TEST 2</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF + 0x2</t>
   </si>
 </sst>
 </file>
@@ -2187,10 +2187,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2201,7 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
@@ -2217,8 +2217,11 @@
       <c r="E1" s="12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2235,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>160</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>158</v>
       </c>
@@ -2257,10 +2260,10 @@
         <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2290,26 +2293,39 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>198</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H9">
+        <v>184</v>
+      </c>
+      <c r="I9">
+        <f>MOD(D9,256)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="13">
         <v>2147483647</v>
@@ -2318,10 +2334,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>141</v>
       </c>
@@ -2329,10 +2348,13 @@
         <v>-2</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H12">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>143</v>
       </c>
@@ -2340,10 +2362,13 @@
         <v>-2147483647</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>144</v>
       </c>
@@ -2351,10 +2376,13 @@
         <v>-2147483648</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>145</v>
       </c>
@@ -2365,7 +2393,10 @@
         <v>246</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="H15">
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2376,10 +2407,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2390,18 +2421,18 @@
         <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D19" s="13">
         <v>2147483647</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2412,7 +2443,7 @@
         <v>-2</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2423,7 +2454,7 @@
         <v>-2147483647</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2434,7 +2465,7 @@
         <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,7 +2476,7 @@
         <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2456,10 +2487,10 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2470,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,7 +2512,7 @@
         <v>142</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2492,7 +2523,7 @@
         <v>-32769</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2503,7 +2534,7 @@
         <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2520,7 +2551,7 @@
         <v>142</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,7 +2562,7 @@
         <v>1879113727</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2542,7 +2573,7 @@
         <v>-2147450882</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2553,18 +2584,18 @@
         <v>-2147483647</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
         <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2592,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2603,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,7 +2645,7 @@
         <v>-2</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2625,7 +2656,7 @@
         <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2636,7 +2667,7 @@
         <v>142</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2647,7 +2678,7 @@
         <v>142</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2664,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2675,7 +2706,7 @@
         <v>142</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2686,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2697,7 +2728,7 @@
         <v>-2</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2708,7 +2739,7 @@
         <v>2147483647</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,7 +2750,7 @@
         <v>142</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2730,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2741,35 +2772,35 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55">
         <v>-1</v>
       </c>
       <c r="F55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2780,35 +2811,35 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59">
         <v>65535</v>
       </c>
       <c r="F59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2819,35 +2850,35 @@
         <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D62">
         <v>-1</v>
       </c>
       <c r="F62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D63">
         <v>268435455</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2858,35 +2889,35 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D66">
         <v>-1431633921</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D67">
         <v>268435455</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,35 +2928,35 @@
         <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D70">
         <v>-1</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D71">
         <v>-65536</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2936,35 +2967,35 @@
         <v>111</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D74">
         <v>-1431633921</v>
       </c>
       <c r="F74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D75">
         <v>-65536</v>
       </c>
       <c r="F75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,24 +3006,24 @@
         <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D78">
         <v>-65536</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3000,46 +3031,46 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D81">
         <v>-65536</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D82">
         <v>-65536</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D83" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3050,34 +3081,46 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
+      <c r="F85" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D86">
         <v>-65536</v>
       </c>
+      <c r="F86" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D87">
         <v>-65536</v>
       </c>
+      <c r="F87" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="D88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,217 +3128,345 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
+      <c r="F90" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D91">
         <v>65535</v>
       </c>
+      <c r="F91" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D92">
         <v>65535</v>
       </c>
+      <c r="F92" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D95">
-        <v>-65536</v>
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D96">
+        <v>65535</v>
+      </c>
+      <c r="F96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97">
+        <v>65535</v>
+      </c>
+      <c r="F97" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100">
+        <v>-32768</v>
+      </c>
+      <c r="F100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101">
         <v>32767</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+      <c r="F101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>183</v>
+      </c>
+      <c r="D102">
+        <v>-1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104">
+        <v>-32768</v>
+      </c>
+      <c r="F104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>185</v>
+      </c>
+      <c r="D105">
+        <v>32767</v>
+      </c>
+      <c r="F105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>183</v>
+      </c>
+      <c r="D106">
+        <v>-1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" t="s">
+        <v>186</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
         <v>187</v>
       </c>
-      <c r="D97">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>19</v>
-      </c>
-      <c r="B99" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" t="s">
-        <v>191</v>
-      </c>
-      <c r="D99">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>189</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="13">
+        <v>20</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D113" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>192</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>193</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
-        <v>20</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D104" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D105" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D106" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D107" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>21</v>
-      </c>
-      <c r="B109" t="s">
-        <v>90</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D109" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D110" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D111" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D112" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>22</v>
-      </c>
-      <c r="B114" t="s">
-        <v>92</v>
-      </c>
+      <c r="F113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="13" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D114" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="F114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D115" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D118" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C120" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D120" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C121" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D121" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>23</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A4296-FC2B-4966-AF5F-38EBC3313342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D925B5-8312-4DD8-94D7-DAE6EF294016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="203">
   <si>
     <t>Code</t>
   </si>
@@ -635,6 +635,12 @@
   </si>
   <si>
     <t>0xFFFFFFFF + 0x2</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF + 0x80000002</t>
+  </si>
+  <si>
+    <t>(normal case) 567812 + 418141</t>
   </si>
 </sst>
 </file>
@@ -2189,15 +2195,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2295,6 +2301,9 @@
       <c r="C9" t="s">
         <v>198</v>
       </c>
+      <c r="D9">
+        <v>2737224</v>
+      </c>
       <c r="E9">
         <v>0</v>
       </c>
@@ -2306,7 +2315,7 @@
       </c>
       <c r="I9">
         <f>MOD(D9,256)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2322,6 +2331,10 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I73" si="0">MOD(D10,256)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -2339,19 +2352,27 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>141</v>
       </c>
-      <c r="D12">
-        <v>-2</v>
+      <c r="D12" t="s">
+        <v>142</v>
       </c>
       <c r="F12" t="s">
         <v>161</v>
       </c>
       <c r="H12">
-        <v>254</v>
+        <v>246</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2367,19 +2388,27 @@
       <c r="H13">
         <v>255</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="D14">
-        <v>-2147483648</v>
+        <v>-2147483647</v>
       </c>
       <c r="F14" t="s">
         <v>161</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2398,8 +2427,18 @@
       <c r="H15">
         <v>246</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2407,13 +2446,20 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>202</v>
+      </c>
+      <c r="D17">
+        <v>985953</v>
       </c>
       <c r="F17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>148</v>
       </c>
@@ -2423,8 +2469,12 @@
       <c r="F18" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>164</v>
       </c>
@@ -2434,8 +2484,12 @@
       <c r="F19" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -2445,8 +2499,12 @@
       <c r="F20" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>143</v>
       </c>
@@ -2456,8 +2514,12 @@
       <c r="F21" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -2467,8 +2529,12 @@
       <c r="F22" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>145</v>
       </c>
@@ -2478,8 +2544,18 @@
       <c r="F23" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2492,8 +2568,12 @@
       <c r="F25" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>148</v>
       </c>
@@ -2503,8 +2583,12 @@
       <c r="F26" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>147</v>
       </c>
@@ -2514,8 +2598,12 @@
       <c r="F27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>149</v>
       </c>
@@ -2525,8 +2613,12 @@
       <c r="F28" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -2536,8 +2628,18 @@
       <c r="F29" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2553,8 +2655,12 @@
       <c r="F31" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>146</v>
       </c>
@@ -2564,8 +2670,12 @@
       <c r="F32" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>147</v>
       </c>
@@ -2575,8 +2685,12 @@
       <c r="F33" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>143</v>
       </c>
@@ -2586,8 +2700,12 @@
       <c r="F34" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>165</v>
       </c>
@@ -2597,8 +2715,18 @@
       <c r="F35" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2614,8 +2742,12 @@
       <c r="F37" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>152</v>
       </c>
@@ -2625,8 +2757,12 @@
       <c r="F38" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>153</v>
       </c>
@@ -2636,8 +2772,12 @@
       <c r="F39" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>154</v>
       </c>
@@ -2647,8 +2787,12 @@
       <c r="F40" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>156</v>
       </c>
@@ -2658,8 +2802,12 @@
       <c r="F41" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>155</v>
       </c>
@@ -2669,8 +2817,12 @@
       <c r="F42" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I42" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>157</v>
       </c>
@@ -2680,8 +2832,18 @@
       <c r="F43" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2697,8 +2859,12 @@
       <c r="F45" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>152</v>
       </c>
@@ -2708,8 +2874,12 @@
       <c r="F46" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I46" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>153</v>
       </c>
@@ -2719,8 +2889,12 @@
       <c r="F47" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>154</v>
       </c>
@@ -2730,8 +2904,12 @@
       <c r="F48" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>156</v>
       </c>
@@ -2741,8 +2919,12 @@
       <c r="F49" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>155</v>
       </c>
@@ -2752,8 +2934,12 @@
       <c r="F50" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I50" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -2763,8 +2949,18 @@
       <c r="F51" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9</v>
       </c>
@@ -2780,8 +2976,12 @@
       <c r="F53" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>167</v>
       </c>
@@ -2791,8 +2991,12 @@
       <c r="F54" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>168</v>
       </c>
@@ -2802,8 +3006,18 @@
       <c r="F55" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -2819,8 +3033,12 @@
       <c r="F57" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>169</v>
       </c>
@@ -2830,8 +3048,12 @@
       <c r="F58" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>170</v>
       </c>
@@ -2841,8 +3063,18 @@
       <c r="F59" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -2858,8 +3090,12 @@
       <c r="F61" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>167</v>
       </c>
@@ -2869,8 +3105,12 @@
       <c r="F62" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>172</v>
       </c>
@@ -2880,8 +3120,18 @@
       <c r="F63" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -2897,8 +3147,12 @@
       <c r="F65" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>169</v>
       </c>
@@ -2908,8 +3162,12 @@
       <c r="F66" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>173</v>
       </c>
@@ -2919,8 +3177,18 @@
       <c r="F67" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13</v>
       </c>
@@ -2936,8 +3204,12 @@
       <c r="F69" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>167</v>
       </c>
@@ -2947,8 +3219,12 @@
       <c r="F70" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>170</v>
       </c>
@@ -2958,8 +3234,18 @@
       <c r="F71" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>14</v>
       </c>
@@ -2975,8 +3261,12 @@
       <c r="F73" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>169</v>
       </c>
@@ -2986,8 +3276,12 @@
       <c r="F74" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f t="shared" ref="I74:I124" si="1">MOD(D74,256)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>170</v>
       </c>
@@ -2997,8 +3291,18 @@
       <c r="F75" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>15</v>
       </c>
@@ -3014,8 +3318,12 @@
       <c r="F77" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>176</v>
       </c>
@@ -3025,8 +3333,18 @@
       <c r="F78" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>84</v>
       </c>
@@ -3039,8 +3357,12 @@
       <c r="F80" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>178</v>
       </c>
@@ -3050,8 +3372,12 @@
       <c r="F81" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>179</v>
       </c>
@@ -3061,8 +3387,12 @@
       <c r="F82" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>194</v>
       </c>
@@ -3072,8 +3402,18 @@
       <c r="F83" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I83" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>16</v>
       </c>
@@ -3089,8 +3429,12 @@
       <c r="F85" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>178</v>
       </c>
@@ -3100,8 +3444,12 @@
       <c r="F86" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>179</v>
       </c>
@@ -3111,8 +3459,12 @@
       <c r="F87" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>194</v>
       </c>
@@ -3122,8 +3474,18 @@
       <c r="F88" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I88" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17</v>
       </c>
@@ -3139,8 +3501,12 @@
       <c r="F90" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>181</v>
       </c>
@@ -3150,8 +3516,12 @@
       <c r="F91" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>182</v>
       </c>
@@ -3161,8 +3531,12 @@
       <c r="F92" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>197</v>
       </c>
@@ -3172,8 +3546,18 @@
       <c r="F93" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>17</v>
       </c>
@@ -3189,8 +3573,12 @@
       <c r="F95" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>181</v>
       </c>
@@ -3200,8 +3588,12 @@
       <c r="F96" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>182</v>
       </c>
@@ -3211,8 +3603,12 @@
       <c r="F97" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>197</v>
       </c>
@@ -3222,8 +3618,18 @@
       <c r="F98" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>18</v>
       </c>
@@ -3239,8 +3645,12 @@
       <c r="F100" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>185</v>
       </c>
@@ -3250,8 +3660,12 @@
       <c r="F101" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>183</v>
       </c>
@@ -3261,8 +3675,18 @@
       <c r="F102" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18</v>
       </c>
@@ -3278,8 +3702,12 @@
       <c r="F104" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>185</v>
       </c>
@@ -3289,8 +3717,12 @@
       <c r="F105" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>183</v>
       </c>
@@ -3300,8 +3732,18 @@
       <c r="F106" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>19</v>
       </c>
@@ -3317,8 +3759,12 @@
       <c r="F108" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>187</v>
       </c>
@@ -3328,8 +3774,12 @@
       <c r="F109" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>188</v>
       </c>
@@ -3339,8 +3789,12 @@
       <c r="F110" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>189</v>
       </c>
@@ -3350,8 +3804,18 @@
       <c r="F111" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>20</v>
       </c>
@@ -3367,8 +3831,12 @@
       <c r="F113" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13" t="s">
@@ -3380,8 +3848,12 @@
       <c r="F114" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13" t="s">
@@ -3390,8 +3862,12 @@
       <c r="D115" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13" t="s">
@@ -3400,8 +3876,18 @@
       <c r="D116" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>21</v>
       </c>
@@ -3414,32 +3900,54 @@
       <c r="D118" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C119" s="13" t="s">
         <v>191</v>
       </c>
       <c r="D119" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C120" s="13" t="s">
         <v>192</v>
       </c>
       <c r="D120" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C121" s="13" t="s">
         <v>193</v>
       </c>
       <c r="D121" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>22</v>
       </c>
@@ -3452,19 +3960,27 @@
       <c r="D123" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>23</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
     </row>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D925B5-8312-4DD8-94D7-DAE6EF294016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B182DD-5F59-4A29-A066-FFDFC7D4F245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="207">
   <si>
     <t>Code</t>
   </si>
@@ -487,15 +487,9 @@
     <t>0x8000000 + 0x8000</t>
   </si>
   <si>
-    <t>0x1 - 0x1</t>
-  </si>
-  <si>
     <t>0x1 - 0xFFFFFFFF</t>
   </si>
   <si>
-    <t>0xFFFFFFFF - 0xFFFFFFFF</t>
-  </si>
-  <si>
     <t>0xFFFFFFFF - 0x1</t>
   </si>
   <si>
@@ -520,9 +514,6 @@
     <t>success</t>
   </si>
   <si>
-    <t>Normal Case</t>
-  </si>
-  <si>
     <t>0x70000000 + 0x0FFFFFFF</t>
   </si>
   <si>
@@ -641,6 +632,27 @@
   </si>
   <si>
     <t>(normal case) 567812 + 418141</t>
+  </si>
+  <si>
+    <t>Normal Case (3586911 + 47812)</t>
+  </si>
+  <si>
+    <t>Normal Case (5454435 + 12495)</t>
+  </si>
+  <si>
+    <t>0x1 - 0x2</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF - 0xFFFFFFFE</t>
+  </si>
+  <si>
+    <t>0x2 - 0x1</t>
+  </si>
+  <si>
+    <t>1(Forced)</t>
+  </si>
+  <si>
+    <t>1(forced)</t>
   </si>
 </sst>
 </file>
@@ -2193,10 +2205,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2219,7 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
@@ -2221,13 +2233,13 @@
         <v>135</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2244,32 +2256,32 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4">
         <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2283,7 +2295,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -2291,7 +2303,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2299,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D9">
         <v>2737224</v>
@@ -2308,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H9">
         <v>184</v>
@@ -2317,28 +2329,34 @@
         <f>MOD(D9,256)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I73" si="0">MOD(D10,256)</f>
+        <f t="shared" ref="I10:I74" si="0">MOD(D10,256)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D11" s="13">
         <v>2147483647</v>
@@ -2347,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2356,8 +2374,11 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>141</v>
       </c>
@@ -2365,7 +2386,7 @@
         <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H12">
         <v>246</v>
@@ -2374,8 +2395,11 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>143</v>
       </c>
@@ -2383,7 +2407,7 @@
         <v>-2147483647</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H13">
         <v>255</v>
@@ -2392,16 +2416,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D14">
         <v>-2147483647</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2410,8 +2437,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>145</v>
       </c>
@@ -2422,7 +2452,7 @@
         <v>246</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H15">
         <v>246</v>
@@ -2431,14 +2461,11 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2446,20 +2473,23 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D17">
         <v>985953</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>148</v>
       </c>
@@ -2467,29 +2497,35 @@
         <v>142</v>
       </c>
       <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>161</v>
-      </c>
-      <c r="I18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>164</v>
       </c>
       <c r="D19" s="13">
         <v>2147483647</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -2497,14 +2533,17 @@
         <v>-2</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>143</v>
       </c>
@@ -2512,14 +2551,17 @@
         <v>-2147483647</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -2527,14 +2569,17 @@
         <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I22" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>145</v>
       </c>
@@ -2542,20 +2587,17 @@
         <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I23" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2563,32 +2605,41 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>3634723</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>147</v>
       </c>
@@ -2596,14 +2647,17 @@
         <v>142</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>149</v>
       </c>
@@ -2611,14 +2665,17 @@
         <v>-32769</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -2626,20 +2683,17 @@
         <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I29" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2647,730 +2701,768 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31">
+        <v>5466930</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>148</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>142</v>
       </c>
-      <c r="F31" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" t="e">
+      <c r="F32" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="J32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <v>1879113727</v>
       </c>
-      <c r="F32" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32">
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="J33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>147</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>-2147450882</v>
       </c>
-      <c r="F33" t="s">
-        <v>161</v>
-      </c>
-      <c r="I33">
+      <c r="F34" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="J34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>143</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>-2147483647</v>
       </c>
-      <c r="F34" t="s">
-        <v>161</v>
-      </c>
-      <c r="I34">
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="J35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
         <v>142</v>
       </c>
-      <c r="F35" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" t="e">
+      <c r="F36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="J36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="J38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>151</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>152</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>161</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>161</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="D41">
+        <v>-2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="J41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>154</v>
-      </c>
-      <c r="D40">
-        <v>-2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>161</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" t="s">
-        <v>142</v>
-      </c>
-      <c r="F41" t="s">
-        <v>161</v>
-      </c>
-      <c r="I41" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>155</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
       </c>
       <c r="F42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I42" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
         <v>142</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I43" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="J43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>105</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>151</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
-        <v>161</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>152</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D49">
+        <v>-2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="J49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50">
+        <v>2147483647</v>
+      </c>
+      <c r="F50" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="J50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" t="s">
         <v>142</v>
       </c>
-      <c r="F46" t="s">
-        <v>161</v>
-      </c>
-      <c r="I46" t="e">
+      <c r="F51" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>161</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48">
-        <v>-2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>161</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49">
-        <v>2147483647</v>
-      </c>
-      <c r="F49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I49">
+      <c r="J51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" t="s">
+        <v>159</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" t="s">
+        <v>159</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>159</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I50" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51">
+      <c r="J56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" t="s">
+        <v>159</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
-        <v>161</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" t="s">
+        <v>159</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>9</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>167</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="s">
-        <v>161</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+      <c r="D60">
+        <v>65535</v>
+      </c>
+      <c r="F60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="D55">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>159</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63">
         <v>-1</v>
       </c>
-      <c r="F55" t="s">
-        <v>161</v>
-      </c>
-      <c r="I55">
+      <c r="F63" t="s">
+        <v>159</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
-        <v>161</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>169</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="s">
-        <v>161</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59">
-        <v>65535</v>
-      </c>
-      <c r="F59" t="s">
-        <v>161</v>
-      </c>
-      <c r="I59">
+      <c r="D64">
+        <v>268435455</v>
+      </c>
+      <c r="F64" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="F61" t="s">
-        <v>161</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62">
-        <v>-1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>161</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63">
-        <v>268435455</v>
-      </c>
-      <c r="F63" t="s">
-        <v>161</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>12</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>78</v>
       </c>
-      <c r="C65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
-        <v>161</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D66">
-        <v>-1431633921</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D67">
+        <v>-1431633921</v>
+      </c>
+      <c r="F67" t="s">
+        <v>159</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68">
         <v>268435455</v>
       </c>
-      <c r="F67" t="s">
-        <v>161</v>
-      </c>
-      <c r="I67">
+      <c r="F68" t="s">
+        <v>159</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>13</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>109</v>
       </c>
-      <c r="C69" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>161</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I70">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D71">
+        <v>-1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>159</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72">
         <v>-65536</v>
       </c>
-      <c r="F71" t="s">
-        <v>161</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>159</v>
+      </c>
       <c r="I72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="I73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>14</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>111</v>
       </c>
-      <c r="C73" t="s">
-        <v>174</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>161</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D74">
-        <v>-1431633921</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I74">
-        <f t="shared" ref="I74:I124" si="1">MOD(D74,256)</f>
-        <v>255</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D75">
+        <v>-1431633921</v>
+      </c>
+      <c r="F75" t="s">
+        <v>159</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75:I125" si="1">MOD(D75,256)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76">
         <v>-65536</v>
       </c>
-      <c r="F75" t="s">
-        <v>161</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>159</v>
+      </c>
       <c r="I76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>15</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>55</v>
       </c>
-      <c r="C77" t="s">
-        <v>175</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
-        <v>161</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>159</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79">
         <v>-65536</v>
       </c>
-      <c r="F78" t="s">
-        <v>161</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>159</v>
+      </c>
       <c r="I79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>84</v>
       </c>
-      <c r="C80" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="F80" t="s">
-        <v>161</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D81">
-        <v>-65536</v>
+        <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I81">
         <f t="shared" si="1"/>
@@ -3379,13 +3471,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D82">
         <v>-65536</v>
       </c>
       <c r="F82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I82">
         <f t="shared" si="1"/>
@@ -3394,55 +3486,55 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>194</v>
-      </c>
-      <c r="D83" t="s">
-        <v>195</v>
+        <v>176</v>
+      </c>
+      <c r="D83">
+        <v>-65536</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
-      </c>
-      <c r="I83" t="e">
+        <v>159</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" t="s">
+        <v>192</v>
+      </c>
+      <c r="F84" t="s">
+        <v>159</v>
+      </c>
+      <c r="I84" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>16</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>86</v>
       </c>
-      <c r="C85" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>161</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D86">
-        <v>-65536</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I86">
         <f t="shared" si="1"/>
@@ -3451,13 +3543,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D87">
         <v>-65536</v>
       </c>
       <c r="F87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I87">
         <f t="shared" si="1"/>
@@ -3466,70 +3558,70 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>194</v>
-      </c>
-      <c r="D88" t="s">
-        <v>195</v>
+        <v>176</v>
+      </c>
+      <c r="D88">
+        <v>-65536</v>
       </c>
       <c r="F88" t="s">
-        <v>161</v>
-      </c>
-      <c r="I88" t="e">
+        <v>159</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" t="s">
+        <v>159</v>
+      </c>
+      <c r="I89" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>17</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>101</v>
       </c>
-      <c r="C90" t="s">
-        <v>180</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>161</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D91">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I91">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D92">
         <v>65535</v>
       </c>
       <c r="F92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I92">
         <f t="shared" si="1"/>
@@ -3538,70 +3630,70 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D93">
+        <v>65535</v>
+      </c>
+      <c r="F93" t="s">
+        <v>159</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94">
         <v>1</v>
       </c>
-      <c r="F93" t="s">
-        <v>161</v>
-      </c>
-      <c r="I93">
+      <c r="F94" t="s">
+        <v>159</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>17</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>99</v>
       </c>
-      <c r="C95" t="s">
-        <v>180</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
-        <v>161</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D96">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I96">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D97">
         <v>65535</v>
       </c>
       <c r="F97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I97">
         <f t="shared" si="1"/>
@@ -3610,184 +3702,184 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D98">
+        <v>65535</v>
+      </c>
+      <c r="F98" t="s">
+        <v>159</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99">
         <v>1</v>
       </c>
-      <c r="F98" t="s">
-        <v>161</v>
-      </c>
-      <c r="I98">
+      <c r="F99" t="s">
+        <v>159</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>18</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>96</v>
       </c>
-      <c r="C100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D100">
+      <c r="C101" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101">
         <v>-32768</v>
       </c>
-      <c r="F100" t="s">
-        <v>161</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>185</v>
-      </c>
-      <c r="D101">
-        <v>32767</v>
-      </c>
       <c r="F101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I101">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D102">
+        <v>32767</v>
+      </c>
+      <c r="F102" t="s">
+        <v>159</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103">
         <v>-1</v>
       </c>
-      <c r="F102" t="s">
-        <v>161</v>
-      </c>
-      <c r="I102">
+      <c r="F103" t="s">
+        <v>159</v>
+      </c>
+      <c r="I103">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>18</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>98</v>
       </c>
-      <c r="C104" t="s">
-        <v>184</v>
-      </c>
-      <c r="D104">
+      <c r="C105" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105">
         <v>-32768</v>
       </c>
-      <c r="F104" t="s">
-        <v>161</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>185</v>
-      </c>
-      <c r="D105">
-        <v>32767</v>
-      </c>
       <c r="F105" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I105">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106">
+        <v>32767</v>
+      </c>
+      <c r="F106" t="s">
+        <v>159</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107">
+        <v>-1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>159</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" t="s">
         <v>183</v>
       </c>
-      <c r="D106">
-        <v>-1</v>
-      </c>
-      <c r="F106" t="s">
-        <v>161</v>
-      </c>
-      <c r="I106">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>19</v>
-      </c>
-      <c r="B108" t="s">
-        <v>88</v>
-      </c>
-      <c r="C108" t="s">
-        <v>186</v>
-      </c>
-      <c r="D108">
+      <c r="D109">
         <v>1</v>
       </c>
-      <c r="F108" t="s">
-        <v>161</v>
-      </c>
-      <c r="I108">
+      <c r="F109" t="s">
+        <v>159</v>
+      </c>
+      <c r="I109">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>187</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="F109" t="s">
-        <v>161</v>
-      </c>
-      <c r="I109">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I110">
         <f t="shared" si="1"/>
@@ -3796,13 +3888,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I111">
         <f t="shared" si="1"/>
@@ -3810,116 +3902,119 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>159</v>
+      </c>
       <c r="I112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="13">
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="13">
         <v>20</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B114" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C113" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D113" s="13">
+      <c r="C114" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D114" s="13">
         <v>1</v>
       </c>
-      <c r="F113" t="s">
-        <v>161</v>
-      </c>
-      <c r="I113">
+      <c r="F114" t="s">
+        <v>159</v>
+      </c>
+      <c r="I114">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D114" s="13">
-        <v>0</v>
-      </c>
-      <c r="F114" t="s">
-        <v>161</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D115" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>159</v>
       </c>
       <c r="I115">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D116" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D117" s="13">
+        <v>0</v>
+      </c>
       <c r="I117">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>21</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>90</v>
       </c>
-      <c r="C118" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D118" s="13">
+      <c r="C119" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D119" s="13">
         <v>1</v>
       </c>
-      <c r="I118">
+      <c r="I119">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C119" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D119" s="13">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C120" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D120" s="13">
         <v>0</v>
@@ -3931,7 +4026,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C121" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D121" s="13">
         <v>0</v>
@@ -3942,47 +4037,59 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C122" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D122" s="13">
+        <v>0</v>
+      </c>
       <c r="I122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="I123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>22</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>92</v>
       </c>
-      <c r="C123" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D123" s="13">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
+      <c r="C124" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124" s="13">
+        <v>0</v>
+      </c>
       <c r="I124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>23</v>
-      </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
+      <c r="I125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>23</v>
+      </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B182DD-5F59-4A29-A066-FFDFC7D4F245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542C93DE-6D93-47A8-B098-2771C6592BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542C93DE-6D93-47A8-B098-2771C6592BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6613C6-FFC1-4CCA-A524-D944411E6CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="220">
   <si>
     <t>Code</t>
   </si>
@@ -466,9 +466,6 @@
     <t>0x8000000 + 0x1</t>
   </si>
   <si>
-    <t>0xFFFFFFFF + 0x80000001</t>
-  </si>
-  <si>
     <t>0x8000000 + 0x80000000</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>0x7FFFFFFF + 0x7FFF</t>
   </si>
   <si>
-    <t>0xFFFFFFFF + 0x1</t>
-  </si>
-  <si>
     <t>0xFFFFFFFF + 0x8000</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>Jump to out of memory</t>
   </si>
   <si>
-    <t>Return Code</t>
-  </si>
-  <si>
     <t>Jump to 2 instructions later</t>
   </si>
   <si>
@@ -610,12 +601,6 @@
     <t>0xFFFFFFFF &lt;&lt; 31</t>
   </si>
   <si>
-    <t>0x80000000</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>0xFFFFFFFF &gt;&gt; 31</t>
   </si>
   <si>
@@ -653,6 +638,60 @@
   </si>
   <si>
     <t>1(forced)</t>
+  </si>
+  <si>
+    <t>0x8000000 + 0x80000001</t>
+  </si>
+  <si>
+    <t>0x0 - 0x80000001</t>
+  </si>
+  <si>
+    <t>1 (forced)</t>
+  </si>
+  <si>
+    <t>"-65536 + 1 (forced)"</t>
+  </si>
+  <si>
+    <t>0 + 1 (forced)</t>
+  </si>
+  <si>
+    <t>-65536 + 1 (forced)</t>
+  </si>
+  <si>
+    <t>2147483648 + 1 (forced)</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &lt;&lt; 10000 (same as shifting by 1 0000)</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &gt;&gt; 10000 (same as shifting 16 bits)</t>
+  </si>
+  <si>
+    <t>-32768 + 1 (forced)</t>
+  </si>
+  <si>
+    <t>0 + 2 (forced)</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF &lt; 0xFFFFFFFF</t>
+  </si>
+  <si>
+    <t>0 + 3 (FORCED)</t>
+  </si>
+  <si>
+    <t>0x7FFF &lt; 0x7FFF</t>
+  </si>
+  <si>
+    <t>0 + 3 (forced)</t>
+  </si>
+  <si>
+    <t>0x7FFE &lt; 0x7FFF</t>
+  </si>
+  <si>
+    <t>0xFFFF &lt; 0xFFFF</t>
+  </si>
+  <si>
+    <t>0x7FFF0000 &gt;&gt; 10000 (same as shifting by 16 bits)</t>
   </si>
 </sst>
 </file>
@@ -768,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -814,6 +853,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2205,10 +2245,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2259,7 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
@@ -2233,13 +2273,10 @@
         <v>135</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2252,36 +2289,18 @@
       <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4">
-        <v>245</v>
-      </c>
-      <c r="F4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2295,7 +2314,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -2303,7 +2322,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2311,139 +2330,115 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D9">
         <v>2737224</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9">
         <v>184</v>
       </c>
-      <c r="I9">
+      <c r="F9">
         <f>MOD(D9,256)</f>
         <v>72</v>
       </c>
-      <c r="J9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I74" si="0">MOD(D10,256)</f>
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F71" si="0">MOD(D10,256)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D11" s="13">
         <v>2147483647</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="J11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>141</v>
       </c>
       <c r="D12" t="s">
         <v>142</v>
       </c>
-      <c r="F12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12">
+      <c r="E12">
         <v>246</v>
       </c>
-      <c r="I12" t="e">
+      <c r="F12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>143</v>
       </c>
       <c r="D13">
         <v>-2147483647</v>
       </c>
-      <c r="F13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13">
+      <c r="E13">
         <v>255</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D14">
         <v>-2147483647</v>
       </c>
-      <c r="F14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
         <v>142</v>
@@ -2451,21 +2446,15 @@
       <c r="E15">
         <v>246</v>
       </c>
-      <c r="F15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15">
-        <v>246</v>
-      </c>
-      <c r="I15" t="e">
+      <c r="F15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2473,131 +2462,110 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D17">
         <v>985953</v>
       </c>
-      <c r="F17" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="J17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D19" s="13">
         <v>2147483647</v>
       </c>
-      <c r="F19" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="J19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
       <c r="D20">
         <v>-2</v>
       </c>
-      <c r="F20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="J20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>143</v>
       </c>
       <c r="D21">
         <v>-2147483647</v>
       </c>
-      <c r="F21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="D22">
+        <v>-2147483647</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2605,95 +2573,80 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D25">
         <v>3634723</v>
       </c>
-      <c r="F25" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
         <v>142</v>
       </c>
-      <c r="F27" t="s">
-        <v>159</v>
-      </c>
-      <c r="I27" t="e">
+      <c r="F27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28">
         <v>-32769</v>
       </c>
-      <c r="F28" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="J28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
         <v>142</v>
       </c>
-      <c r="F29" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" t="e">
+      <c r="F29" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2701,110 +2654,95 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D31">
         <v>5466930</v>
       </c>
-      <c r="I31">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" t="s">
-        <v>159</v>
-      </c>
-      <c r="I32" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="13">
         <v>1879113727</v>
       </c>
-      <c r="F33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33">
+      <c r="F33">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="J33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34">
         <v>-2147450882</v>
       </c>
-      <c r="F34" t="s">
-        <v>159</v>
-      </c>
-      <c r="I34">
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="J34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>143</v>
       </c>
       <c r="D35">
         <v>-2147483647</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>159</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" t="s">
-        <v>159</v>
-      </c>
-      <c r="I36" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>65534</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -2812,131 +2750,110 @@
         <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D38">
         <v>-1</v>
       </c>
-      <c r="F38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I38">
+      <c r="F38">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="J38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="F39" t="s">
-        <v>159</v>
-      </c>
-      <c r="I39">
+      <c r="F39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
-        <v>159</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D41">
         <v>-2</v>
       </c>
-      <c r="F41" t="s">
-        <v>159</v>
-      </c>
-      <c r="I41">
+      <c r="F41">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="J41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
       </c>
-      <c r="F42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I42" t="e">
+      <c r="F42" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
         <v>142</v>
       </c>
-      <c r="F43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I43" t="e">
+      <c r="F43" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
         <v>142</v>
       </c>
-      <c r="F44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I44" t="e">
+      <c r="F44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
@@ -2944,131 +2861,110 @@
         <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
-        <v>159</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" t="s">
-        <v>159</v>
-      </c>
-      <c r="I47" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
-        <v>159</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49">
         <v>-2</v>
       </c>
-      <c r="F49" t="s">
-        <v>159</v>
-      </c>
-      <c r="I49">
+      <c r="F49">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="J49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50">
         <v>2147483647</v>
       </c>
-      <c r="F50" t="s">
-        <v>159</v>
-      </c>
-      <c r="I50">
+      <c r="F50">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="J50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51">
+        <v>2147483647</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="G51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>153</v>
       </c>
-      <c r="D51" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" t="s">
-        <v>159</v>
-      </c>
-      <c r="I51" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>155</v>
-      </c>
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="F52" t="s">
-        <v>159</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -3076,57 +2972,48 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
-      </c>
-      <c r="F54" t="s">
-        <v>159</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
-      </c>
-      <c r="F55" t="s">
-        <v>159</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D56">
         <v>-1</v>
       </c>
-      <c r="F56" t="s">
-        <v>159</v>
-      </c>
-      <c r="I56">
+      <c r="F56">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="J56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
@@ -3134,54 +3021,48 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>163</v>
       </c>
-      <c r="D58" t="s">
-        <v>205</v>
-      </c>
-      <c r="F58" t="s">
-        <v>159</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>166</v>
-      </c>
       <c r="D59" t="s">
-        <v>206</v>
-      </c>
-      <c r="F59" t="s">
-        <v>159</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D60">
         <v>65535</v>
       </c>
-      <c r="F60" t="s">
-        <v>159</v>
-      </c>
-      <c r="I60">
+      <c r="F60">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -3189,56 +3070,49 @@
         <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
-        <v>159</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="D62" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D63">
         <v>-1</v>
       </c>
-      <c r="F63" t="s">
-        <v>159</v>
-      </c>
-      <c r="I63">
+      <c r="F63">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D64">
         <v>268435455</v>
       </c>
-      <c r="F64" t="s">
-        <v>159</v>
-      </c>
-      <c r="I64">
+      <c r="F64">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
@@ -3246,56 +3120,49 @@
         <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
-        <v>159</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D67">
         <v>-1431633921</v>
       </c>
-      <c r="F67" t="s">
-        <v>159</v>
-      </c>
-      <c r="I67">
+      <c r="F67">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D68">
         <v>268435455</v>
       </c>
-      <c r="F68" t="s">
-        <v>159</v>
-      </c>
-      <c r="I68">
+      <c r="F68">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3303,56 +3170,48 @@
         <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>159</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D71">
         <v>-1</v>
       </c>
-      <c r="F71" t="s">
-        <v>159</v>
-      </c>
-      <c r="I71">
+      <c r="F71">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72">
-        <v>-65536</v>
-      </c>
-      <c r="F72" t="s">
-        <v>159</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3360,56 +3219,48 @@
         <v>111</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>159</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D74" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D75">
         <v>-1431633921</v>
       </c>
-      <c r="F75" t="s">
-        <v>159</v>
-      </c>
-      <c r="I75">
-        <f t="shared" ref="I75:I125" si="1">MOD(D75,256)</f>
+      <c r="F75">
+        <f t="shared" ref="F75:F133" si="1">MOD(D75,256)</f>
         <v>255</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76">
-        <v>-65536</v>
-      </c>
-      <c r="F76" t="s">
-        <v>159</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>15</v>
       </c>
@@ -3417,679 +3268,801 @@
         <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="s">
-        <v>159</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>206</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79">
-        <v>-65536</v>
-      </c>
-      <c r="F79" t="s">
-        <v>159</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>16</v>
+      </c>
       <c r="B81" t="s">
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>159</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="D81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>175</v>
-      </c>
-      <c r="D82">
-        <v>-65536</v>
-      </c>
-      <c r="F82" t="s">
-        <v>159</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>176</v>
-      </c>
-      <c r="D83">
-        <v>-65536</v>
-      </c>
-      <c r="F83" t="s">
-        <v>159</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D84" t="s">
-        <v>192</v>
-      </c>
-      <c r="F84" t="s">
-        <v>159</v>
-      </c>
-      <c r="I84" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
       </c>
       <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" t="s">
         <v>174</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>159</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+      <c r="D92" t="s">
+        <v>206</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
         <v>175</v>
       </c>
-      <c r="D87">
-        <v>-65536</v>
-      </c>
-      <c r="F87" t="s">
-        <v>159</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88">
-        <v>-65536</v>
-      </c>
-      <c r="F88" t="s">
-        <v>159</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>191</v>
-      </c>
-      <c r="D89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" t="s">
-        <v>159</v>
-      </c>
-      <c r="I89" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>17</v>
-      </c>
-      <c r="B91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>159</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>178</v>
-      </c>
-      <c r="D92">
+      <c r="D93">
         <v>65535</v>
       </c>
-      <c r="F92" t="s">
-        <v>159</v>
-      </c>
-      <c r="I92">
+      <c r="F93">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>179</v>
-      </c>
-      <c r="D93">
+      <c r="G93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94">
         <v>65535</v>
       </c>
-      <c r="F93" t="s">
-        <v>159</v>
-      </c>
-      <c r="I93">
+      <c r="F94">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
-        <v>159</v>
-      </c>
-      <c r="I94">
+      <c r="G94" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="F95">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>17</v>
-      </c>
-      <c r="B96" t="s">
-        <v>99</v>
-      </c>
+      <c r="G95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="F96" t="s">
-        <v>159</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>178</v>
-      </c>
-      <c r="D97">
         <v>65535</v>
       </c>
-      <c r="F97" t="s">
-        <v>159</v>
-      </c>
-      <c r="I97">
+      <c r="F96">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
       <c r="C98" t="s">
-        <v>179</v>
-      </c>
-      <c r="D98">
+        <v>174</v>
+      </c>
+      <c r="D98" t="s">
+        <v>206</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99">
         <v>65535</v>
       </c>
-      <c r="F98" t="s">
-        <v>159</v>
-      </c>
-      <c r="I98">
+      <c r="F99">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>194</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
-        <v>159</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>18</v>
-      </c>
-      <c r="B101" t="s">
-        <v>96</v>
-      </c>
-      <c r="C101" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101">
-        <v>-32768</v>
-      </c>
-      <c r="F101" t="s">
-        <v>159</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>182</v>
-      </c>
-      <c r="D102">
-        <v>32767</v>
-      </c>
-      <c r="F102" t="s">
-        <v>159</v>
-      </c>
-      <c r="I102">
+      <c r="G99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100">
+        <v>65535</v>
+      </c>
+      <c r="F100">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>96</v>
+      </c>
       <c r="C103" t="s">
-        <v>180</v>
-      </c>
-      <c r="D103">
-        <v>-1</v>
-      </c>
-      <c r="F103" t="s">
-        <v>159</v>
-      </c>
-      <c r="I103">
+        <v>178</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104">
+        <v>32767</v>
+      </c>
+      <c r="F104">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>18</v>
-      </c>
-      <c r="B105" t="s">
-        <v>98</v>
-      </c>
+      <c r="G104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D105">
-        <v>-32768</v>
-      </c>
-      <c r="F105" t="s">
-        <v>159</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>182</v>
-      </c>
-      <c r="D106">
-        <v>32767</v>
-      </c>
-      <c r="F106" t="s">
-        <v>159</v>
-      </c>
-      <c r="I106">
+        <v>-1</v>
+      </c>
+      <c r="F105">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>98</v>
+      </c>
       <c r="C107" t="s">
-        <v>180</v>
-      </c>
-      <c r="D107">
-        <v>-1</v>
-      </c>
-      <c r="F107" t="s">
-        <v>159</v>
-      </c>
-      <c r="I107">
+        <v>178</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108">
+        <v>32767</v>
+      </c>
+      <c r="F108">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I108">
+      <c r="G108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109">
+        <v>-1</v>
+      </c>
+      <c r="F109">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>19</v>
-      </c>
-      <c r="B109" t="s">
+        <v>255</v>
+      </c>
+      <c r="G109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>219</v>
+      </c>
+      <c r="D110">
+        <v>32767</v>
+      </c>
+      <c r="F110">
+        <v>255</v>
+      </c>
+      <c r="G110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>22</v>
+      </c>
+      <c r="B112" t="s">
         <v>88</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C112" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" t="s">
+        <v>212</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
         <v>183</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
-        <v>159</v>
-      </c>
-      <c r="I109">
+      <c r="D115" t="s">
+        <v>212</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="13">
+        <v>23</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D118" s="13">
+        <v>1</v>
+      </c>
+      <c r="F118">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
+      <c r="G118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" s="13">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122" t="s">
+        <v>214</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="F110" t="s">
-        <v>159</v>
-      </c>
-      <c r="I110">
+      <c r="D124" s="13">
+        <v>1</v>
+      </c>
+      <c r="F124">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="F111" t="s">
-        <v>159</v>
-      </c>
-      <c r="I111">
+      <c r="D125" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C129" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D129" s="13">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C130" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D132" s="13">
+        <v>1</v>
+      </c>
+      <c r="F132">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C133" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C134" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="F112" t="s">
-        <v>159</v>
-      </c>
-      <c r="I112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="13">
-        <v>20</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D114" s="13">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
-        <v>159</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D115" s="13">
-        <v>0</v>
-      </c>
-      <c r="F115" t="s">
-        <v>159</v>
-      </c>
-      <c r="I115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D116" s="13">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D117" s="13">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>21</v>
-      </c>
-      <c r="B119" t="s">
-        <v>90</v>
-      </c>
-      <c r="C119" s="13" t="s">
+      <c r="D134" s="13">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C135" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D119" s="13">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C120" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D120" s="13">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C121" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D121" s="13">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C122" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D122" s="13">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>22</v>
-      </c>
-      <c r="B124" t="s">
-        <v>92</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D124" s="13">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="I125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>23</v>
-      </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
+      <c r="D135" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C136" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C137" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D137" s="13">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C138" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D138" s="13">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6613C6-FFC1-4CCA-A524-D944411E6CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE401B8D-A48F-4258-A481-F887F0731D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="223">
   <si>
     <t>Code</t>
   </si>
@@ -532,12 +532,6 @@
     <t>0x0 | 0x0</t>
   </si>
   <si>
-    <t>0x0FFFFFFF &amp; 0x0FFFFFFF</t>
-  </si>
-  <si>
-    <t>0x0FFFFFFF &amp; 0xFFFF</t>
-  </si>
-  <si>
     <t>0x0 ^ 0x0</t>
   </si>
   <si>
@@ -649,9 +643,6 @@
     <t>1 (forced)</t>
   </si>
   <si>
-    <t>"-65536 + 1 (forced)"</t>
-  </si>
-  <si>
     <t>0 + 1 (forced)</t>
   </si>
   <si>
@@ -692,6 +683,24 @@
   </si>
   <si>
     <t>0x7FFF0000 &gt;&gt; 10000 (same as shifting by 16 bits)</t>
+  </si>
+  <si>
+    <t>0xAAAAAAAA ^ 0x55555555</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFF ^ 0xFFFF</t>
+  </si>
+  <si>
+    <t>0xAAAAAAAA | 0x55555555</t>
+  </si>
+  <si>
+    <t>0x0FFFFFFF | 0x0FFFFFFF</t>
+  </si>
+  <si>
+    <t>0xAAAAAAAA | 0x5555</t>
+  </si>
+  <si>
+    <t>0x0FFFFFFF | 0xFFFF</t>
   </si>
 </sst>
 </file>
@@ -1175,25 +1184,25 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +1251,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1320,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1408,7 +1417,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1493,7 +1502,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1632,7 +1641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1666,7 +1675,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -1706,7 +1715,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -1734,7 +1743,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -1768,7 +1777,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -1802,7 +1811,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -1819,7 +1828,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>76</v>
       </c>
@@ -1859,7 +1868,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
         <v>78</v>
       </c>
@@ -1882,7 +1891,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -1899,7 +1908,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -1916,7 +1925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>84</v>
       </c>
@@ -1933,7 +1942,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>86</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>88</v>
       </c>
@@ -1967,7 +1976,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>90</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>92</v>
       </c>
@@ -2001,7 +2010,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>94</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>96</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>98</v>
       </c>
@@ -2052,7 +2061,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>99</v>
       </c>
@@ -2069,7 +2078,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>101</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>103</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>105</v>
       </c>
@@ -2132,7 +2141,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -2149,7 +2158,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>109</v>
       </c>
@@ -2172,7 +2181,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>111</v>
       </c>
@@ -2195,7 +2204,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -2215,7 +2224,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -2224,7 +2233,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
@@ -2247,19 +2256,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
@@ -2273,10 +2282,10 @@
         <v>135</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2290,17 +2299,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2314,7 +2323,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9">
         <v>2737224</v>
@@ -2346,9 +2355,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2364,7 +2373,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>157</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>141</v>
       </c>
@@ -2400,7 +2409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>143</v>
       </c>
@@ -2418,9 +2427,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D14">
         <v>-2147483647</v>
@@ -2436,7 +2445,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17">
         <v>985953</v>
@@ -2475,9 +2484,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2490,7 +2499,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>158</v>
       </c>
@@ -2505,7 +2514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>143</v>
       </c>
@@ -2535,9 +2544,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D22">
         <v>-2147483647</v>
@@ -2550,9 +2559,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2565,7 +2574,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2573,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D25">
         <v>3634723</v>
@@ -2586,9 +2595,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2601,7 +2610,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>146</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>147</v>
       </c>
@@ -2631,7 +2640,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>148</v>
       </c>
@@ -2646,7 +2655,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2654,7 +2663,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D31">
         <v>5466930</v>
@@ -2667,9 +2676,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2682,7 +2691,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>145</v>
       </c>
@@ -2697,7 +2706,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>146</v>
       </c>
@@ -2712,7 +2721,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>143</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>159</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7</v>
       </c>
@@ -2750,7 +2759,7 @@
         <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -2763,7 +2772,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>149</v>
       </c>
@@ -2778,9 +2787,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2793,7 +2802,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>150</v>
       </c>
@@ -2808,7 +2817,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>152</v>
       </c>
@@ -2823,7 +2832,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -2838,7 +2847,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>153</v>
       </c>
@@ -2853,7 +2862,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>8</v>
       </c>
@@ -2861,7 +2870,7 @@
         <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2874,7 +2883,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>149</v>
       </c>
@@ -2889,9 +2898,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2904,7 +2913,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -2919,7 +2928,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>152</v>
       </c>
@@ -2934,9 +2943,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D51">
         <v>2147483647</v>
@@ -2949,7 +2958,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>153</v>
       </c>
@@ -2964,7 +2973,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>9</v>
       </c>
@@ -2975,7 +2984,7 @@
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2984,12 +2993,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2998,7 +3007,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -3013,7 +3022,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>10</v>
       </c>
@@ -3024,7 +3033,7 @@
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3033,12 +3042,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>163</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3047,7 +3056,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>164</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>11</v>
       </c>
@@ -3073,7 +3082,7 @@
         <v>165</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -3082,9 +3091,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="D63">
         <v>-1</v>
@@ -3097,9 +3106,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D64">
         <v>268435455</v>
@@ -3112,7 +3121,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -3123,7 +3132,7 @@
         <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3132,9 +3141,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="D67">
         <v>-1431633921</v>
@@ -3147,9 +3156,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D68">
         <v>268435455</v>
@@ -3162,7 +3171,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3170,10 +3179,10 @@
         <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3182,9 +3191,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="D71">
         <v>-1</v>
@@ -3197,12 +3206,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>164</v>
-      </c>
-      <c r="D72" t="s">
-        <v>205</v>
+        <v>218</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3211,7 +3220,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3219,10 +3228,10 @@
         <v>111</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3231,7 +3240,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>163</v>
       </c>
@@ -3239,19 +3248,19 @@
         <v>-1431633921</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75:F133" si="1">MOD(D75,256)</f>
+        <f t="shared" ref="F75:F132" si="1">MOD(D75,256)</f>
         <v>255</v>
       </c>
       <c r="G75" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>164</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3260,7 +3269,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>15</v>
       </c>
@@ -3268,10 +3277,10 @@
         <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3280,12 +3289,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3294,7 +3303,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>16</v>
       </c>
@@ -3302,38 +3311,38 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
         <v>171</v>
       </c>
-      <c r="D81" t="s">
-        <v>206</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>172</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>173</v>
-      </c>
       <c r="D83" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3342,12 +3351,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D84" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3356,7 +3365,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>17</v>
       </c>
@@ -3364,66 +3373,66 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>171</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
         <v>206</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>172</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" t="s">
-        <v>208</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>209</v>
-      </c>
       <c r="D90" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3432,7 +3441,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>18</v>
       </c>
@@ -3440,10 +3449,10 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3452,9 +3461,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D93">
         <v>65535</v>
@@ -3467,9 +3476,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D94">
         <v>65535</v>
@@ -3482,9 +3491,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3497,9 +3506,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D96">
         <v>65535</v>
@@ -3512,7 +3521,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>19</v>
       </c>
@@ -3520,10 +3529,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3532,9 +3541,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D99">
         <v>65535</v>
@@ -3547,9 +3556,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D100">
         <v>65535</v>
@@ -3562,9 +3571,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -3577,7 +3586,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>20</v>
       </c>
@@ -3585,10 +3594,10 @@
         <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -3597,9 +3606,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D104">
         <v>32767</v>
@@ -3612,9 +3621,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D105">
         <v>-1</v>
@@ -3627,7 +3636,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>21</v>
       </c>
@@ -3635,10 +3644,10 @@
         <v>98</v>
       </c>
       <c r="C107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -3647,9 +3656,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D108">
         <v>32767</v>
@@ -3662,9 +3671,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D109">
         <v>-1</v>
@@ -3677,9 +3686,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D110">
         <v>32767</v>
@@ -3691,7 +3700,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>22</v>
       </c>
@@ -3699,7 +3708,7 @@
         <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3712,12 +3721,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D113" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -3726,12 +3735,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D114" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -3740,12 +3749,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D115" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -3754,12 +3763,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D116" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F116">
         <v>3</v>
@@ -3768,7 +3777,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>23</v>
       </c>
@@ -3776,7 +3785,7 @@
         <v>94</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D118" s="13">
         <v>1</v>
@@ -3789,14 +3798,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -3805,11 +3814,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D120" s="13">
         <v>1</v>
@@ -3822,14 +3831,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F121">
         <v>2</v>
@@ -3838,14 +3847,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F122">
         <v>3</v>
@@ -3854,7 +3863,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>24</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>90</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D124" s="13">
         <v>1</v>
@@ -3875,12 +3884,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C125" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -3889,12 +3898,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C126" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F126">
         <v>2</v>
@@ -3903,12 +3912,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C127" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F127">
         <v>2</v>
@@ -3917,12 +3926,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C128" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F128">
         <v>3</v>
@@ -3931,9 +3940,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C129" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D129" s="13">
         <v>1</v>
@@ -3945,12 +3954,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C130" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F130">
         <v>2</v>
@@ -3959,7 +3968,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>25</v>
       </c>
@@ -3967,7 +3976,7 @@
         <v>92</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D132" s="13">
         <v>1</v>
@@ -3980,12 +3989,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C133" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -3994,9 +4003,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C134" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D134" s="13">
         <v>1</v>
@@ -4008,12 +4017,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C135" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F135">
         <v>2</v>
@@ -4022,12 +4031,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C136" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F136">
         <v>3</v>
@@ -4036,9 +4045,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C137" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D137" s="13">
         <v>1</v>
@@ -4050,9 +4059,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C138" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D138" s="13">
         <v>1</v>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE401B8D-A48F-4258-A481-F887F0731D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B96D35-D21E-444B-B53B-148C2D9FF0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="231">
   <si>
     <t>Code</t>
   </si>
@@ -701,6 +701,30 @@
   </si>
   <si>
     <t>0x0FFFFFFF | 0xFFFF</t>
+  </si>
+  <si>
+    <t>Positive Branch + Delay Slot Check</t>
+  </si>
+  <si>
+    <t>Negative Branch + No Branch + Delay Slot Check</t>
+  </si>
+  <si>
+    <t>Jump Out of Bounds Negative</t>
+  </si>
+  <si>
+    <t>Jump Out of Bounds Positive</t>
+  </si>
+  <si>
+    <t>245 Memory Error</t>
+  </si>
+  <si>
+    <t>Jumo Out of Bounds Negative</t>
+  </si>
+  <si>
+    <t>Positive Branch + Delay Slot Check + Link Check</t>
+  </si>
+  <si>
+    <t>Negative Branch + No Branch + Delay Slot Check + Link Check</t>
   </si>
 </sst>
 </file>
@@ -816,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -863,6 +887,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,29 +1205,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1253,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1276,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1299,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1322,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1345,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1368,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1366,7 +1391,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1383,7 +1408,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1400,7 +1425,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1417,7 +1442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1434,7 +1459,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1468,7 +1493,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1485,7 +1510,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1502,7 +1527,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1519,7 +1544,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1536,7 +1561,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1553,7 +1578,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1570,7 +1595,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1587,7 +1612,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1607,7 +1632,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1624,7 +1649,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1641,7 +1666,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1658,7 +1683,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1675,7 +1700,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
@@ -1698,7 +1723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -1715,7 +1740,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1729,7 +1754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -1743,7 +1768,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
@@ -1760,7 +1785,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -1777,7 +1802,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -1794,7 +1819,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -1811,7 +1836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -1828,7 +1853,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -1845,7 +1870,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>76</v>
       </c>
@@ -1868,7 +1893,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>78</v>
       </c>
@@ -1891,7 +1916,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -1908,7 +1933,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -1925,7 +1950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>84</v>
       </c>
@@ -1942,7 +1967,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>86</v>
       </c>
@@ -1959,7 +1984,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>88</v>
       </c>
@@ -1976,7 +2001,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>90</v>
       </c>
@@ -1993,7 +2018,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>92</v>
       </c>
@@ -2010,7 +2035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>94</v>
       </c>
@@ -2027,7 +2052,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>96</v>
       </c>
@@ -2044,7 +2069,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>98</v>
       </c>
@@ -2061,7 +2086,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>99</v>
       </c>
@@ -2078,7 +2103,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>101</v>
       </c>
@@ -2095,7 +2120,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>103</v>
       </c>
@@ -2118,7 +2143,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>105</v>
       </c>
@@ -2141,7 +2166,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -2158,7 +2183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>109</v>
       </c>
@@ -2181,7 +2206,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="17" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>111</v>
       </c>
@@ -2204,7 +2229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -2215,7 +2240,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -2224,7 +2249,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -2233,7 +2258,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
@@ -2254,21 +2279,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
@@ -2285,7 +2310,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2299,17 +2324,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2323,7 +2348,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -2331,7 +2356,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2355,7 +2380,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>190</v>
       </c>
@@ -2373,7 +2398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>157</v>
       </c>
@@ -2391,7 +2416,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>141</v>
       </c>
@@ -2409,7 +2434,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>143</v>
       </c>
@@ -2427,7 +2452,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>191</v>
       </c>
@@ -2445,7 +2470,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -2463,7 +2488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2484,7 +2509,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>190</v>
       </c>
@@ -2499,7 +2524,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>158</v>
       </c>
@@ -2514,7 +2539,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>141</v>
       </c>
@@ -2529,7 +2554,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>143</v>
       </c>
@@ -2544,7 +2569,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>191</v>
       </c>
@@ -2559,7 +2584,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>200</v>
       </c>
@@ -2574,7 +2599,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2595,7 +2620,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>190</v>
       </c>
@@ -2610,7 +2635,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>146</v>
       </c>
@@ -2625,7 +2650,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>147</v>
       </c>
@@ -2640,7 +2665,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>148</v>
       </c>
@@ -2655,7 +2680,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2676,7 +2701,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>190</v>
       </c>
@@ -2691,7 +2716,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>145</v>
       </c>
@@ -2706,7 +2731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>146</v>
       </c>
@@ -2721,7 +2746,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>143</v>
       </c>
@@ -2736,7 +2761,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>159</v>
       </c>
@@ -2751,7 +2776,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -2772,7 +2797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>149</v>
       </c>
@@ -2787,7 +2812,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>196</v>
       </c>
@@ -2802,7 +2827,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>150</v>
       </c>
@@ -2817,7 +2842,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>152</v>
       </c>
@@ -2832,7 +2857,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -2847,7 +2872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>153</v>
       </c>
@@ -2862,7 +2887,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
@@ -2883,7 +2908,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>149</v>
       </c>
@@ -2898,7 +2923,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>196</v>
       </c>
@@ -2913,7 +2938,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -2928,7 +2953,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>152</v>
       </c>
@@ -2943,7 +2968,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>201</v>
       </c>
@@ -2958,7 +2983,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>153</v>
       </c>
@@ -2973,7 +2998,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -2993,7 +3018,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>161</v>
       </c>
@@ -3007,7 +3032,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -3022,7 +3047,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
@@ -3042,7 +3067,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>163</v>
       </c>
@@ -3056,7 +3081,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>164</v>
       </c>
@@ -3071,7 +3096,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -3091,7 +3116,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>219</v>
       </c>
@@ -3106,7 +3131,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>220</v>
       </c>
@@ -3121,7 +3146,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
@@ -3141,7 +3166,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>221</v>
       </c>
@@ -3156,7 +3181,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>222</v>
       </c>
@@ -3171,7 +3196,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3191,7 +3216,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>217</v>
       </c>
@@ -3206,7 +3231,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>218</v>
       </c>
@@ -3220,7 +3245,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3240,7 +3265,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>163</v>
       </c>
@@ -3248,14 +3273,14 @@
         <v>-1431633921</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75:F132" si="1">MOD(D75,256)</f>
+        <f>MOD(D75,256)</f>
         <v>255</v>
       </c>
       <c r="G75" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>164</v>
       </c>
@@ -3269,7 +3294,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>15</v>
       </c>
@@ -3289,7 +3314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>168</v>
       </c>
@@ -3303,7 +3328,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>16</v>
       </c>
@@ -3323,7 +3348,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -3337,7 +3362,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>171</v>
       </c>
@@ -3351,7 +3376,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>186</v>
       </c>
@@ -3365,7 +3390,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>17</v>
       </c>
@@ -3385,7 +3410,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>170</v>
       </c>
@@ -3399,7 +3424,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>171</v>
       </c>
@@ -3413,7 +3438,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>186</v>
       </c>
@@ -3427,7 +3452,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>206</v>
       </c>
@@ -3441,7 +3466,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18</v>
       </c>
@@ -3461,7 +3486,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>173</v>
       </c>
@@ -3469,14 +3494,14 @@
         <v>65535</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
+        <f>MOD(D93,256)</f>
         <v>255</v>
       </c>
       <c r="G93" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>174</v>
       </c>
@@ -3484,14 +3509,14 @@
         <v>65535</v>
       </c>
       <c r="F94">
-        <f t="shared" si="1"/>
+        <f>MOD(D94,256)</f>
         <v>255</v>
       </c>
       <c r="G94" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>187</v>
       </c>
@@ -3499,14 +3524,14 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <f t="shared" si="1"/>
+        <f>MOD(D95,256)</f>
         <v>1</v>
       </c>
       <c r="G95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>207</v>
       </c>
@@ -3514,14 +3539,14 @@
         <v>65535</v>
       </c>
       <c r="F96">
-        <f t="shared" si="1"/>
+        <f>MOD(D96,256)</f>
         <v>255</v>
       </c>
       <c r="G96" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>19</v>
       </c>
@@ -3541,7 +3566,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>173</v>
       </c>
@@ -3549,14 +3574,14 @@
         <v>65535</v>
       </c>
       <c r="F99">
-        <f t="shared" si="1"/>
+        <f>MOD(D99,256)</f>
         <v>255</v>
       </c>
       <c r="G99" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>174</v>
       </c>
@@ -3564,14 +3589,14 @@
         <v>65535</v>
       </c>
       <c r="F100">
-        <f t="shared" si="1"/>
+        <f>MOD(D100,256)</f>
         <v>255</v>
       </c>
       <c r="G100" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>187</v>
       </c>
@@ -3579,14 +3604,14 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <f t="shared" si="1"/>
+        <f>MOD(D101,256)</f>
         <v>1</v>
       </c>
       <c r="G101" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20</v>
       </c>
@@ -3606,7 +3631,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>177</v>
       </c>
@@ -3614,14 +3639,14 @@
         <v>32767</v>
       </c>
       <c r="F104">
-        <f t="shared" si="1"/>
+        <f>MOD(D104,256)</f>
         <v>255</v>
       </c>
       <c r="G104" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>187</v>
       </c>
@@ -3629,14 +3654,14 @@
         <v>-1</v>
       </c>
       <c r="F105">
-        <f t="shared" si="1"/>
+        <f>MOD(D105,256)</f>
         <v>255</v>
       </c>
       <c r="G105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>21</v>
       </c>
@@ -3656,7 +3681,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>177</v>
       </c>
@@ -3664,14 +3689,14 @@
         <v>32767</v>
       </c>
       <c r="F108">
-        <f t="shared" si="1"/>
+        <f>MOD(D108,256)</f>
         <v>255</v>
       </c>
       <c r="G108" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>175</v>
       </c>
@@ -3679,14 +3704,14 @@
         <v>-1</v>
       </c>
       <c r="F109">
-        <f t="shared" si="1"/>
+        <f>MOD(D109,256)</f>
         <v>255</v>
       </c>
       <c r="G109" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>216</v>
       </c>
@@ -3700,7 +3725,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>22</v>
       </c>
@@ -3714,14 +3739,14 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <f t="shared" si="1"/>
+        <f>MOD(D112,256)</f>
         <v>1</v>
       </c>
       <c r="G112" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>179</v>
       </c>
@@ -3735,7 +3760,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>180</v>
       </c>
@@ -3749,7 +3774,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>181</v>
       </c>
@@ -3763,7 +3788,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>210</v>
       </c>
@@ -3777,7 +3802,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
         <v>23</v>
       </c>
@@ -3791,14 +3816,14 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <f t="shared" si="1"/>
+        <f>MOD(D118,256)</f>
         <v>1</v>
       </c>
       <c r="G118" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13" t="s">
@@ -3814,7 +3839,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13" t="s">
@@ -3824,14 +3849,14 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <f t="shared" si="1"/>
+        <f>MOD(D120,256)</f>
         <v>1</v>
       </c>
       <c r="G120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13" t="s">
@@ -3847,7 +3872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" t="s">
@@ -3863,7 +3888,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>24</v>
       </c>
@@ -3877,14 +3902,14 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <f t="shared" si="1"/>
+        <f>MOD(D124,256)</f>
         <v>1</v>
       </c>
       <c r="G124" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C125" s="13" t="s">
         <v>183</v>
       </c>
@@ -3898,7 +3923,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C126" s="13" t="s">
         <v>184</v>
       </c>
@@ -3912,7 +3937,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C127" s="13" t="s">
         <v>185</v>
       </c>
@@ -3926,7 +3951,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C128" s="13" t="s">
         <v>212</v>
       </c>
@@ -3940,7 +3965,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C129" s="13" t="s">
         <v>214</v>
       </c>
@@ -3954,7 +3979,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C130" s="13" t="s">
         <v>215</v>
       </c>
@@ -3968,7 +3993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>25</v>
       </c>
@@ -3982,14 +4007,14 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <f t="shared" si="1"/>
+        <f>MOD(D132,256)</f>
         <v>1</v>
       </c>
       <c r="G132" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C133" s="13" t="s">
         <v>183</v>
       </c>
@@ -4003,7 +4028,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C134" s="13" t="s">
         <v>184</v>
       </c>
@@ -4017,7 +4042,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C135" s="13" t="s">
         <v>185</v>
       </c>
@@ -4031,7 +4056,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C136" s="13" t="s">
         <v>212</v>
       </c>
@@ -4045,7 +4070,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C137" s="13" t="s">
         <v>214</v>
       </c>
@@ -4059,7 +4084,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C138" s="13" t="s">
         <v>215</v>
       </c>
@@ -4071,6 +4096,430 @@
       </c>
       <c r="G138" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>26</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D140">
+        <v>37</v>
+      </c>
+      <c r="G140" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C141" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D141" s="13">
+        <v>34</v>
+      </c>
+      <c r="G141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C142" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G142" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C143" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G143" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>27</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D147" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D148" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>28</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="5"/>
+      <c r="C151" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="5"/>
+      <c r="C152" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D152" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="5"/>
+      <c r="C153" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D153" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="5"/>
+      <c r="C154" s="13"/>
+    </row>
+    <row r="155" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>29</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="5"/>
+      <c r="C156" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="5"/>
+      <c r="C157" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="5"/>
+      <c r="C158" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D158" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="5"/>
+      <c r="C159" s="13"/>
+    </row>
+    <row r="160" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>30</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="5"/>
+      <c r="C161" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="5"/>
+      <c r="C162" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D162" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="5"/>
+      <c r="C163" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D163" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="5"/>
+      <c r="C164" s="13"/>
+    </row>
+    <row r="165" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>31</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="5"/>
+      <c r="C166" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="5"/>
+      <c r="C167" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D167" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="5"/>
+      <c r="C168" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D168" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="5"/>
+      <c r="C169" s="13"/>
+    </row>
+    <row r="170" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>32</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="5"/>
+      <c r="C171" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="5"/>
+      <c r="C172" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D172" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="5"/>
+      <c r="C173" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D173" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="5"/>
+      <c r="C174" s="13"/>
+    </row>
+    <row r="175" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>33</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="5"/>
+      <c r="C176" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="5"/>
+      <c r="C177" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D177" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="5"/>
+      <c r="C178" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D178" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="5"/>
+      <c r="C179" s="13"/>
+    </row>
+    <row r="180" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>34</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>35</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>36</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="4"/>
+    </row>
+    <row r="186" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>37</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>38</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>39</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>40</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="4"/>
+    </row>
+    <row r="194" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>41</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="5"/>
+    </row>
+    <row r="196" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>42</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="4"/>
+    </row>
+    <row r="198" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>43</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B96D35-D21E-444B-B53B-148C2D9FF0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251A5E4-0E27-4229-8534-E749F07080CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="238">
   <si>
     <t>Code</t>
   </si>
@@ -721,17 +721,38 @@
     <t>Jumo Out of Bounds Negative</t>
   </si>
   <si>
-    <t>Positive Branch + Delay Slot Check + Link Check</t>
-  </si>
-  <si>
     <t>Negative Branch + No Branch + Delay Slot Check + Link Check</t>
+  </si>
+  <si>
+    <t>Positive Branch (GZ) + Positive Branch (EZ) + Delay Slot Check</t>
+  </si>
+  <si>
+    <t>Negative Branch (GZ) + Negative Branch (EZ) + No Branch + Delay Slot Check</t>
+  </si>
+  <si>
+    <t>Positive Branch (GZ) + Positive Branch (EZ) + Delay Slot Check + Link Check</t>
+  </si>
+  <si>
+    <t>Negative Branch (GZ) + Negative Branch (EZ) + No Branch + Delay Slot Check + Link Check</t>
+  </si>
+  <si>
+    <t>Positive Branch (LZ) + Positive Branch (EZ)  + Delay Slot Check</t>
+  </si>
+  <si>
+    <t>Negative Branch (LZ) + Positive Branch (EZ) + No Branch + Delay Slot Check</t>
+  </si>
+  <si>
+    <t>Positive Branch + No Branch + Delay Slot Check</t>
+  </si>
+  <si>
+    <t>Positive Branch + No Branch  + Delay Slot Check + Link Check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,20 +775,26 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,6 +816,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -871,8 +904,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -886,8 +917,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,141 +1289,141 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="D3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="D4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="D5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="D6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="D7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="D8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1700,26 +1736,26 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="D27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1870,49 +1906,49 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="D37" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="17" t="s">
+      <c r="D38" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1950,219 +1986,219 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
+    <row r="41" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="D41" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="D42" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+      <c r="D43" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="D44" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="D45" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="D46" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="D47" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+      <c r="D48" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="D49" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="D50" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="D51" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="D52" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2183,49 +2219,49 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+      <c r="D54" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="17" t="s">
+      <c r="D55" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2281,2244 +2317,2357 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="18">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+      <c r="D3" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="D4" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="18" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="18" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="18">
         <v>2737224</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="18">
         <v>184</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="18">
         <f>MOD(D9,256)</f>
         <v>72</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
         <f t="shared" ref="F10:F71" si="0">MOD(D10,256)</f>
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="18">
         <v>2147483647</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C12" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="18">
         <v>246</v>
       </c>
-      <c r="F12" t="e">
+      <c r="F12" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="C13" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="18">
         <v>-2147483647</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="18">
         <v>255</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="C14" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="18">
         <v>-2147483647</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="C15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="18">
         <v>246</v>
       </c>
-      <c r="F15" t="e">
+      <c r="F15" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="18">
         <v>985953</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="18">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="C18" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="C19" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="18">
         <v>2147483647</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="C20" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="18">
         <v>-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="18">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="C21" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="18">
         <v>-2147483647</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="C22" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="18">
         <v>-2147483647</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="C23" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="18">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="18">
         <v>3634723</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="C26" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="C27" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F27" t="e">
+      <c r="F27" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="C28" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="18">
         <v>-32769</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="C29" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F29" t="e">
+      <c r="F29" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="18">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="18">
         <v>5466930</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="18">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="C32" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="D32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="C33" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="18">
         <v>1879113727</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="C34" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="18">
         <v>-2147450882</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="18">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="C35" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="18">
         <v>-2147483647</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="C36" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="18">
         <v>65534</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="18">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="18">
         <v>7</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="18">
         <v>-1</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="C39" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="18">
         <v>2</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="C40" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="F40">
+      <c r="D40" s="18">
+        <v>1</v>
+      </c>
+      <c r="F40" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+      <c r="C41" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="18">
         <v>-2</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="18">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="C42" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F42" t="e">
+      <c r="F42" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="C43" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F43" t="e">
+      <c r="F43" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="C44" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F44" t="e">
+      <c r="F44" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="18">
         <v>8</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="F46">
+      <c r="D46" s="18">
+        <v>1</v>
+      </c>
+      <c r="F46" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="C47" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="18">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+      <c r="C48" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="F48">
+      <c r="D48" s="18">
+        <v>1</v>
+      </c>
+      <c r="F48" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="C49" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="18">
         <v>-2</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="18">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="C50" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="18">
         <v>2147483647</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+      <c r="C51" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="18">
         <v>2147483647</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="C52" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="F52">
+      <c r="D52" s="18">
+        <v>1</v>
+      </c>
+      <c r="F52" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="18">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+      <c r="C55" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" s="18">
+        <v>1</v>
+      </c>
+      <c r="G55" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+      <c r="C56" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="18">
         <v>-1</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="18">
         <v>10</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" s="18">
+        <v>1</v>
+      </c>
+      <c r="G58" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+      <c r="C59" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+      <c r="G59" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+      <c r="C60" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="18">
         <v>65535</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="18">
         <v>11</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F62" s="18">
+        <v>1</v>
+      </c>
+      <c r="G62" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+      <c r="C63" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="18">
         <v>-1</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="C64" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="18">
         <v>268435455</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="18">
         <v>12</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="F66" s="18">
+        <v>1</v>
+      </c>
+      <c r="G66" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+      <c r="C67" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="18">
         <v>-1431633921</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+      <c r="C68" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="18">
         <v>268435455</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="18">
         <v>13</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F70" s="18">
+        <v>1</v>
+      </c>
+      <c r="G70" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+      <c r="C71" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="18">
         <v>-1</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="18">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+      <c r="C72" s="18" t="s">
         <v>218</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F72" s="18">
+        <v>1</v>
+      </c>
+      <c r="G72" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="18">
         <v>14</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F74" s="18">
+        <v>1</v>
+      </c>
+      <c r="G74" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+      <c r="C75" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="18">
         <v>-1431633921</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="18">
         <f>MOD(D75,256)</f>
         <v>255</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+      <c r="C76" s="18" t="s">
         <v>164</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="F76" s="18">
+        <v>1</v>
+      </c>
+      <c r="G76" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="18">
         <v>15</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="F78" s="18">
+        <v>1</v>
+      </c>
+      <c r="G78" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+      <c r="C79" s="18" t="s">
         <v>168</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F79" s="18">
+        <v>1</v>
+      </c>
+      <c r="G79" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="18">
         <v>16</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="F81" s="18">
+        <v>1</v>
+      </c>
+      <c r="G81" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+      <c r="C82" s="18" t="s">
         <v>170</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="F82" s="18">
+        <v>1</v>
+      </c>
+      <c r="G82" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+      <c r="C83" s="18" t="s">
         <v>171</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F83" s="18">
+        <v>1</v>
+      </c>
+      <c r="G83" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+      <c r="C84" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="F84" s="18">
+        <v>1</v>
+      </c>
+      <c r="G84" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="18">
         <v>17</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="F86" s="18">
+        <v>1</v>
+      </c>
+      <c r="G86" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+      <c r="C87" s="18" t="s">
         <v>170</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="F87" s="18">
+        <v>1</v>
+      </c>
+      <c r="G87" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+      <c r="C88" s="18" t="s">
         <v>171</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="F88" s="18">
+        <v>1</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
+      <c r="C89" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F89" s="18">
+        <v>1</v>
+      </c>
+      <c r="G89" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
+      <c r="C90" s="18" t="s">
         <v>206</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="F90" s="18">
+        <v>1</v>
+      </c>
+      <c r="G90" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="18">
         <v>18</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="F92" s="18">
+        <v>1</v>
+      </c>
+      <c r="G92" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+      <c r="C93" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="18">
         <v>65535</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="18">
         <f>MOD(D93,256)</f>
         <v>255</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
+      <c r="C94" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="18">
         <v>65535</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="18">
         <f>MOD(D94,256)</f>
         <v>255</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
+      <c r="C95" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="F95">
+      <c r="D95" s="18">
+        <v>1</v>
+      </c>
+      <c r="F95" s="18">
         <f>MOD(D95,256)</f>
         <v>1</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+      <c r="C96" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="18">
         <v>65535</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="18">
         <f>MOD(D96,256)</f>
         <v>255</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="18">
         <v>19</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="F98" s="18">
+        <v>1</v>
+      </c>
+      <c r="G98" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+      <c r="C99" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="18">
         <v>65535</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="18">
         <f>MOD(D99,256)</f>
         <v>255</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+      <c r="C100" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="18">
         <v>65535</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="18">
         <f>MOD(D100,256)</f>
         <v>255</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+      <c r="C101" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="F101">
+      <c r="D101" s="18">
+        <v>1</v>
+      </c>
+      <c r="F101" s="18">
         <f>MOD(D101,256)</f>
         <v>1</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="18">
         <v>20</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="18" t="s">
         <v>176</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="F103" s="18">
+        <v>1</v>
+      </c>
+      <c r="G103" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
+      <c r="C104" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="18">
         <v>32767</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="18">
         <f>MOD(D104,256)</f>
         <v>255</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+      <c r="C105" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="18">
         <v>-1</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="18">
         <f>MOD(D105,256)</f>
         <v>255</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="18">
         <v>21</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="18" t="s">
         <v>176</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="F107" s="18">
+        <v>1</v>
+      </c>
+      <c r="G107" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+      <c r="C108" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="18">
         <v>32767</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="18">
         <f>MOD(D108,256)</f>
         <v>255</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
+      <c r="C109" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="18">
         <v>-1</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="18">
         <f>MOD(D109,256)</f>
         <v>255</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
+      <c r="C110" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="18">
         <v>32767</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="18">
         <v>255</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="18">
         <v>22</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="F112">
+      <c r="D112" s="18">
+        <v>1</v>
+      </c>
+      <c r="F112" s="18">
         <f>MOD(D112,256)</f>
         <v>1</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+      <c r="C113" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="18">
         <v>2</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+      <c r="C114" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="18">
         <v>2</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
+      <c r="C115" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="18">
         <v>2</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
+      <c r="C116" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="18">
         <v>3</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="13">
+      <c r="A118" s="18">
         <v>23</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D118" s="13">
-        <v>1</v>
-      </c>
-      <c r="F118">
+      <c r="D118" s="18">
+        <v>1</v>
+      </c>
+      <c r="F118" s="18">
         <f>MOD(D118,256)</f>
         <v>1</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="18">
         <v>2</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="D120" s="13">
-        <v>1</v>
-      </c>
-      <c r="F120">
+      <c r="D120" s="18">
+        <v>1</v>
+      </c>
+      <c r="F120" s="18">
         <f>MOD(D120,256)</f>
         <v>1</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="D121" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="18">
         <v>2</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" t="s">
+      <c r="C122" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="18">
         <v>3</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="18">
         <v>24</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D124" s="13">
-        <v>1</v>
-      </c>
-      <c r="F124">
+      <c r="D124" s="18">
+        <v>1</v>
+      </c>
+      <c r="F124" s="18">
         <f>MOD(D124,256)</f>
         <v>1</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="D125" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="18">
         <v>2</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D126" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="18">
         <v>2</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D127" s="13" t="s">
+      <c r="D127" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="18">
         <v>2</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="13" t="s">
+      <c r="C128" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="D128" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="18">
         <v>3</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D129" s="13">
-        <v>1</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="D129" s="18">
+        <v>1</v>
+      </c>
+      <c r="F129" s="18">
+        <v>1</v>
+      </c>
+      <c r="G129" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D130" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="18">
         <v>2</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="18">
         <v>25</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D132" s="13">
-        <v>1</v>
-      </c>
-      <c r="F132">
+      <c r="D132" s="18">
+        <v>1</v>
+      </c>
+      <c r="F132" s="18">
         <f>MOD(D132,256)</f>
         <v>1</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="D133" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="18">
         <v>2</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D134" s="13">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="D134" s="18">
+        <v>1</v>
+      </c>
+      <c r="F134" s="18">
+        <v>1</v>
+      </c>
+      <c r="G134" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="D135" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="18">
         <v>2</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="D136" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="18">
         <v>3</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D137" s="13">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="D137" s="18">
+        <v>1</v>
+      </c>
+      <c r="F137" s="18">
+        <v>1</v>
+      </c>
+      <c r="G137" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D138" s="13">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138" t="s">
+      <c r="D138" s="18">
+        <v>1</v>
+      </c>
+      <c r="F138" s="18">
+        <v>1</v>
+      </c>
+      <c r="G138" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="18">
         <v>26</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="18">
         <v>37</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D141" s="13">
+      <c r="D141" s="18">
         <v>34</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D142" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="D143" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="G143" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="18">
         <v>27</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="18" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="13" t="s">
+      <c r="D145" s="18">
+        <v>45</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C146" s="18" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="13" t="s">
+      <c r="D146" s="18">
+        <v>11</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C147" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="18" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="13" t="s">
+      <c r="G147" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C148" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="18" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="G148" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="18">
         <v>28</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D150" s="18">
+        <v>254</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="20"/>
+      <c r="C151" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D151" s="18">
+        <v>253</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="20"/>
+      <c r="C152" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G152" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="20"/>
+      <c r="C153" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G153" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="20"/>
+    </row>
+    <row r="155" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="18">
+        <v>29</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D155" s="18">
+        <v>26</v>
+      </c>
+      <c r="G155" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="20"/>
+      <c r="C156" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D156" s="18">
+        <v>17</v>
+      </c>
+      <c r="G156" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="20"/>
+      <c r="C157" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G157" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="20"/>
+      <c r="C158" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G158" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="20"/>
+    </row>
+    <row r="160" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="18">
+        <v>30</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D160" s="18">
+        <v>255</v>
+      </c>
+      <c r="G160" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="20"/>
+      <c r="C161" s="18" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="5"/>
-      <c r="C151" s="20" t="s">
+      <c r="D161" s="18">
+        <v>255</v>
+      </c>
+      <c r="G161" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="20"/>
+      <c r="C162" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="20"/>
+      <c r="C163" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G163" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="20"/>
+    </row>
+    <row r="165" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="18">
+        <v>31</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D165" s="18">
+        <v>2</v>
+      </c>
+      <c r="G165" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="20"/>
+      <c r="C166" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D166" s="18">
+        <v>3</v>
+      </c>
+      <c r="G166" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="20"/>
+      <c r="C167" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G167" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="20"/>
+      <c r="C168" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G168" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="20"/>
+    </row>
+    <row r="170" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="18">
+        <v>32</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D170" s="18">
+        <v>1</v>
+      </c>
+      <c r="G170" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="20"/>
+      <c r="C171" s="21" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="5"/>
-      <c r="C152" s="13" t="s">
+      <c r="D171" s="18">
+        <v>1</v>
+      </c>
+      <c r="G171" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="20"/>
+      <c r="C172" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G172" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="20"/>
+      <c r="C173" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G173" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="20"/>
+    </row>
+    <row r="175" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="18">
+        <v>33</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D175" s="18">
+        <v>21</v>
+      </c>
+      <c r="G175" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="20"/>
+      <c r="C176" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D176" s="18">
+        <v>21</v>
+      </c>
+      <c r="G176" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="20"/>
+      <c r="C177" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D177" s="18" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="5"/>
-      <c r="C153" s="13" t="s">
+      <c r="G177" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="20"/>
+      <c r="C178" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D178" s="18" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="5"/>
-      <c r="C154" s="13"/>
-    </row>
-    <row r="155" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>29</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="5"/>
-      <c r="C156" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="5"/>
-      <c r="C157" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D157" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="5"/>
-      <c r="C158" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D158" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="5"/>
-      <c r="C159" s="13"/>
-    </row>
-    <row r="160" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>30</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="5"/>
-      <c r="C161" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="5"/>
-      <c r="C162" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D162" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="5"/>
-      <c r="C163" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D163" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="5"/>
-      <c r="C164" s="13"/>
-    </row>
-    <row r="165" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>31</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="5"/>
-      <c r="C166" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="5"/>
-      <c r="C167" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D167" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="5"/>
-      <c r="C168" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D168" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="5"/>
-      <c r="C169" s="13"/>
-    </row>
-    <row r="170" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>32</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="5"/>
-      <c r="C171" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="5"/>
-      <c r="C172" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D172" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="5"/>
-      <c r="C173" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D173" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="5"/>
-      <c r="C174" s="13"/>
-    </row>
-    <row r="175" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>33</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C175" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="5"/>
-      <c r="C176" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="5"/>
-      <c r="C177" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D177" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="5"/>
-      <c r="C178" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D178" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="5"/>
-      <c r="C179" s="13"/>
-    </row>
-    <row r="180" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="G178" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="20"/>
+    </row>
+    <row r="180" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="18">
         <v>34</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="4"/>
-    </row>
-    <row r="182" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182">
+    <row r="181" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="20"/>
+    </row>
+    <row r="182" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="18">
         <v>35</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="5"/>
-    </row>
-    <row r="184" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184">
+    <row r="183" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="20"/>
+    </row>
+    <row r="184" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="18">
         <v>36</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="4"/>
-    </row>
-    <row r="186" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186">
+    <row r="185" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="20"/>
+    </row>
+    <row r="186" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="18">
         <v>37</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="5"/>
-    </row>
-    <row r="188" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188">
+    <row r="187" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="20"/>
+    </row>
+    <row r="188" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="18">
         <v>38</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="4"/>
-    </row>
-    <row r="190" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190">
+    <row r="189" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="20"/>
+    </row>
+    <row r="190" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="18">
         <v>39</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="5"/>
-    </row>
-    <row r="192" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192">
+    <row r="191" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="20"/>
+    </row>
+    <row r="192" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="18">
         <v>40</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="4"/>
+      <c r="B193" s="20"/>
     </row>
     <row r="194" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194">
+      <c r="A194" s="18">
         <v>41</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="5"/>
+      <c r="B195" s="20"/>
     </row>
     <row r="196" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="A196" s="18">
         <v>42</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="4"/>
+      <c r="B197" s="20"/>
     </row>
     <row r="198" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="A198" s="18">
         <v>43</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="20" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251A5E4-0E27-4229-8534-E749F07080CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6474FB3A-24E4-4F6F-89DC-4442B7AAEB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="-22752" yWindow="1824" windowWidth="21600" windowHeight="11280" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="240">
   <si>
     <t>Code</t>
   </si>
@@ -746,6 +746,12 @@
   </si>
   <si>
     <t>Positive Branch + No Branch  + Delay Slot Check + Link Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Regular Division) 1967556744/605365266 </t>
+  </si>
+  <si>
+    <t>HI + LO = 3 + 151460946 = 151460949</t>
   </si>
 </sst>
 </file>
@@ -1241,8 +1247,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A26"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,139 +1433,187 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="D11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="D13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="D14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="D15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2315,10 +2369,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F179" sqref="F179"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,103 +4625,115 @@
       <c r="B180" s="20" t="s">
         <v>35</v>
       </c>
+      <c r="C180" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F180" s="18">
+        <v>85</v>
+      </c>
     </row>
     <row r="181" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="20"/>
     </row>
     <row r="182" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="18">
+      <c r="B182" s="20"/>
+    </row>
+    <row r="183" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="18">
         <v>35</v>
       </c>
-      <c r="B182" s="20" t="s">
+      <c r="B183" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="20"/>
-    </row>
     <row r="184" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="18">
+      <c r="B184" s="20"/>
+    </row>
+    <row r="185" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="18">
         <v>36</v>
       </c>
-      <c r="B184" s="20" t="s">
+      <c r="B185" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="20"/>
-    </row>
     <row r="186" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="18">
+      <c r="B186" s="20"/>
+    </row>
+    <row r="187" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="18">
         <v>37</v>
       </c>
-      <c r="B186" s="20" t="s">
+      <c r="B187" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="20"/>
-    </row>
     <row r="188" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="18">
+      <c r="B188" s="20"/>
+    </row>
+    <row r="189" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="18">
         <v>38</v>
       </c>
-      <c r="B188" s="20" t="s">
+      <c r="B189" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="20"/>
-    </row>
     <row r="190" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="18">
+      <c r="B190" s="20"/>
+    </row>
+    <row r="191" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="18">
         <v>39</v>
       </c>
-      <c r="B190" s="20" t="s">
+      <c r="B191" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="20"/>
-    </row>
     <row r="192" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="18">
+      <c r="B192" s="20"/>
+    </row>
+    <row r="193" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="18">
         <v>40</v>
       </c>
-      <c r="B192" s="20" t="s">
+      <c r="B193" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="20"/>
-    </row>
     <row r="194" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="18">
+      <c r="B194" s="20"/>
+    </row>
+    <row r="195" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="18">
         <v>41</v>
       </c>
-      <c r="B194" s="20" t="s">
+      <c r="B195" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="20"/>
-    </row>
     <row r="196" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="18">
+      <c r="B196" s="20"/>
+    </row>
+    <row r="197" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="18">
         <v>42</v>
       </c>
-      <c r="B196" s="20" t="s">
+      <c r="B197" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="20"/>
-    </row>
     <row r="198" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="18">
+      <c r="B198" s="20"/>
+    </row>
+    <row r="199" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="18">
         <v>43</v>
       </c>
-      <c r="B198" s="20" t="s">
+      <c r="B199" s="20" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6474FB3A-24E4-4F6F-89DC-4442B7AAEB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE43F009-A91D-44D5-9B17-DDFAFFD7CA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22752" yWindow="1824" windowWidth="21600" windowHeight="11280" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="256">
   <si>
     <t>Code</t>
   </si>
@@ -752,6 +752,54 @@
   </si>
   <si>
     <t>HI + LO = 3 + 151460946 = 151460949</t>
+  </si>
+  <si>
+    <t>DIV, MFLO, MFHI</t>
+  </si>
+  <si>
+    <t>(Signed Division) -7/-3</t>
+  </si>
+  <si>
+    <t>HI + LO = 2 -1 = 1</t>
+  </si>
+  <si>
+    <t>(Signed Division) -7/3</t>
+  </si>
+  <si>
+    <t>HI + LO = -2-1 = -3</t>
+  </si>
+  <si>
+    <t>(Signed Division) 7/-3</t>
+  </si>
+  <si>
+    <t>HI + LO = 0 -7 = -7</t>
+  </si>
+  <si>
+    <t>HI + LO = -2+1 = -1</t>
+  </si>
+  <si>
+    <t>HI + LO = 21843+0 = 21843</t>
+  </si>
+  <si>
+    <t>HI + LO = 0 + 7 = 7</t>
+  </si>
+  <si>
+    <t>DIVU, MFLO, MFHI</t>
+  </si>
+  <si>
+    <t>Large Jump</t>
+  </si>
+  <si>
+    <t>Small Jump</t>
+  </si>
+  <si>
+    <t>JALR 0, Store in R6, Settle Delay Slot</t>
+  </si>
+  <si>
+    <t>JALR R1, R1 = 0x10000010, Default Store in 31</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -879,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -905,9 +953,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,8 +1292,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,359 +1340,371 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="D3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="D4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="D6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="D7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="D8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="D9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="D10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="D11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="D12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="D13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="D14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="D15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="D16" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="D17" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1790,26 +1847,26 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="14" t="s">
+      <c r="D27" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1858,37 +1915,49 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="D31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1960,49 +2029,49 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="D37" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="15" t="s">
+      <c r="D38" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2040,219 +2109,219 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="D41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="D42" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="D43" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="D44" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="D45" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="D46" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="D47" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="D48" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="D49" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="D50" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="D51" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" s="15" t="s">
+      <c r="D52" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2273,49 +2342,49 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="D54" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="15" t="s">
+      <c r="D55" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2369,2371 +2438,2512 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="18"/>
+    <col min="1" max="1" width="4" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>2737224</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>184</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <f>MOD(D9,256)</f>
         <v>72</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
         <f t="shared" ref="F10:F71" si="0">MOD(D10,256)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>2147483647</v>
       </c>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>246</v>
       </c>
-      <c r="F12" s="18" t="e">
+      <c r="F12" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>-2147483647</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>255</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>-2147483647</v>
       </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18">
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>246</v>
       </c>
-      <c r="F15" s="18" t="e">
+      <c r="F15" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>4</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>985953</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>2147483647</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>-2</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>-2147483647</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>-2147483647</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="18">
-        <v>1</v>
-      </c>
-      <c r="F23" s="18">
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>5</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <v>3634723</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="18">
-        <v>1</v>
-      </c>
-      <c r="F26" s="18">
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="18" t="e">
+      <c r="F27" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <v>-32769</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="18" t="e">
+      <c r="F29" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>6</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="17">
         <v>5466930</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="18">
-        <v>1</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="17">
         <v>1879113727</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="17">
         <v>-2147450882</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
         <v>-2147483647</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="17">
         <v>65534</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="17">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>7</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="17">
         <v>-1</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="17">
         <v>2</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="18">
-        <v>1</v>
-      </c>
-      <c r="F40" s="18">
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="17">
         <v>-2</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="17">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="18" t="e">
+      <c r="F42" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="18" t="e">
+      <c r="F43" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="18" t="e">
+      <c r="F44" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+      <c r="A46" s="17">
         <v>8</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="18">
-        <v>1</v>
-      </c>
-      <c r="F46" s="18">
+      <c r="D46" s="17">
+        <v>1</v>
+      </c>
+      <c r="F46" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="17">
         <v>2</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="18">
-        <v>1</v>
-      </c>
-      <c r="F48" s="18">
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="F48" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="17">
         <v>-2</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="17">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="17">
         <v>2147483647</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="17">
         <v>2147483647</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="18">
-        <v>1</v>
-      </c>
-      <c r="F52" s="18">
+      <c r="D52" s="17">
+        <v>1</v>
+      </c>
+      <c r="F52" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="17">
         <v>9</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F54" s="18">
-        <v>1</v>
-      </c>
-      <c r="G54" s="18" t="s">
+      <c r="F54" s="17">
+        <v>1</v>
+      </c>
+      <c r="G54" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F55" s="18">
-        <v>1</v>
-      </c>
-      <c r="G55" s="18" t="s">
+      <c r="F55" s="17">
+        <v>1</v>
+      </c>
+      <c r="G55" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="17">
         <v>-1</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+      <c r="A58" s="17">
         <v>10</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F58" s="18">
-        <v>1</v>
-      </c>
-      <c r="G58" s="18" t="s">
+      <c r="F58" s="17">
+        <v>1</v>
+      </c>
+      <c r="G58" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F59" s="18">
-        <v>1</v>
-      </c>
-      <c r="G59" s="18" t="s">
+      <c r="F59" s="17">
+        <v>1</v>
+      </c>
+      <c r="G59" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="17">
         <v>65535</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="18">
+      <c r="A62" s="17">
         <v>11</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F62" s="18">
-        <v>1</v>
-      </c>
-      <c r="G62" s="18" t="s">
+      <c r="F62" s="17">
+        <v>1</v>
+      </c>
+      <c r="G62" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="17">
         <v>-1</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="17">
         <v>268435455</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="18">
+      <c r="A66" s="17">
         <v>12</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="F66" s="18">
-        <v>1</v>
-      </c>
-      <c r="G66" s="18" t="s">
+      <c r="F66" s="17">
+        <v>1</v>
+      </c>
+      <c r="G66" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="17">
         <v>-1431633921</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="17">
         <v>268435455</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="18">
+      <c r="A70" s="17">
         <v>13</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="F70" s="18">
-        <v>1</v>
-      </c>
-      <c r="G70" s="18" t="s">
+      <c r="F70" s="17">
+        <v>1</v>
+      </c>
+      <c r="G70" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="17">
         <v>-1</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="17">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F72" s="18">
-        <v>1</v>
-      </c>
-      <c r="G72" s="18" t="s">
+      <c r="F72" s="17">
+        <v>1</v>
+      </c>
+      <c r="G72" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="18">
+      <c r="A74" s="17">
         <v>14</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F74" s="18">
-        <v>1</v>
-      </c>
-      <c r="G74" s="18" t="s">
+      <c r="F74" s="17">
+        <v>1</v>
+      </c>
+      <c r="G74" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="17">
         <v>-1431633921</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="17">
         <f>MOD(D75,256)</f>
         <v>255</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="G75" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F76" s="18">
-        <v>1</v>
-      </c>
-      <c r="G76" s="18" t="s">
+      <c r="F76" s="17">
+        <v>1</v>
+      </c>
+      <c r="G76" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
+      <c r="A78" s="17">
         <v>15</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F78" s="18">
-        <v>1</v>
-      </c>
-      <c r="G78" s="18" t="s">
+      <c r="F78" s="17">
+        <v>1</v>
+      </c>
+      <c r="G78" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F79" s="18">
-        <v>1</v>
-      </c>
-      <c r="G79" s="18" t="s">
+      <c r="F79" s="17">
+        <v>1</v>
+      </c>
+      <c r="G79" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="18">
+      <c r="A81" s="17">
         <v>16</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F81" s="18">
-        <v>1</v>
-      </c>
-      <c r="G81" s="18" t="s">
+      <c r="F81" s="17">
+        <v>1</v>
+      </c>
+      <c r="G81" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F82" s="18">
-        <v>1</v>
-      </c>
-      <c r="G82" s="18" t="s">
+      <c r="F82" s="17">
+        <v>1</v>
+      </c>
+      <c r="G82" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F83" s="18">
-        <v>1</v>
-      </c>
-      <c r="G83" s="18" t="s">
+      <c r="F83" s="17">
+        <v>1</v>
+      </c>
+      <c r="G83" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="F84" s="18">
-        <v>1</v>
-      </c>
-      <c r="G84" s="18" t="s">
+      <c r="F84" s="17">
+        <v>1</v>
+      </c>
+      <c r="G84" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="18">
+      <c r="A86" s="17">
         <v>17</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F86" s="18">
-        <v>1</v>
-      </c>
-      <c r="G86" s="18" t="s">
+      <c r="F86" s="17">
+        <v>1</v>
+      </c>
+      <c r="G86" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F87" s="18">
-        <v>1</v>
-      </c>
-      <c r="G87" s="18" t="s">
+      <c r="F87" s="17">
+        <v>1</v>
+      </c>
+      <c r="G87" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F88" s="18">
-        <v>1</v>
-      </c>
-      <c r="G88" s="18" t="s">
+      <c r="F88" s="17">
+        <v>1</v>
+      </c>
+      <c r="G88" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="F89" s="18">
-        <v>1</v>
-      </c>
-      <c r="G89" s="18" t="s">
+      <c r="F89" s="17">
+        <v>1</v>
+      </c>
+      <c r="G89" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F90" s="18">
-        <v>1</v>
-      </c>
-      <c r="G90" s="18" t="s">
+      <c r="F90" s="17">
+        <v>1</v>
+      </c>
+      <c r="G90" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="18">
+      <c r="A92" s="17">
         <v>18</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F92" s="18">
-        <v>1</v>
-      </c>
-      <c r="G92" s="18" t="s">
+      <c r="F92" s="17">
+        <v>1</v>
+      </c>
+      <c r="G92" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="17">
         <v>65535</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="17">
         <f>MOD(D93,256)</f>
         <v>255</v>
       </c>
-      <c r="G93" s="18" t="s">
+      <c r="G93" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="17">
         <v>65535</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="17">
         <f>MOD(D94,256)</f>
         <v>255</v>
       </c>
-      <c r="G94" s="18" t="s">
+      <c r="G94" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D95" s="18">
-        <v>1</v>
-      </c>
-      <c r="F95" s="18">
+      <c r="D95" s="17">
+        <v>1</v>
+      </c>
+      <c r="F95" s="17">
         <f>MOD(D95,256)</f>
         <v>1</v>
       </c>
-      <c r="G95" s="18" t="s">
+      <c r="G95" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="17">
         <v>65535</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="17">
         <f>MOD(D96,256)</f>
         <v>255</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="G96" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="18">
+      <c r="A98" s="17">
         <v>19</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F98" s="18">
-        <v>1</v>
-      </c>
-      <c r="G98" s="18" t="s">
+      <c r="F98" s="17">
+        <v>1</v>
+      </c>
+      <c r="G98" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="17">
         <v>65535</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="17">
         <f>MOD(D99,256)</f>
         <v>255</v>
       </c>
-      <c r="G99" s="18" t="s">
+      <c r="G99" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="17">
         <v>65535</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="17">
         <f>MOD(D100,256)</f>
         <v>255</v>
       </c>
-      <c r="G100" s="18" t="s">
+      <c r="G100" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D101" s="18">
-        <v>1</v>
-      </c>
-      <c r="F101" s="18">
+      <c r="D101" s="17">
+        <v>1</v>
+      </c>
+      <c r="F101" s="17">
         <f>MOD(D101,256)</f>
         <v>1</v>
       </c>
-      <c r="G101" s="18" t="s">
+      <c r="G101" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="18">
+      <c r="A103" s="17">
         <v>20</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="F103" s="18">
-        <v>1</v>
-      </c>
-      <c r="G103" s="18" t="s">
+      <c r="F103" s="17">
+        <v>1</v>
+      </c>
+      <c r="G103" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D104" s="18">
+      <c r="D104" s="17">
         <v>32767</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="17">
         <f>MOD(D104,256)</f>
         <v>255</v>
       </c>
-      <c r="G104" s="18" t="s">
+      <c r="G104" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="17">
         <v>-1</v>
       </c>
-      <c r="F105" s="18">
+      <c r="F105" s="17">
         <f>MOD(D105,256)</f>
         <v>255</v>
       </c>
-      <c r="G105" s="18" t="s">
+      <c r="G105" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="18">
+      <c r="A107" s="17">
         <v>21</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D107" s="19" t="s">
+      <c r="D107" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="F107" s="18">
-        <v>1</v>
-      </c>
-      <c r="G107" s="18" t="s">
+      <c r="F107" s="17">
+        <v>1</v>
+      </c>
+      <c r="G107" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="17">
         <v>32767</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="17">
         <f>MOD(D108,256)</f>
         <v>255</v>
       </c>
-      <c r="G108" s="18" t="s">
+      <c r="G108" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="17">
         <v>-1</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="17">
         <f>MOD(D109,256)</f>
         <v>255</v>
       </c>
-      <c r="G109" s="18" t="s">
+      <c r="G109" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="17">
         <v>32767</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="17">
         <v>255</v>
       </c>
-      <c r="G110" s="18" t="s">
+      <c r="G110" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="18">
+      <c r="A112" s="17">
         <v>22</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D112" s="18">
-        <v>1</v>
-      </c>
-      <c r="F112" s="18">
+      <c r="D112" s="17">
+        <v>1</v>
+      </c>
+      <c r="F112" s="17">
         <f>MOD(D112,256)</f>
         <v>1</v>
       </c>
-      <c r="G112" s="18" t="s">
+      <c r="G112" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D113" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="17">
         <v>2</v>
       </c>
-      <c r="G113" s="18" t="s">
+      <c r="G113" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F114" s="18">
+      <c r="F114" s="17">
         <v>2</v>
       </c>
-      <c r="G114" s="18" t="s">
+      <c r="G114" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="D115" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="17">
         <v>2</v>
       </c>
-      <c r="G115" s="18" t="s">
+      <c r="G115" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="17">
         <v>3</v>
       </c>
-      <c r="G116" s="18" t="s">
+      <c r="G116" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="18">
+      <c r="A118" s="17">
         <v>23</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D118" s="18">
-        <v>1</v>
-      </c>
-      <c r="F118" s="18">
+      <c r="D118" s="17">
+        <v>1</v>
+      </c>
+      <c r="F118" s="17">
         <f>MOD(D118,256)</f>
         <v>1</v>
       </c>
-      <c r="G118" s="18" t="s">
+      <c r="G118" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="D119" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="17">
         <v>2</v>
       </c>
-      <c r="G119" s="18" t="s">
+      <c r="G119" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D120" s="18">
-        <v>1</v>
-      </c>
-      <c r="F120" s="18">
+      <c r="D120" s="17">
+        <v>1</v>
+      </c>
+      <c r="F120" s="17">
         <f>MOD(D120,256)</f>
         <v>1</v>
       </c>
-      <c r="G120" s="18" t="s">
+      <c r="G120" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D121" s="18" t="s">
+      <c r="D121" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="17">
         <v>2</v>
       </c>
-      <c r="G121" s="18" t="s">
+      <c r="G121" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="17">
         <v>3</v>
       </c>
-      <c r="G122" s="18" t="s">
+      <c r="G122" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="18">
+      <c r="A124" s="17">
         <v>24</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D124" s="18">
-        <v>1</v>
-      </c>
-      <c r="F124" s="18">
+      <c r="D124" s="17">
+        <v>1</v>
+      </c>
+      <c r="F124" s="17">
         <f>MOD(D124,256)</f>
         <v>1</v>
       </c>
-      <c r="G124" s="18" t="s">
+      <c r="G124" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F125" s="18">
+      <c r="F125" s="17">
         <v>2</v>
       </c>
-      <c r="G125" s="18" t="s">
+      <c r="G125" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D126" s="18" t="s">
+      <c r="D126" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F126" s="18">
+      <c r="F126" s="17">
         <v>2</v>
       </c>
-      <c r="G126" s="18" t="s">
+      <c r="G126" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F127" s="18">
+      <c r="F127" s="17">
         <v>2</v>
       </c>
-      <c r="G127" s="18" t="s">
+      <c r="G127" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="D128" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F128" s="18">
+      <c r="F128" s="17">
         <v>3</v>
       </c>
-      <c r="G128" s="18" t="s">
+      <c r="G128" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D129" s="18">
-        <v>1</v>
-      </c>
-      <c r="F129" s="18">
-        <v>1</v>
-      </c>
-      <c r="G129" s="18" t="s">
+      <c r="D129" s="17">
+        <v>1</v>
+      </c>
+      <c r="F129" s="17">
+        <v>1</v>
+      </c>
+      <c r="G129" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F130" s="18">
+      <c r="F130" s="17">
         <v>2</v>
       </c>
-      <c r="G130" s="18" t="s">
+      <c r="G130" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="18">
+      <c r="A132" s="17">
         <v>25</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D132" s="18">
-        <v>1</v>
-      </c>
-      <c r="F132" s="18">
+      <c r="D132" s="17">
+        <v>1</v>
+      </c>
+      <c r="F132" s="17">
         <f>MOD(D132,256)</f>
         <v>1</v>
       </c>
-      <c r="G132" s="18" t="s">
+      <c r="G132" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D133" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F133" s="18">
+      <c r="F133" s="17">
         <v>2</v>
       </c>
-      <c r="G133" s="18" t="s">
+      <c r="G133" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D134" s="18">
-        <v>1</v>
-      </c>
-      <c r="F134" s="18">
-        <v>1</v>
-      </c>
-      <c r="G134" s="18" t="s">
+      <c r="D134" s="17">
+        <v>1</v>
+      </c>
+      <c r="F134" s="17">
+        <v>1</v>
+      </c>
+      <c r="G134" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F135" s="18">
+      <c r="F135" s="17">
         <v>2</v>
       </c>
-      <c r="G135" s="18" t="s">
+      <c r="G135" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F136" s="18">
+      <c r="F136" s="17">
         <v>3</v>
       </c>
-      <c r="G136" s="18" t="s">
+      <c r="G136" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D137" s="18">
-        <v>1</v>
-      </c>
-      <c r="F137" s="18">
-        <v>1</v>
-      </c>
-      <c r="G137" s="18" t="s">
+      <c r="D137" s="17">
+        <v>1</v>
+      </c>
+      <c r="F137" s="17">
+        <v>1</v>
+      </c>
+      <c r="G137" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D138" s="18">
-        <v>1</v>
-      </c>
-      <c r="F138" s="18">
-        <v>1</v>
-      </c>
-      <c r="G138" s="18" t="s">
+      <c r="D138" s="17">
+        <v>1</v>
+      </c>
+      <c r="F138" s="17">
+        <v>1</v>
+      </c>
+      <c r="G138" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="18">
+      <c r="A140" s="17">
         <v>26</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="17">
         <v>37</v>
       </c>
-      <c r="G140" s="18" t="s">
+      <c r="G140" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="17">
         <v>34</v>
       </c>
-      <c r="G141" s="18" t="s">
+      <c r="G141" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G142" s="18" t="s">
+      <c r="G142" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G143" s="18" t="s">
+      <c r="G143" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="18">
+      <c r="A145" s="17">
         <v>27</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D145" s="18">
+      <c r="D145" s="17">
         <v>45</v>
       </c>
-      <c r="G145" s="18" t="s">
+      <c r="G145" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="17">
         <v>11</v>
       </c>
-      <c r="G146" s="18" t="s">
+      <c r="G146" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G147" s="18" t="s">
+      <c r="G147" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G148" s="18" t="s">
+      <c r="G148" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="150" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="18">
+      <c r="A150" s="17">
         <v>28</v>
       </c>
-      <c r="B150" s="20" t="s">
+      <c r="B150" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D150" s="18">
+      <c r="D150" s="17">
         <v>254</v>
       </c>
-      <c r="G150" s="18" t="s">
+      <c r="G150" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="20"/>
-      <c r="C151" s="21" t="s">
+      <c r="B151" s="19"/>
+      <c r="C151" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D151" s="18">
+      <c r="D151" s="17">
         <v>253</v>
       </c>
-      <c r="G151" s="18" t="s">
+      <c r="G151" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="20"/>
-      <c r="C152" s="18" t="s">
+      <c r="B152" s="19"/>
+      <c r="C152" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G152" s="18" t="s">
+      <c r="G152" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="20"/>
-      <c r="C153" s="18" t="s">
+      <c r="B153" s="19"/>
+      <c r="C153" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G153" s="18" t="s">
+      <c r="G153" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="20"/>
+      <c r="B154" s="19"/>
     </row>
     <row r="155" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="18">
+      <c r="A155" s="17">
         <v>29</v>
       </c>
-      <c r="B155" s="20" t="s">
+      <c r="B155" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D155" s="18">
+      <c r="D155" s="17">
         <v>26</v>
       </c>
-      <c r="G155" s="18" t="s">
+      <c r="G155" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="20"/>
-      <c r="C156" s="21" t="s">
+      <c r="B156" s="19"/>
+      <c r="C156" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D156" s="18">
+      <c r="D156" s="17">
         <v>17</v>
       </c>
-      <c r="G156" s="18" t="s">
+      <c r="G156" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="20"/>
-      <c r="C157" s="18" t="s">
+      <c r="B157" s="19"/>
+      <c r="C157" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G157" s="18" t="s">
+      <c r="G157" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="20"/>
-      <c r="C158" s="18" t="s">
+      <c r="B158" s="19"/>
+      <c r="C158" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G158" s="18" t="s">
+      <c r="G158" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="20"/>
+      <c r="B159" s="19"/>
     </row>
     <row r="160" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="18">
+      <c r="A160" s="17">
         <v>30</v>
       </c>
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C160" s="21" t="s">
+      <c r="C160" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D160" s="18">
+      <c r="D160" s="17">
         <v>255</v>
       </c>
-      <c r="G160" s="18" t="s">
+      <c r="G160" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="20"/>
-      <c r="C161" s="18" t="s">
+      <c r="B161" s="19"/>
+      <c r="C161" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D161" s="18">
+      <c r="D161" s="17">
         <v>255</v>
       </c>
-      <c r="G161" s="18" t="s">
+      <c r="G161" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="20"/>
-      <c r="C162" s="18" t="s">
+      <c r="B162" s="19"/>
+      <c r="C162" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G162" s="18" t="s">
+      <c r="G162" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="20"/>
-      <c r="C163" s="18" t="s">
+      <c r="B163" s="19"/>
+      <c r="C163" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G163" s="18" t="s">
+      <c r="G163" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="20"/>
+      <c r="B164" s="19"/>
     </row>
     <row r="165" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="18">
+      <c r="A165" s="17">
         <v>31</v>
       </c>
-      <c r="B165" s="20" t="s">
+      <c r="B165" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D165" s="18">
+      <c r="D165" s="17">
         <v>2</v>
       </c>
-      <c r="G165" s="18" t="s">
+      <c r="G165" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="20"/>
-      <c r="C166" s="21" t="s">
+      <c r="B166" s="19"/>
+      <c r="C166" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D166" s="18">
+      <c r="D166" s="17">
         <v>3</v>
       </c>
-      <c r="G166" s="18" t="s">
+      <c r="G166" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="20"/>
-      <c r="C167" s="18" t="s">
+      <c r="B167" s="19"/>
+      <c r="C167" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G167" s="18" t="s">
+      <c r="G167" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="20"/>
-      <c r="C168" s="18" t="s">
+      <c r="B168" s="19"/>
+      <c r="C168" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G168" s="18" t="s">
+      <c r="G168" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="20"/>
+      <c r="B169" s="19"/>
     </row>
     <row r="170" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="18">
+      <c r="A170" s="17">
         <v>32</v>
       </c>
-      <c r="B170" s="20" t="s">
+      <c r="B170" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="D170" s="18">
-        <v>1</v>
-      </c>
-      <c r="G170" s="18" t="s">
+      <c r="D170" s="17">
+        <v>1</v>
+      </c>
+      <c r="G170" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="20"/>
-      <c r="C171" s="21" t="s">
+      <c r="B171" s="19"/>
+      <c r="C171" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D171" s="18">
-        <v>1</v>
-      </c>
-      <c r="G171" s="18" t="s">
+      <c r="D171" s="17">
+        <v>1</v>
+      </c>
+      <c r="G171" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="20"/>
-      <c r="C172" s="18" t="s">
+      <c r="B172" s="19"/>
+      <c r="C172" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G172" s="18" t="s">
+      <c r="G172" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="20"/>
-      <c r="C173" s="18" t="s">
+      <c r="B173" s="19"/>
+      <c r="C173" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D173" s="18" t="s">
+      <c r="D173" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G173" s="18" t="s">
+      <c r="G173" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="20"/>
+      <c r="B174" s="19"/>
     </row>
     <row r="175" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="18">
+      <c r="A175" s="17">
         <v>33</v>
       </c>
-      <c r="B175" s="20" t="s">
+      <c r="B175" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D175" s="18">
+      <c r="D175" s="17">
         <v>21</v>
       </c>
-      <c r="G175" s="18" t="s">
+      <c r="G175" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="20"/>
-      <c r="C176" s="21" t="s">
+      <c r="B176" s="19"/>
+      <c r="C176" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="D176" s="18">
+      <c r="D176" s="17">
         <v>21</v>
       </c>
-      <c r="G176" s="18" t="s">
+      <c r="G176" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="20"/>
-      <c r="C177" s="18" t="s">
+      <c r="B177" s="19"/>
+      <c r="C177" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G177" s="18" t="s">
+      <c r="G177" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="20"/>
-      <c r="C178" s="18" t="s">
+      <c r="B178" s="19"/>
+      <c r="C178" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G178" s="18" t="s">
+      <c r="G178" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="20"/>
+      <c r="B179" s="19"/>
     </row>
     <row r="180" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="18">
+      <c r="A180" s="17">
         <v>34</v>
       </c>
-      <c r="B180" s="20" t="s">
+      <c r="B180" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F180" s="17">
+        <v>85</v>
+      </c>
+      <c r="G180" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="19"/>
+      <c r="C181" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G181" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="19"/>
+      <c r="C182" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F182" s="17">
+        <v>253</v>
+      </c>
+      <c r="G182" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="19"/>
+      <c r="C183" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F183" s="17">
+        <v>255</v>
+      </c>
+      <c r="G183" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="17">
         <v>35</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="B184" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C184" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D180" s="18" t="s">
+      <c r="D184" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F180" s="18">
+      <c r="F184" s="17">
         <v>85</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="20"/>
-    </row>
-    <row r="182" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="20"/>
-    </row>
-    <row r="183" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="18">
-        <v>35</v>
-      </c>
-      <c r="B183" s="20" t="s">
+      <c r="G184" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="19"/>
+      <c r="C185" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F185" s="17">
+        <v>249</v>
+      </c>
+      <c r="G185" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="19"/>
+      <c r="C186" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F186" s="17">
+        <v>83</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="19"/>
+      <c r="C187" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F187" s="17">
+        <v>7</v>
+      </c>
+      <c r="G187" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="17">
+        <v>36</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D188" s="17">
+        <v>999</v>
+      </c>
+      <c r="F188" s="17">
+        <v>231</v>
+      </c>
+      <c r="G188" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="19"/>
+      <c r="C189" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D189" s="17">
+        <v>4</v>
+      </c>
+      <c r="G189" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="20"/>
-    </row>
-    <row r="185" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="18">
-        <v>36</v>
-      </c>
-      <c r="B185" s="20" t="s">
+      <c r="B190" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D190" s="17">
+        <v>13</v>
+      </c>
+      <c r="G190" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="19"/>
+      <c r="C191" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G191" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="17">
+        <v>38</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G192" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="19"/>
+      <c r="C193" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G193" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="17">
         <v>39</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="20"/>
-    </row>
-    <row r="187" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="18">
-        <v>37</v>
-      </c>
-      <c r="B187" s="20" t="s">
+      <c r="B194" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="19"/>
+    </row>
+    <row r="196" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="17">
+        <v>40</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="19"/>
+    </row>
+    <row r="198" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="17">
         <v>41</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="20"/>
-    </row>
-    <row r="189" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="18">
-        <v>38</v>
-      </c>
-      <c r="B189" s="20" t="s">
+      <c r="B198" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="19"/>
+    </row>
+    <row r="200" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="17">
+        <v>42</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="19"/>
+    </row>
+    <row r="202" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="20"/>
-    </row>
-    <row r="191" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="18">
-        <v>39</v>
-      </c>
-      <c r="B191" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="20"/>
-    </row>
-    <row r="193" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="18">
-        <v>40</v>
-      </c>
-      <c r="B193" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="20"/>
-    </row>
-    <row r="195" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="18">
-        <v>41</v>
-      </c>
-      <c r="B195" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="20"/>
-    </row>
-    <row r="197" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="18">
-        <v>42</v>
-      </c>
-      <c r="B197" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="20"/>
-    </row>
-    <row r="199" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="18">
-        <v>43</v>
-      </c>
-      <c r="B199" s="20" t="s">
+      <c r="B202" s="19" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE43F009-A91D-44D5-9B17-DDFAFFD7CA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A68C227-539A-49EA-9F36-8B3E60B86FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="258">
   <si>
     <t>Code</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Edge Tested</t>
   </si>
   <si>
-    <t>d (jr = 0 only)</t>
-  </si>
-  <si>
     <t>Exceptions</t>
   </si>
   <si>
@@ -799,7 +796,16 @@
     <t>JALR R1, R1 = 0x10000010, Default Store in 31</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>JR 0, Settle Delay Slot</t>
+  </si>
+  <si>
+    <t>JR R1, R1 = 0x10000010, Delay Slot Check</t>
+  </si>
+  <si>
+    <t>MTHI, MTLO, MFHI, MFLO</t>
+  </si>
+  <si>
+    <t>R5=3, R6=1, HI &lt;- R5, LO &lt;-R6, R1 &lt;- HI, R2&lt;-LO, R1 + R2</t>
   </si>
 </sst>
 </file>
@@ -1292,8 +1298,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1343,7 @@
         <v>129</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1708,75 +1714,96 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="D19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="D20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="D21" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>130</v>
+      <c r="D22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1961,37 +1988,49 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="D33" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2438,16 +2477,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" style="17" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="17"/>
@@ -2455,19 +2494,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>135</v>
-      </c>
       <c r="E1" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2481,17 +2520,17 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2502,18 +2541,18 @@
         <v>41</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2524,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="17">
         <v>2737224</v>
@@ -2537,12 +2576,12 @@
         <v>72</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -2555,12 +2594,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="17">
         <v>2147483647</v>
@@ -2573,15 +2612,15 @@
         <v>255</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="E12" s="17">
         <v>246</v>
@@ -2591,12 +2630,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="17">
         <v>-2147483647</v>
@@ -2609,12 +2648,12 @@
         <v>1</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="17">
         <v>-2147483647</v>
@@ -2627,15 +2666,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="17">
         <v>246</v>
@@ -2645,7 +2684,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2656,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="17">
         <v>985953</v>
@@ -2666,12 +2705,12 @@
         <v>97</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
@@ -2681,12 +2720,12 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="17">
         <v>2147483647</v>
@@ -2696,12 +2735,12 @@
         <v>255</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="17">
         <v>-2</v>
@@ -2711,12 +2750,12 @@
         <v>254</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" s="17">
         <v>-2147483647</v>
@@ -2726,12 +2765,12 @@
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" s="17">
         <v>-2147483647</v>
@@ -2741,12 +2780,12 @@
         <v>1</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
@@ -2756,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2767,7 +2806,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="17">
         <v>3634723</v>
@@ -2777,12 +2816,12 @@
         <v>35</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" s="17">
         <v>1</v>
@@ -2792,27 +2831,27 @@
         <v>1</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="17">
         <v>-32769</v>
@@ -2822,22 +2861,22 @@
         <v>255</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F29" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2848,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D31" s="17">
         <v>5466930</v>
@@ -2858,12 +2897,12 @@
         <v>50</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" s="17">
         <v>1</v>
@@ -2873,12 +2912,12 @@
         <v>1</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="17">
         <v>1879113727</v>
@@ -2888,12 +2927,12 @@
         <v>255</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="17">
         <v>-2147450882</v>
@@ -2903,12 +2942,12 @@
         <v>254</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="17">
         <v>-2147483647</v>
@@ -2918,12 +2957,12 @@
         <v>1</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="17">
         <v>65534</v>
@@ -2933,7 +2972,7 @@
         <v>254</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2944,7 +2983,7 @@
         <v>103</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D38" s="17">
         <v>-1</v>
@@ -2954,12 +2993,12 @@
         <v>255</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" s="17">
         <v>2</v>
@@ -2969,12 +3008,12 @@
         <v>2</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="17">
         <v>1</v>
@@ -2984,12 +3023,12 @@
         <v>1</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" s="17">
         <v>-2</v>
@@ -2999,52 +3038,52 @@
         <v>254</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F44" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3055,7 +3094,7 @@
         <v>105</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D46" s="17">
         <v>1</v>
@@ -3065,12 +3104,12 @@
         <v>1</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="17">
         <v>2</v>
@@ -3080,12 +3119,12 @@
         <v>2</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D48" s="17">
         <v>1</v>
@@ -3095,12 +3134,12 @@
         <v>1</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="17">
         <v>-2</v>
@@ -3110,12 +3149,12 @@
         <v>254</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="17">
         <v>2147483647</v>
@@ -3125,12 +3164,12 @@
         <v>255</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" s="17">
         <v>2147483647</v>
@@ -3140,12 +3179,12 @@
         <v>255</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="17">
         <v>1</v>
@@ -3155,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3166,35 +3205,35 @@
         <v>13</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F54" s="17">
         <v>1</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F55" s="17">
         <v>1</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="17">
         <v>-1</v>
@@ -3204,7 +3243,7 @@
         <v>255</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3215,35 +3254,35 @@
         <v>15</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F58" s="17">
         <v>1</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C59" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F59" s="17">
         <v>1</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D60" s="17">
         <v>65535</v>
@@ -3253,7 +3292,7 @@
         <v>255</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3264,21 +3303,21 @@
         <v>76</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F62" s="17">
         <v>1</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C63" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D63" s="17">
         <v>-1</v>
@@ -3288,12 +3327,12 @@
         <v>255</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C64" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D64" s="17">
         <v>268435455</v>
@@ -3303,7 +3342,7 @@
         <v>255</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3314,21 +3353,21 @@
         <v>78</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F66" s="17">
         <v>1</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C67" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D67" s="17">
         <v>-1431633921</v>
@@ -3338,12 +3377,12 @@
         <v>255</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C68" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D68" s="17">
         <v>268435455</v>
@@ -3353,7 +3392,7 @@
         <v>255</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,21 +3403,21 @@
         <v>109</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F70" s="17">
         <v>1</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C71" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="17">
         <v>-1</v>
@@ -3388,21 +3427,21 @@
         <v>255</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F72" s="17">
         <v>1</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3413,21 +3452,21 @@
         <v>111</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F74" s="17">
         <v>1</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C75" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D75" s="17">
         <v>-1431633921</v>
@@ -3437,21 +3476,21 @@
         <v>255</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C76" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F76" s="17">
         <v>1</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3462,30 +3501,30 @@
         <v>55</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F78" s="17">
         <v>1</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F79" s="17">
         <v>1</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3496,58 +3535,58 @@
         <v>84</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F81" s="17">
         <v>1</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C82" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F82" s="17">
         <v>1</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C83" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F83" s="17">
         <v>1</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C84" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F84" s="17">
         <v>1</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3558,72 +3597,72 @@
         <v>86</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F86" s="17">
         <v>1</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C87" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F87" s="17">
         <v>1</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C88" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F88" s="17">
         <v>1</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C89" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F89" s="17">
         <v>1</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C90" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F90" s="17">
         <v>1</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3634,21 +3673,21 @@
         <v>101</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F92" s="17">
         <v>1</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C93" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D93" s="17">
         <v>65535</v>
@@ -3658,12 +3697,12 @@
         <v>255</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C94" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D94" s="17">
         <v>65535</v>
@@ -3673,12 +3712,12 @@
         <v>255</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C95" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D95" s="17">
         <v>1</v>
@@ -3688,12 +3727,12 @@
         <v>1</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C96" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D96" s="17">
         <v>65535</v>
@@ -3703,7 +3742,7 @@
         <v>255</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3714,21 +3753,21 @@
         <v>99</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F98" s="17">
         <v>1</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C99" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D99" s="17">
         <v>65535</v>
@@ -3738,12 +3777,12 @@
         <v>255</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C100" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D100" s="17">
         <v>65535</v>
@@ -3753,12 +3792,12 @@
         <v>255</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C101" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D101" s="17">
         <v>1</v>
@@ -3768,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3779,21 +3818,21 @@
         <v>96</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F103" s="17">
         <v>1</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C104" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D104" s="17">
         <v>32767</v>
@@ -3803,12 +3842,12 @@
         <v>255</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C105" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D105" s="17">
         <v>-1</v>
@@ -3818,7 +3857,7 @@
         <v>255</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3829,21 +3868,21 @@
         <v>98</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F107" s="17">
         <v>1</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C108" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D108" s="17">
         <v>32767</v>
@@ -3853,12 +3892,12 @@
         <v>255</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C109" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D109" s="17">
         <v>-1</v>
@@ -3868,12 +3907,12 @@
         <v>255</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C110" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D110" s="17">
         <v>32767</v>
@@ -3882,7 +3921,7 @@
         <v>255</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3893,7 +3932,7 @@
         <v>88</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D112" s="17">
         <v>1</v>
@@ -3903,63 +3942,63 @@
         <v>1</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C113" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F113" s="17">
         <v>2</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C114" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F114" s="17">
         <v>2</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C115" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F115" s="17">
         <v>2</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C116" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116" s="17" t="s">
         <v>210</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>211</v>
       </c>
       <c r="F116" s="17">
         <v>3</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3970,7 +4009,7 @@
         <v>94</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D118" s="17">
         <v>1</v>
@@ -3980,26 +4019,26 @@
         <v>1</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C119" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F119" s="17">
         <v>2</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C120" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D120" s="17">
         <v>1</v>
@@ -4009,35 +4048,35 @@
         <v>1</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C121" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F121" s="17">
         <v>2</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C122" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D122" s="17" t="s">
         <v>210</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>211</v>
       </c>
       <c r="F122" s="17">
         <v>3</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4048,7 +4087,7 @@
         <v>90</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D124" s="17">
         <v>1</v>
@@ -4058,68 +4097,68 @@
         <v>1</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C125" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F125" s="17">
         <v>2</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C126" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F126" s="17">
         <v>2</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C127" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F127" s="17">
         <v>2</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C128" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="F128" s="17">
         <v>3</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C129" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D129" s="17">
         <v>1</v>
@@ -4128,21 +4167,21 @@
         <v>1</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C130" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F130" s="17">
         <v>2</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4153,7 +4192,7 @@
         <v>92</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D132" s="17">
         <v>1</v>
@@ -4163,26 +4202,26 @@
         <v>1</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C133" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F133" s="17">
         <v>2</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C134" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D134" s="17">
         <v>1</v>
@@ -4191,40 +4230,40 @@
         <v>1</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C135" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F135" s="17">
         <v>2</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C136" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="F136" s="17">
         <v>3</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C137" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D137" s="17">
         <v>1</v>
@@ -4233,12 +4272,12 @@
         <v>1</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C138" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D138" s="17">
         <v>1</v>
@@ -4247,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4258,46 +4297,46 @@
         <v>17</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D140" s="17">
         <v>37</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C141" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D141" s="17">
         <v>34</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C142" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C143" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="G143" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4308,46 +4347,46 @@
         <v>33</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D145" s="17">
         <v>45</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C146" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D146" s="17">
         <v>11</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C147" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C148" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D148" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D148" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="G148" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4359,49 +4398,49 @@
         <v>20</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D150" s="17">
         <v>254</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="19"/>
       <c r="C151" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D151" s="17">
         <v>253</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="19"/>
       <c r="C152" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="19"/>
       <c r="C153" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D153" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D153" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="G153" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4415,49 +4454,49 @@
         <v>22</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D155" s="17">
         <v>26</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="19"/>
       <c r="C156" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D156" s="17">
         <v>17</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="19"/>
       <c r="C157" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="19"/>
       <c r="C158" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D158" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D158" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="G158" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4471,49 +4510,49 @@
         <v>25</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D160" s="17">
         <v>255</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="19"/>
       <c r="C161" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D161" s="17">
         <v>255</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="19"/>
       <c r="C162" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="19"/>
       <c r="C163" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D163" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D163" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="G163" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4527,49 +4566,49 @@
         <v>27</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D165" s="17">
         <v>2</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="19"/>
       <c r="C166" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D166" s="17">
         <v>3</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B167" s="19"/>
       <c r="C167" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B168" s="19"/>
       <c r="C168" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D168" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D168" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="G168" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4583,49 +4622,49 @@
         <v>29</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D170" s="17">
         <v>1</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="19"/>
       <c r="C171" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D171" s="17">
         <v>1</v>
       </c>
       <c r="G171" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="19"/>
       <c r="C172" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="19"/>
       <c r="C173" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D173" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D173" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="G173" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4639,49 +4678,49 @@
         <v>31</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D175" s="17">
         <v>21</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="19"/>
       <c r="C176" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D176" s="17">
         <v>21</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="19"/>
       <c r="C177" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="19"/>
       <c r="C178" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D178" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D178" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="G178" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4692,61 +4731,61 @@
         <v>34</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C180" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D180" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>239</v>
       </c>
       <c r="F180" s="17">
         <v>85</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="19"/>
       <c r="C181" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D181" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D181" s="17" t="s">
-        <v>242</v>
-      </c>
       <c r="G181" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="19"/>
       <c r="C182" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D182" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="F182" s="17">
         <v>253</v>
       </c>
       <c r="G182" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="19"/>
       <c r="C183" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F183" s="17">
         <v>255</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4754,64 +4793,64 @@
         <v>35</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C184" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D184" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>239</v>
       </c>
       <c r="F184" s="17">
         <v>85</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="19"/>
       <c r="C185" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F185" s="17">
         <v>249</v>
       </c>
       <c r="G185" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="19"/>
       <c r="C186" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F186" s="17">
         <v>83</v>
       </c>
       <c r="G186" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="19"/>
       <c r="C187" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F187" s="17">
         <v>7</v>
       </c>
       <c r="G187" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4822,7 +4861,7 @@
         <v>39</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D188" s="17">
         <v>999</v>
@@ -4831,19 +4870,19 @@
         <v>231</v>
       </c>
       <c r="G188" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="19"/>
       <c r="C189" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D189" s="17">
         <v>4</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4854,22 +4893,25 @@
         <v>41</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D190" s="17">
         <v>13</v>
       </c>
       <c r="G190" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="19"/>
       <c r="C191" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="D191" s="17">
+        <v>18</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4880,19 +4922,25 @@
         <v>43</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="D192" s="17">
+        <v>231</v>
       </c>
       <c r="G192" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="19"/>
       <c r="C193" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="D193" s="17">
+        <v>12</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4902,48 +4950,83 @@
       <c r="B194" s="19" t="s">
         <v>45</v>
       </c>
+      <c r="C194" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D194" s="17">
+        <v>4</v>
+      </c>
+      <c r="G194" s="17" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="195" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="19"/>
+      <c r="C195" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D195" s="17">
+        <v>22</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="196" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="17">
         <v>40</v>
       </c>
       <c r="B196" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D196" s="17">
+        <v>4</v>
+      </c>
+      <c r="G196" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="17">
+        <v>41</v>
+      </c>
+      <c r="B197" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="19"/>
-    </row>
     <row r="198" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="17">
-        <v>41</v>
-      </c>
-      <c r="B198" s="19" t="s">
+      <c r="B198" s="19"/>
+    </row>
+    <row r="199" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="17">
+        <v>42</v>
+      </c>
+      <c r="B199" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="19"/>
-    </row>
     <row r="200" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="17">
-        <v>42</v>
-      </c>
-      <c r="B200" s="19" t="s">
+      <c r="B200" s="19"/>
+    </row>
+    <row r="201" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="17">
+        <v>43</v>
+      </c>
+      <c r="B201" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="19"/>
-    </row>
     <row r="202" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="17">
-        <v>43</v>
-      </c>
-      <c r="B202" s="19" t="s">
+      <c r="B202" s="19"/>
+    </row>
+    <row r="203" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="17">
+        <v>44</v>
+      </c>
+      <c r="B203" s="19" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A68C227-539A-49EA-9F36-8B3E60B86FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD99EAE-AC99-47A8-A6BC-645307AB44A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="303">
   <si>
     <t>Code</t>
   </si>
@@ -806,13 +806,148 @@
   </si>
   <si>
     <t>R5=3, R6=1, HI &lt;- R5, LO &lt;-R6, R1 &lt;- HI, R2&lt;-LO, R1 + R2</t>
+  </si>
+  <si>
+    <t>(Signed) 0xFACEBAFF * DADDB0DD, ADDU HI + LO</t>
+  </si>
+  <si>
+    <t>(1)0F96FB1E</t>
+  </si>
+  <si>
+    <t>(Signed) 14285 * -7142, ADDU HI + LO</t>
+  </si>
+  <si>
+    <t>(1) F9EB3ED1</t>
+  </si>
+  <si>
+    <t>(Signed) 0xACEDCODE * 0x23, ADDU HI + LO</t>
+  </si>
+  <si>
+    <t>(1) A4815E4E</t>
+  </si>
+  <si>
+    <t>(Unsigned) 0x7FFFFFFF * 0x31415926, Hi + Lo</t>
+  </si>
+  <si>
+    <t>(Interpreted Signed) 0xFACEBAFF * DADDB0DD, ADDU HI + LO</t>
+  </si>
+  <si>
+    <t>(Interpreted Signed) 14285 * -7142, ADDU HI + LO</t>
+  </si>
+  <si>
+    <t>(Interpreted Signed) 0xACEDCODE * 0x23, ADDU HI + LO</t>
+  </si>
+  <si>
+    <t>LB Out of Bounds</t>
+  </si>
+  <si>
+    <t>Memory Error</t>
+  </si>
+  <si>
+    <t>Store and Load 0xCD</t>
+  </si>
+  <si>
+    <t>Store and load CD (205)</t>
+  </si>
+  <si>
+    <t>LBU Out of Bounds</t>
+  </si>
+  <si>
+    <t>Store and load ABCD (-21555)</t>
+  </si>
+  <si>
+    <t>LH out of bounds</t>
+  </si>
+  <si>
+    <t>LH unaligned</t>
+  </si>
+  <si>
+    <t>Store and load ABCD (43981)</t>
+  </si>
+  <si>
+    <t>LHU out of bounds</t>
+  </si>
+  <si>
+    <t>LHU unaligned</t>
+  </si>
+  <si>
+    <t>Store and load ABCDABCD (-1412584499)</t>
+  </si>
+  <si>
+    <t>LW out of bounds</t>
+  </si>
+  <si>
+    <t>LW unaligned</t>
+  </si>
+  <si>
+    <t>LWL/LWR</t>
+  </si>
+  <si>
+    <t>Normal load word</t>
+  </si>
+  <si>
+    <t>Load bytes 1-4</t>
+  </si>
+  <si>
+    <t>Load bytes 2-5</t>
+  </si>
+  <si>
+    <t>Load bytes 3-6</t>
+  </si>
+  <si>
+    <t>Store and load CD (-51)</t>
+  </si>
+  <si>
+    <t>SB out of bounds</t>
+  </si>
+  <si>
+    <t>SH out of bounds</t>
+  </si>
+  <si>
+    <t>SH unaligned</t>
+  </si>
+  <si>
+    <t>SW out of bounds</t>
+  </si>
+  <si>
+    <t>SW unaligned</t>
+  </si>
+  <si>
+    <t>LWL out of bounds</t>
+  </si>
+  <si>
+    <t>LWR out of bounds</t>
+  </si>
+  <si>
+    <t>GetChar</t>
+  </si>
+  <si>
+    <t>Getchar all loads (A-G, EOF, H)</t>
+  </si>
+  <si>
+    <t>Getchar unaligned LH</t>
+  </si>
+  <si>
+    <t>Getchar unaligned LHU</t>
+  </si>
+  <si>
+    <t>Getchar unaligned LB</t>
+  </si>
+  <si>
+    <t>Getchar unaligned LBU</t>
+  </si>
+  <si>
+    <t>PutChar</t>
+  </si>
+  <si>
+    <t>Putchar aligned &amp; unaligned, X NULL X NULL X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,12 +981,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -933,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -977,9 +1106,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,8 +1424,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,37 +2160,49 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="D35" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2477,17 +2615,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343E511-C84F-5348-B9E4-371C584CD8FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="17" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="17"/>
   </cols>
@@ -4389,12 +4527,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
         <v>28</v>
       </c>
-      <c r="B150" s="19" t="s">
+      <c r="B150" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C150" s="17" t="s">
@@ -4407,9 +4544,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="19"/>
-      <c r="C151" s="20" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C151" s="19" t="s">
         <v>230</v>
       </c>
       <c r="D151" s="17">
@@ -4419,8 +4555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="19"/>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C152" s="17" t="s">
         <v>224</v>
       </c>
@@ -4431,8 +4566,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="19"/>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C153" s="17" t="s">
         <v>225</v>
       </c>
@@ -4443,17 +4577,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="19"/>
-    </row>
-    <row r="155" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
         <v>29</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="B155" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="19" t="s">
         <v>231</v>
       </c>
       <c r="D155" s="17">
@@ -4463,9 +4594,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="19"/>
-      <c r="C156" s="20" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C156" s="19" t="s">
         <v>232</v>
       </c>
       <c r="D156" s="17">
@@ -4475,8 +4605,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="19"/>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C157" s="17" t="s">
         <v>224</v>
       </c>
@@ -4487,8 +4616,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="19"/>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C158" s="17" t="s">
         <v>225</v>
       </c>
@@ -4499,17 +4627,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="19"/>
-    </row>
-    <row r="160" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="17">
         <v>30</v>
       </c>
-      <c r="B160" s="19" t="s">
+      <c r="B160" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="19" t="s">
         <v>223</v>
       </c>
       <c r="D160" s="17">
@@ -4519,8 +4644,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="19"/>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C161" s="17" t="s">
         <v>222</v>
       </c>
@@ -4531,8 +4655,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="19"/>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C162" s="17" t="s">
         <v>227</v>
       </c>
@@ -4543,8 +4666,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="19"/>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C163" s="17" t="s">
         <v>225</v>
       </c>
@@ -4555,14 +4677,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="19"/>
-    </row>
-    <row r="165" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="17">
         <v>31</v>
       </c>
-      <c r="B165" s="19" t="s">
+      <c r="B165" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C165" s="17" t="s">
@@ -4575,9 +4694,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="19"/>
-      <c r="C166" s="20" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C166" s="19" t="s">
         <v>234</v>
       </c>
       <c r="D166" s="17">
@@ -4587,8 +4705,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="19"/>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C167" s="17" t="s">
         <v>227</v>
       </c>
@@ -4599,8 +4716,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="19"/>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C168" s="17" t="s">
         <v>225</v>
       </c>
@@ -4611,14 +4727,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="19"/>
-    </row>
-    <row r="170" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="17">
         <v>32</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C170" s="17" t="s">
@@ -4631,9 +4744,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="19"/>
-      <c r="C171" s="20" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C171" s="19" t="s">
         <v>223</v>
       </c>
       <c r="D171" s="17">
@@ -4643,8 +4755,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="19"/>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C172" s="17" t="s">
         <v>227</v>
       </c>
@@ -4655,8 +4766,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="19"/>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C173" s="17" t="s">
         <v>225</v>
       </c>
@@ -4667,17 +4777,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="19"/>
-    </row>
-    <row r="175" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="17">
         <v>33</v>
       </c>
-      <c r="B175" s="19" t="s">
+      <c r="B175" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="C175" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D175" s="17">
@@ -4687,9 +4794,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="19"/>
-      <c r="C176" s="20" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C176" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D176" s="17">
@@ -4699,8 +4805,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="19"/>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C177" s="17" t="s">
         <v>224</v>
       </c>
@@ -4711,8 +4816,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="19"/>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C178" s="17" t="s">
         <v>225</v>
       </c>
@@ -4723,14 +4827,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="19"/>
-    </row>
-    <row r="180" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="17">
         <v>34</v>
       </c>
-      <c r="B180" s="19" t="s">
+      <c r="B180" s="17" t="s">
         <v>239</v>
       </c>
       <c r="C180" s="17" t="s">
@@ -4746,8 +4847,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="19"/>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C181" s="17" t="s">
         <v>240</v>
       </c>
@@ -4758,8 +4858,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="19"/>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C182" s="17" t="s">
         <v>242</v>
       </c>
@@ -4773,8 +4872,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="19"/>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C183" s="17" t="s">
         <v>244</v>
       </c>
@@ -4788,11 +4886,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="17">
         <v>35</v>
       </c>
-      <c r="B184" s="19" t="s">
+      <c r="B184" s="17" t="s">
         <v>249</v>
       </c>
       <c r="C184" s="17" t="s">
@@ -4808,8 +4906,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="19"/>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C185" s="17" t="s">
         <v>240</v>
       </c>
@@ -4823,8 +4920,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="19"/>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C186" s="17" t="s">
         <v>242</v>
       </c>
@@ -4838,8 +4934,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="19"/>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C187" s="17" t="s">
         <v>244</v>
       </c>
@@ -4853,11 +4948,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="17">
         <v>36</v>
       </c>
-      <c r="B188" s="19" t="s">
+      <c r="B188" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C188" s="17" t="s">
@@ -4873,8 +4968,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="19"/>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C189" s="17" t="s">
         <v>251</v>
       </c>
@@ -4885,11 +4979,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="17">
         <v>37</v>
       </c>
-      <c r="B190" s="19" t="s">
+      <c r="B190" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C190" s="17" t="s">
@@ -4902,8 +4996,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="19"/>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C191" s="17" t="s">
         <v>253</v>
       </c>
@@ -4914,11 +5007,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="17">
         <v>38</v>
       </c>
-      <c r="B192" s="19" t="s">
+      <c r="B192" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C192" s="17" t="s">
@@ -4931,8 +5024,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="19"/>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C193" s="17" t="s">
         <v>251</v>
       </c>
@@ -4943,11 +5035,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="17">
         <v>39</v>
       </c>
-      <c r="B194" s="19" t="s">
+      <c r="B194" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C194" s="17" t="s">
@@ -4960,8 +5052,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="19"/>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C195" s="17" t="s">
         <v>255</v>
       </c>
@@ -4972,11 +5063,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="17">
         <v>40</v>
       </c>
-      <c r="B196" s="19" t="s">
+      <c r="B196" s="17" t="s">
         <v>256</v>
       </c>
       <c r="C196" s="17" t="s">
@@ -4989,45 +5080,497 @@
         <v>155</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="17">
         <v>41</v>
       </c>
-      <c r="B197" s="19" t="s">
+      <c r="B197" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D197" s="17">
+        <v>3881784172</v>
+      </c>
+      <c r="E197" s="17">
+        <v>108</v>
+      </c>
+      <c r="G197" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C198" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E198" s="17">
+        <v>66</v>
+      </c>
+      <c r="G198" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C199" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E199" s="17">
+        <v>209</v>
+      </c>
+      <c r="G199" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C200" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E200" s="17">
+        <v>78</v>
+      </c>
+      <c r="G200" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="17">
+        <v>42</v>
+      </c>
+      <c r="B201" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D201" s="17">
+        <v>3881784172</v>
+      </c>
+      <c r="E201" s="17">
+        <v>108</v>
+      </c>
+      <c r="G201" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C202" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E202" s="17">
+        <v>66</v>
+      </c>
+      <c r="G202" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C203" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E203" s="17">
+        <v>158</v>
+      </c>
+      <c r="G203" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C204" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E204" s="17">
+        <v>113</v>
+      </c>
+      <c r="G204" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="17">
+        <v>41</v>
+      </c>
+      <c r="B205" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="19"/>
-    </row>
-    <row r="199" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="17">
+      <c r="C205" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D205" s="17">
+        <v>-51</v>
+      </c>
+      <c r="E205" s="17">
+        <v>205</v>
+      </c>
+      <c r="G205" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C206" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E206" s="17">
+        <v>245</v>
+      </c>
+      <c r="G206" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="17">
         <v>42</v>
       </c>
-      <c r="B199" s="19" t="s">
+      <c r="B207" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="19"/>
-    </row>
-    <row r="201" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="17">
+      <c r="C207" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D207" s="17">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C208" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E208" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="17">
         <v>43</v>
       </c>
-      <c r="B201" s="19" t="s">
+      <c r="B209" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="19"/>
-    </row>
-    <row r="203" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="17">
+      <c r="C209" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D209" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C210" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E210" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C211" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E211" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="17">
         <v>44</v>
       </c>
-      <c r="B203" s="19" t="s">
+      <c r="B212" s="17" t="s">
         <v>53</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D212" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C213" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E213" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C214" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E214" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D215" s="17">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C216" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E216" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C217" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E217" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E218" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E219" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D220" s="17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C221" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D221" s="17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C222" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D222" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C223" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D223" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D224" s="17">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C225" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E225" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D226" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C227" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E227" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C228" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E228" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D229" s="17">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C230" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E230" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C231" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E231" s="17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D232" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C233" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D233" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C234" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D234" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C235" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D235" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C236" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D236" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D237" s="17">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Function Progress Checker.xlsx
+++ b/Function Progress Checker.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD99EAE-AC99-47A8-A6BC-645307AB44A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A9AF52-268A-7040-99A4-A210A1BEB742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE50BC15-ADE5-4BB9-9D10-6F39E6D74606}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Progress Checker" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="303">
   <si>
     <t>Code</t>
   </si>
@@ -947,7 +947,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1075,20 +1075,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1107,6 +1095,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,29 +1413,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I52:I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1456,1116 +1445,1401 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="D3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="D5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="D6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="D7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="D8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="D9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="D10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="D11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="D12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="D13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="D14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="D15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="D16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="D17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="D18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="D19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="D20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="D21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="D22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="8" t="s">
         <v>123</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="F23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="D24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="F25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="D26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="D27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="D28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="E29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="E30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="D31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="D32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="D33" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="D34" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A35" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="D35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A36" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="D36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A37" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="D37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="D38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A39" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="F39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="D40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="D41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+      <c r="D42" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A43" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="D43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="D44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="D45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A46" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="D46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A47" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="D47" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A48" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="D48" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="D49" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A50" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="D50" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A51" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="D51" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="D52" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+      <c r="F53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A54" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+      <c r="D54" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="A55" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>113</v>
       </c>
@@ -2576,7 +2850,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="19" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -2585,7 +2859,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="19" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -2594,7 +2868,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="19" thickBot="1">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
@@ -2617,2959 +2891,2959 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="4" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="13">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="17" t="s">
+    <row r="3" spans="1:7">
+      <c r="D3" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="17" t="s">
+    <row r="4" spans="1:7">
+      <c r="D4" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row r="6" spans="1:7">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="17" t="s">
+    <row r="7" spans="1:7">
+      <c r="C7" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:7">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>2737224</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>184</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <f>MOD(D9,256)</f>
         <v>72</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="17" t="s">
+      <c r="G9" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
         <f t="shared" ref="F10:F71" si="0">MOD(D10,256)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="17" t="s">
+      <c r="G10" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <v>2147483647</v>
       </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="17" t="s">
+      <c r="G11" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>246</v>
       </c>
-      <c r="F12" s="17" t="e">
+      <c r="F12" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
+      <c r="G12" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <v>-2147483647</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="13">
         <v>255</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
+      <c r="G13" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <v>-2147483647</v>
       </c>
-      <c r="E14" s="17">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="17" t="s">
+      <c r="G14" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>246</v>
       </c>
-      <c r="F15" s="17" t="e">
+      <c r="F15" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="G15" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="13">
         <v>985953</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
+      <c r="G17" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="C18" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17">
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="17" t="s">
+      <c r="G18" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="C19" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="13">
         <v>2147483647</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
+      <c r="G19" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="13">
         <v>-2</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="13">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="17" t="s">
+      <c r="G20" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="13">
         <v>-2147483647</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="17" t="s">
+      <c r="G21" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="13">
         <v>-2147483647</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="17" t="s">
+      <c r="G22" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="17">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17">
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="G23" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13">
         <v>5</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="13">
         <v>3634723</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="13">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="17" t="s">
+      <c r="G25" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="17">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="17" t="s">
+      <c r="G26" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="17" t="e">
+      <c r="F27" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="17" t="s">
+      <c r="G27" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="13">
         <v>-32769</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="17" t="s">
+      <c r="G28" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="17" t="e">
+      <c r="F29" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="G29" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13">
         <v>6</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="13">
         <v>5466930</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="13">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="17" t="s">
+      <c r="G31" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="17">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17">
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="17" t="s">
+      <c r="G32" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="C33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="13">
         <v>1879113727</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="17" t="s">
+      <c r="G33" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="13">
         <v>-2147450882</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="13">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G34" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="17" t="s">
+      <c r="G34" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="C35" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="13">
         <v>-2147483647</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="17" t="s">
+      <c r="G35" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="13">
         <v>65534</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="13">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="G36" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="13">
         <v>7</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="13">
         <v>-1</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G38" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="17" t="s">
+      <c r="G38" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="C39" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="13">
         <v>2</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="17" t="s">
+      <c r="G39" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="17">
-        <v>1</v>
-      </c>
-      <c r="F40" s="17">
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="F40" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G40" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="17" t="s">
+      <c r="G40" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="13">
         <v>-2</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="13">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="17" t="s">
+      <c r="G41" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="17" t="e">
+      <c r="F42" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="17" t="s">
+      <c r="G42" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F43" s="17" t="e">
+      <c r="F43" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G43" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="17" t="s">
+      <c r="G43" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F44" s="17" t="e">
+      <c r="F44" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="G44" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="13">
         <v>8</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="17">
-        <v>1</v>
-      </c>
-      <c r="F46" s="17">
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="F46" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="17" t="s">
+      <c r="G46" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="C47" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="13">
         <v>2</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G47" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="17" t="s">
+      <c r="G47" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="C48" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="17">
-        <v>1</v>
-      </c>
-      <c r="F48" s="17">
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G48" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="17" t="s">
+      <c r="G48" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="C49" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="13">
         <v>-2</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="13">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="G49" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
+      <c r="G49" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="C50" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="13">
         <v>2147483647</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="17" t="s">
+      <c r="G50" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="C51" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="13">
         <v>2147483647</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G51" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="17" t="s">
+      <c r="G51" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="C52" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="17">
-        <v>1</v>
-      </c>
-      <c r="F52" s="17">
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="F52" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G52" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+      <c r="G52" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="13">
         <v>9</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F54" s="17">
-        <v>1</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="17" t="s">
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="C55" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F55" s="17">
-        <v>1</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="17" t="s">
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="C56" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="13">
         <v>-1</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G56" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
+      <c r="G56" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="13">
         <v>10</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F58" s="17">
-        <v>1</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="17" t="s">
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="C59" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F59" s="17">
-        <v>1</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="17" t="s">
+      <c r="F59" s="13">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="C60" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="13">
         <v>65535</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G60" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="G60" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="13">
         <v>11</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F62" s="17">
-        <v>1</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
+      <c r="F62" s="13">
+        <v>1</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="C63" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="13">
         <v>-1</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G63" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="17" t="s">
+      <c r="G63" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="C64" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="13">
         <v>268435455</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="G64" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="13">
         <v>12</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="F66" s="17">
-        <v>1</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="17" t="s">
+      <c r="F66" s="13">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="C67" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="13">
         <v>-1431633921</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G67" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="17" t="s">
+      <c r="G67" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="C68" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="13">
         <v>268435455</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G68" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+      <c r="G68" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="13">
         <v>13</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="17">
-        <v>1</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="17" t="s">
+      <c r="F70" s="13">
+        <v>1</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="C71" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="13">
         <v>-1</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="13">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="G71" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="17" t="s">
+      <c r="G71" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="C72" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F72" s="17">
-        <v>1</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
+      <c r="F72" s="13">
+        <v>1</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="13">
         <v>14</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F74" s="17">
-        <v>1</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="17" t="s">
+      <c r="F74" s="13">
+        <v>1</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="C75" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="13">
         <v>-1431633921</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="13">
         <f>MOD(D75,256)</f>
         <v>255</v>
       </c>
-      <c r="G75" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="17" t="s">
+      <c r="G75" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="C76" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F76" s="17">
-        <v>1</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="17">
+      <c r="F76" s="13">
+        <v>1</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="13">
         <v>15</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F78" s="17">
-        <v>1</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="17" t="s">
+      <c r="F78" s="13">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="C79" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F79" s="17">
-        <v>1</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
+      <c r="F79" s="13">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="13">
         <v>16</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F81" s="17">
-        <v>1</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="17" t="s">
+      <c r="F81" s="13">
+        <v>1</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="C82" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F82" s="17">
-        <v>1</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="17" t="s">
+      <c r="F82" s="13">
+        <v>1</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="C83" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F83" s="17">
-        <v>1</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="17" t="s">
+      <c r="F83" s="13">
+        <v>1</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="C84" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F84" s="17">
-        <v>1</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
+      <c r="F84" s="13">
+        <v>1</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="13">
         <v>17</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F86" s="17">
-        <v>1</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="17" t="s">
+      <c r="F86" s="13">
+        <v>1</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="C87" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F87" s="17">
-        <v>1</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="17" t="s">
+      <c r="F87" s="13">
+        <v>1</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="C88" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F88" s="17">
-        <v>1</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="17" t="s">
+      <c r="F88" s="13">
+        <v>1</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="C89" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F89" s="17">
-        <v>1</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="17" t="s">
+      <c r="F89" s="13">
+        <v>1</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="C90" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F90" s="17">
-        <v>1</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
+      <c r="F90" s="13">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="13">
         <v>18</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D92" s="17" t="s">
+      <c r="D92" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F92" s="17">
-        <v>1</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="17" t="s">
+      <c r="F92" s="13">
+        <v>1</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="C93" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D93" s="13">
         <v>65535</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="13">
         <f>MOD(D93,256)</f>
         <v>255</v>
       </c>
-      <c r="G93" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="17" t="s">
+      <c r="G93" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="C94" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D94" s="13">
         <v>65535</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="13">
         <f>MOD(D94,256)</f>
         <v>255</v>
       </c>
-      <c r="G94" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="17" t="s">
+      <c r="G94" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="C95" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D95" s="17">
-        <v>1</v>
-      </c>
-      <c r="F95" s="17">
+      <c r="D95" s="13">
+        <v>1</v>
+      </c>
+      <c r="F95" s="13">
         <f>MOD(D95,256)</f>
         <v>1</v>
       </c>
-      <c r="G95" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="17" t="s">
+      <c r="G95" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="C96" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="17">
+      <c r="D96" s="13">
         <v>65535</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="13">
         <f>MOD(D96,256)</f>
         <v>255</v>
       </c>
-      <c r="G96" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="17">
+      <c r="G96" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="13">
         <v>19</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F98" s="17">
-        <v>1</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="17" t="s">
+      <c r="F98" s="13">
+        <v>1</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="C99" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D99" s="17">
+      <c r="D99" s="13">
         <v>65535</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="13">
         <f>MOD(D99,256)</f>
         <v>255</v>
       </c>
-      <c r="G99" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="17" t="s">
+      <c r="G99" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="C100" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D100" s="17">
+      <c r="D100" s="13">
         <v>65535</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="13">
         <f>MOD(D100,256)</f>
         <v>255</v>
       </c>
-      <c r="G100" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="17" t="s">
+      <c r="G100" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="C101" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D101" s="17">
-        <v>1</v>
-      </c>
-      <c r="F101" s="17">
+      <c r="D101" s="13">
+        <v>1</v>
+      </c>
+      <c r="F101" s="13">
         <f>MOD(D101,256)</f>
         <v>1</v>
       </c>
-      <c r="G101" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
+      <c r="G101" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="13">
         <v>20</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F103" s="17">
-        <v>1</v>
-      </c>
-      <c r="G103" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="17" t="s">
+      <c r="F103" s="13">
+        <v>1</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="C104" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="17">
+      <c r="D104" s="13">
         <v>32767</v>
       </c>
-      <c r="F104" s="17">
+      <c r="F104" s="13">
         <f>MOD(D104,256)</f>
         <v>255</v>
       </c>
-      <c r="G104" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="17" t="s">
+      <c r="G104" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="C105" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D105" s="17">
+      <c r="D105" s="13">
         <v>-1</v>
       </c>
-      <c r="F105" s="17">
+      <c r="F105" s="13">
         <f>MOD(D105,256)</f>
         <v>255</v>
       </c>
-      <c r="G105" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="17">
+      <c r="G105" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="13">
         <v>21</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F107" s="17">
-        <v>1</v>
-      </c>
-      <c r="G107" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="17" t="s">
+      <c r="F107" s="13">
+        <v>1</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="C108" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D108" s="17">
+      <c r="D108" s="13">
         <v>32767</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="13">
         <f>MOD(D108,256)</f>
         <v>255</v>
       </c>
-      <c r="G108" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="17" t="s">
+      <c r="G108" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="C109" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D109" s="17">
+      <c r="D109" s="13">
         <v>-1</v>
       </c>
-      <c r="F109" s="17">
+      <c r="F109" s="13">
         <f>MOD(D109,256)</f>
         <v>255</v>
       </c>
-      <c r="G109" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="17" t="s">
+      <c r="G109" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="C110" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D110" s="17">
+      <c r="D110" s="13">
         <v>32767</v>
       </c>
-      <c r="F110" s="17">
+      <c r="F110" s="13">
         <v>255</v>
       </c>
-      <c r="G110" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="17">
+      <c r="G110" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="13">
         <v>22</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D112" s="17">
-        <v>1</v>
-      </c>
-      <c r="F112" s="17">
+      <c r="D112" s="13">
+        <v>1</v>
+      </c>
+      <c r="F112" s="13">
         <f>MOD(D112,256)</f>
         <v>1</v>
       </c>
-      <c r="G112" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="17" t="s">
+      <c r="G112" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="C113" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="D113" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F113" s="17">
+      <c r="F113" s="13">
         <v>2</v>
       </c>
-      <c r="G113" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="17" t="s">
+      <c r="G113" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="C114" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D114" s="17" t="s">
+      <c r="D114" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F114" s="13">
         <v>2</v>
       </c>
-      <c r="G114" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="17" t="s">
+      <c r="G114" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="C115" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F115" s="17">
+      <c r="F115" s="13">
         <v>2</v>
       </c>
-      <c r="G115" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="17" t="s">
+      <c r="G115" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="C116" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D116" s="17" t="s">
+      <c r="D116" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F116" s="17">
+      <c r="F116" s="13">
         <v>3</v>
       </c>
-      <c r="G116" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="17">
+      <c r="G116" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="13">
         <v>23</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D118" s="17">
-        <v>1</v>
-      </c>
-      <c r="F118" s="17">
+      <c r="D118" s="13">
+        <v>1</v>
+      </c>
+      <c r="F118" s="13">
         <f>MOD(D118,256)</f>
         <v>1</v>
       </c>
-      <c r="G118" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="17" t="s">
+      <c r="G118" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="C119" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D119" s="17" t="s">
+      <c r="D119" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F119" s="17">
+      <c r="F119" s="13">
         <v>2</v>
       </c>
-      <c r="G119" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="17" t="s">
+      <c r="G119" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="C120" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D120" s="17">
-        <v>1</v>
-      </c>
-      <c r="F120" s="17">
+      <c r="D120" s="13">
+        <v>1</v>
+      </c>
+      <c r="F120" s="13">
         <f>MOD(D120,256)</f>
         <v>1</v>
       </c>
-      <c r="G120" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="17" t="s">
+      <c r="G120" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="C121" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="D121" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F121" s="17">
+      <c r="F121" s="13">
         <v>2</v>
       </c>
-      <c r="G121" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="17" t="s">
+      <c r="G121" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="C122" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D122" s="17" t="s">
+      <c r="D122" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="13">
         <v>3</v>
       </c>
-      <c r="G122" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="17">
+      <c r="G122" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="13">
         <v>24</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D124" s="17">
-        <v>1</v>
-      </c>
-      <c r="F124" s="17">
+      <c r="D124" s="13">
+        <v>1</v>
+      </c>
+      <c r="F124" s="13">
         <f>MOD(D124,256)</f>
         <v>1</v>
       </c>
-      <c r="G124" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="17" t="s">
+      <c r="G124" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="C125" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F125" s="17">
+      <c r="F125" s="13">
         <v>2</v>
       </c>
-      <c r="G125" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="17" t="s">
+      <c r="G125" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="C126" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D126" s="17" t="s">
+      <c r="D126" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F126" s="17">
+      <c r="F126" s="13">
         <v>2</v>
       </c>
-      <c r="G126" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="17" t="s">
+      <c r="G126" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="C127" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="D127" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F127" s="17">
+      <c r="F127" s="13">
         <v>2</v>
       </c>
-      <c r="G127" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="17" t="s">
+      <c r="G127" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="C128" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D128" s="17" t="s">
+      <c r="D128" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="F128" s="17">
+      <c r="F128" s="13">
         <v>3</v>
       </c>
-      <c r="G128" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C129" s="17" t="s">
+      <c r="G128" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="C129" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D129" s="17">
-        <v>1</v>
-      </c>
-      <c r="F129" s="17">
-        <v>1</v>
-      </c>
-      <c r="G129" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C130" s="17" t="s">
+      <c r="D129" s="13">
+        <v>1</v>
+      </c>
+      <c r="F129" s="13">
+        <v>1</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="C130" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F130" s="17">
+      <c r="F130" s="13">
         <v>2</v>
       </c>
-      <c r="G130" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="17">
+      <c r="G130" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="13">
         <v>25</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D132" s="17">
-        <v>1</v>
-      </c>
-      <c r="F132" s="17">
+      <c r="D132" s="13">
+        <v>1</v>
+      </c>
+      <c r="F132" s="13">
         <f>MOD(D132,256)</f>
         <v>1</v>
       </c>
-      <c r="G132" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C133" s="17" t="s">
+      <c r="G132" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="C133" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="D133" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F133" s="17">
+      <c r="F133" s="13">
         <v>2</v>
       </c>
-      <c r="G133" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C134" s="17" t="s">
+      <c r="G133" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="C134" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D134" s="17">
-        <v>1</v>
-      </c>
-      <c r="F134" s="17">
-        <v>1</v>
-      </c>
-      <c r="G134" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C135" s="17" t="s">
+      <c r="D134" s="13">
+        <v>1</v>
+      </c>
+      <c r="F134" s="13">
+        <v>1</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="C135" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F135" s="17">
+      <c r="F135" s="13">
         <v>2</v>
       </c>
-      <c r="G135" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C136" s="17" t="s">
+      <c r="G135" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="C136" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="D136" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="F136" s="17">
+      <c r="F136" s="13">
         <v>3</v>
       </c>
-      <c r="G136" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C137" s="17" t="s">
+      <c r="G136" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="C137" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D137" s="17">
-        <v>1</v>
-      </c>
-      <c r="F137" s="17">
-        <v>1</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C138" s="17" t="s">
+      <c r="D137" s="13">
+        <v>1</v>
+      </c>
+      <c r="F137" s="13">
+        <v>1</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="C138" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D138" s="17">
-        <v>1</v>
-      </c>
-      <c r="F138" s="17">
-        <v>1</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="17">
+      <c r="D138" s="13">
+        <v>1</v>
+      </c>
+      <c r="F138" s="13">
+        <v>1</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="13">
         <v>26</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D140" s="17">
+      <c r="D140" s="13">
         <v>37</v>
       </c>
-      <c r="G140" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C141" s="17" t="s">
+      <c r="G140" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="C141" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D141" s="17">
+      <c r="D141" s="13">
         <v>34</v>
       </c>
-      <c r="G141" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C142" s="17" t="s">
+      <c r="G141" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="C142" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G142" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C143" s="17" t="s">
+      <c r="G142" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="C143" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G143" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="17">
+      <c r="G143" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="13">
         <v>27</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D145" s="17">
+      <c r="D145" s="13">
         <v>45</v>
       </c>
-      <c r="G145" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C146" s="17" t="s">
+      <c r="G145" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="C146" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D146" s="17">
+      <c r="D146" s="13">
         <v>11</v>
       </c>
-      <c r="G146" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C147" s="17" t="s">
+      <c r="G146" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="C147" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D147" s="17" t="s">
+      <c r="D147" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G147" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C148" s="17" t="s">
+      <c r="G147" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="C148" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D148" s="17" t="s">
+      <c r="D148" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G148" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="17">
+      <c r="G148" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="13">
         <v>28</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D150" s="17">
+      <c r="D150" s="13">
         <v>254</v>
       </c>
-      <c r="G150" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C151" s="19" t="s">
+      <c r="G150" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="C151" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D151" s="17">
+      <c r="D151" s="13">
         <v>253</v>
       </c>
-      <c r="G151" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C152" s="17" t="s">
+      <c r="G151" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="C152" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D152" s="17" t="s">
+      <c r="D152" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G152" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C153" s="17" t="s">
+      <c r="G152" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="C153" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D153" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G153" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="17">
+      <c r="G153" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="13">
         <v>29</v>
       </c>
-      <c r="B155" s="17" t="s">
+      <c r="B155" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C155" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D155" s="17">
+      <c r="D155" s="13">
         <v>26</v>
       </c>
-      <c r="G155" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C156" s="19" t="s">
+      <c r="G155" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="C156" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D156" s="17">
+      <c r="D156" s="13">
         <v>17</v>
       </c>
-      <c r="G156" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C157" s="17" t="s">
+      <c r="G156" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="C157" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D157" s="17" t="s">
+      <c r="D157" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G157" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C158" s="17" t="s">
+      <c r="G157" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="C158" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D158" s="17" t="s">
+      <c r="D158" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G158" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="17">
+      <c r="G158" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="13">
         <v>30</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C160" s="19" t="s">
+      <c r="C160" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D160" s="17">
+      <c r="D160" s="13">
         <v>255</v>
       </c>
-      <c r="G160" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C161" s="17" t="s">
+      <c r="G160" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="C161" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D161" s="17">
+      <c r="D161" s="13">
         <v>255</v>
       </c>
-      <c r="G161" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C162" s="17" t="s">
+      <c r="G161" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="C162" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D162" s="17" t="s">
+      <c r="D162" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G162" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C163" s="17" t="s">
+      <c r="G162" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="C163" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D163" s="17" t="s">
+      <c r="D163" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G163" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="17">
+      <c r="G163" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="13">
         <v>31</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D165" s="17">
+      <c r="D165" s="13">
         <v>2</v>
       </c>
-      <c r="G165" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C166" s="19" t="s">
+      <c r="G165" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="C166" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D166" s="17">
+      <c r="D166" s="13">
         <v>3</v>
       </c>
-      <c r="G166" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C167" s="17" t="s">
+      <c r="G166" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="C167" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D167" s="17" t="s">
+      <c r="D167" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G167" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C168" s="17" t="s">
+      <c r="G167" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="C168" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D168" s="17" t="s">
+      <c r="D168" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G168" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="17">
+      <c r="G168" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="13">
         <v>32</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D170" s="17">
-        <v>1</v>
-      </c>
-      <c r="G170" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C171" s="19" t="s">
+      <c r="D170" s="13">
+        <v>1</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="C171" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D171" s="17">
-        <v>1</v>
-      </c>
-      <c r="G171" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C172" s="17" t="s">
+      <c r="D171" s="13">
+        <v>1</v>
+      </c>
+      <c r="G171" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="C172" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D172" s="17" t="s">
+      <c r="D172" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G172" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C173" s="17" t="s">
+      <c r="G172" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="C173" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D173" s="17" t="s">
+      <c r="D173" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G173" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="17">
+      <c r="G173" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="13">
         <v>33</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C175" s="19" t="s">
+      <c r="C175" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D175" s="17">
+      <c r="D175" s="13">
         <v>21</v>
       </c>
-      <c r="G175" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C176" s="19" t="s">
+      <c r="G175" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="C176" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D176" s="17">
+      <c r="D176" s="13">
         <v>21</v>
       </c>
-      <c r="G176" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C177" s="17" t="s">
+      <c r="G176" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="C177" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D177" s="17" t="s">
+      <c r="D177" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G177" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C178" s="17" t="s">
+      <c r="G177" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="C178" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D178" s="17" t="s">
+      <c r="D178" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G178" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="17">
+      <c r="G178" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="13">
         <v>34</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D180" s="17" t="s">
+      <c r="D180" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F180" s="17">
+      <c r="F180" s="13">
         <v>85</v>
       </c>
-      <c r="G180" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C181" s="17" t="s">
+      <c r="G180" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="C181" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D181" s="17" t="s">
+      <c r="D181" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G181" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C182" s="17" t="s">
+      <c r="G181" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="C182" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D182" s="17" t="s">
+      <c r="D182" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F182" s="17">
+      <c r="F182" s="13">
         <v>253</v>
       </c>
-      <c r="G182" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C183" s="17" t="s">
+      <c r="G182" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="C183" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="D183" s="17" t="s">
+      <c r="D183" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="F183" s="17">
+      <c r="F183" s="13">
         <v>255</v>
       </c>
-      <c r="G183" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="17">
+      <c r="G183" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="13">
         <v>35</v>
       </c>
-      <c r="B184" s="17" t="s">
+      <c r="B184" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D184" s="17" t="s">
+      <c r="D184" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F184" s="17">
+      <c r="F184" s="13">
         <v>85</v>
       </c>
-      <c r="G184" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C185" s="17" t="s">
+      <c r="G184" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="C185" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D185" s="17" t="s">
+      <c r="D185" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="F185" s="17">
+      <c r="F185" s="13">
         <v>249</v>
       </c>
-      <c r="G185" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C186" s="17" t="s">
+      <c r="G185" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="C186" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D186" s="17" t="s">
+      <c r="D186" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="F186" s="17">
+      <c r="F186" s="13">
         <v>83</v>
       </c>
-      <c r="G186" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C187" s="17" t="s">
+      <c r="G186" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="C187" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="D187" s="17" t="s">
+      <c r="D187" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="F187" s="17">
+      <c r="F187" s="13">
         <v>7</v>
       </c>
-      <c r="G187" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="17">
+      <c r="G187" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="13">
         <v>36</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D188" s="17">
+      <c r="D188" s="13">
         <v>999</v>
       </c>
-      <c r="F188" s="17">
+      <c r="F188" s="13">
         <v>231</v>
       </c>
-      <c r="G188" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C189" s="17" t="s">
+      <c r="G188" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="C189" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D189" s="17">
+      <c r="D189" s="13">
         <v>4</v>
       </c>
-      <c r="G189" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="17">
+      <c r="G189" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="13">
         <v>37</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D190" s="17">
+      <c r="D190" s="13">
         <v>13</v>
       </c>
-      <c r="G190" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C191" s="17" t="s">
+      <c r="G190" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="C191" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D191" s="17">
+      <c r="D191" s="13">
         <v>18</v>
       </c>
-      <c r="G191" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="17">
+      <c r="G191" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="13">
         <v>38</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D192" s="17">
+      <c r="D192" s="13">
         <v>231</v>
       </c>
-      <c r="G192" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C193" s="17" t="s">
+      <c r="G192" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="C193" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D193" s="17">
+      <c r="D193" s="13">
         <v>12</v>
       </c>
-      <c r="G193" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="17">
+      <c r="G193" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="13">
         <v>39</v>
       </c>
-      <c r="B194" s="17" t="s">
+      <c r="B194" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="D194" s="17">
+      <c r="D194" s="13">
         <v>4</v>
       </c>
-      <c r="G194" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C195" s="17" t="s">
+      <c r="G194" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="C195" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D195" s="17">
+      <c r="D195" s="13">
         <v>22</v>
       </c>
-      <c r="G195" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="17">
+      <c r="G195" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="13">
         <v>40</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B196" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D196" s="17">
+      <c r="D196" s="13">
         <v>4</v>
       </c>
-      <c r="G196" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="17">
+      <c r="G196" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="13">
         <v>41</v>
       </c>
-      <c r="B197" s="17" t="s">
+      <c r="B197" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="D197" s="17">
+      <c r="D197" s="13">
         <v>3881784172</v>
       </c>
-      <c r="E197" s="17">
+      <c r="E197" s="13">
         <v>108</v>
       </c>
-      <c r="G197" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C198" s="17" t="s">
+      <c r="G197" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="C198" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D198" s="17" t="s">
+      <c r="D198" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E198" s="17">
+      <c r="E198" s="13">
         <v>66</v>
       </c>
-      <c r="G198" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C199" s="17" t="s">
+      <c r="G198" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="C199" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D199" s="17" t="s">
+      <c r="D199" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="E199" s="17">
+      <c r="E199" s="13">
         <v>209</v>
       </c>
-      <c r="G199" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C200" s="17" t="s">
+      <c r="G199" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="C200" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D200" s="17" t="s">
+      <c r="D200" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E200" s="17">
+      <c r="E200" s="13">
         <v>78</v>
       </c>
-      <c r="G200" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="17">
+      <c r="G200" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="13">
         <v>42</v>
       </c>
-      <c r="B201" s="17" t="s">
+      <c r="B201" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="C201" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="D201" s="17">
+      <c r="D201" s="13">
         <v>3881784172</v>
       </c>
-      <c r="E201" s="17">
+      <c r="E201" s="13">
         <v>108</v>
       </c>
-      <c r="G201" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C202" s="17" t="s">
+      <c r="G201" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="C202" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D202" s="17" t="s">
+      <c r="D202" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E202" s="17">
+      <c r="E202" s="13">
         <v>66</v>
       </c>
-      <c r="G202" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C203" s="17" t="s">
+      <c r="G202" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="C203" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="D203" s="17" t="s">
+      <c r="D203" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="E203" s="17">
+      <c r="E203" s="13">
         <v>158</v>
       </c>
-      <c r="G203" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C204" s="17" t="s">
+      <c r="G203" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="C204" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D204" s="17" t="s">
+      <c r="D204" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E204" s="17">
+      <c r="E204" s="13">
         <v>113</v>
       </c>
-      <c r="G204" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="17">
+      <c r="G204" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="13">
         <v>41</v>
       </c>
-      <c r="B205" s="17" t="s">
+      <c r="B205" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D205" s="17">
+      <c r="D205" s="13">
         <v>-51</v>
       </c>
-      <c r="E205" s="17">
+      <c r="E205" s="13">
         <v>205</v>
       </c>
-      <c r="G205" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C206" s="17" t="s">
+      <c r="G205" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="C206" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="D206" s="17" t="s">
+      <c r="D206" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E206" s="17">
+      <c r="E206" s="13">
         <v>245</v>
       </c>
-      <c r="G206" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="17">
+      <c r="G206" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="13">
         <v>42</v>
       </c>
-      <c r="B207" s="17" t="s">
+      <c r="B207" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="D207" s="17">
+      <c r="D207" s="13">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C208" s="17" t="s">
+    <row r="208" spans="1:7">
+      <c r="C208" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D208" s="17" t="s">
+      <c r="D208" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E208" s="17">
+      <c r="E208" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="17">
+    <row r="209" spans="1:5">
+      <c r="A209" s="13">
         <v>43</v>
       </c>
-      <c r="B209" s="17" t="s">
+      <c r="B209" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D209" s="17">
+      <c r="D209" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C210" s="17" t="s">
+    <row r="210" spans="1:5">
+      <c r="C210" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D210" s="17" t="s">
+      <c r="D210" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E210" s="17">
+      <c r="E210" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C211" s="17" t="s">
+    <row r="211" spans="1:5">
+      <c r="C211" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D211" s="17" t="s">
+      <c r="D211" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E211" s="17">
+      <c r="E211" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="17">
+    <row r="212" spans="1:5">
+      <c r="A212" s="13">
         <v>44</v>
       </c>
-      <c r="B212" s="17" t="s">
+      <c r="B212" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D212" s="17">
+      <c r="D212" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C213" s="17" t="s">
+    <row r="213" spans="1:5">
+      <c r="C213" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D213" s="17" t="s">
+      <c r="D213" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E213" s="17">
+      <c r="E213" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C214" s="17" t="s">
+    <row r="214" spans="1:5">
+      <c r="C214" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D214" s="17" t="s">
+      <c r="D214" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E214" s="17">
+      <c r="E214" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B215" s="17" t="s">
+    <row r="215" spans="1:5">
+      <c r="B215" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D215" s="17">
+      <c r="D215" s="13">
         <v>205</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C216" s="17" t="s">
+    <row r="216" spans="1:5">
+      <c r="C216" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="D216" s="17" t="s">
+      <c r="D216" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E216" s="17">
+      <c r="E216" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C217" s="17" t="s">
+    <row r="217" spans="1:5">
+      <c r="C217" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D217" s="17" t="s">
+      <c r="D217" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E217" s="17">
+      <c r="E217" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="17" t="s">
+    <row r="218" spans="1:5">
+      <c r="B218" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D218" s="17" t="s">
+      <c r="D218" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E218" s="17">
+      <c r="E218" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B219" s="17" t="s">
+    <row r="219" spans="1:5">
+      <c r="B219" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C219" s="17" t="s">
+      <c r="C219" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="D219" s="17" t="s">
+      <c r="D219" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E219" s="17">
+      <c r="E219" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B220" s="17" t="s">
+    <row r="220" spans="1:5">
+      <c r="B220" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C220" s="17" t="s">
+      <c r="C220" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D220" s="17">
+      <c r="D220" s="13">
         <v>255</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C221" s="17" t="s">
+    <row r="221" spans="1:5">
+      <c r="C221" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="D221" s="17">
+      <c r="D221" s="13">
         <v>128</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C222" s="17" t="s">
+    <row r="222" spans="1:5">
+      <c r="C222" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="D222" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C223" s="17" t="s">
+      <c r="D222" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="C223" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D223" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B224" s="17" t="s">
+      <c r="D223" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="B224" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C224" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D224" s="17">
+      <c r="D224" s="13">
         <v>205</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C225" s="17" t="s">
+    <row r="225" spans="2:5">
+      <c r="C225" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D225" s="17" t="s">
+      <c r="D225" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E225" s="17">
+      <c r="E225" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B226" s="17" t="s">
+    <row r="226" spans="2:5">
+      <c r="B226" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C226" s="17" t="s">
+      <c r="C226" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D226" s="17">
+      <c r="D226" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C227" s="17" t="s">
+    <row r="227" spans="2:5">
+      <c r="C227" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D227" s="17" t="s">
+      <c r="D227" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E227" s="17">
+      <c r="E227" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C228" s="17" t="s">
+    <row r="228" spans="2:5">
+      <c r="C228" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="D228" s="17" t="s">
+      <c r="D228" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E228" s="17">
+      <c r="E228" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="17" t="s">
+    <row r="229" spans="2:5">
+      <c r="B229" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C229" s="17" t="s">
+      <c r="C229" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D229" s="17">
+      <c r="D229" s="13">
         <v>205</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C230" s="17" t="s">
+    <row r="230" spans="2:5">
+      <c r="C230" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="D230" s="17" t="s">
+      <c r="D230" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E230" s="17">
+      <c r="E230" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C231" s="17" t="s">
+    <row r="231" spans="2:5">
+      <c r="C231" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="D231" s="17" t="s">
+      <c r="D231" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E231" s="17">
+      <c r="E231" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B232" s="17" t="s">
+    <row r="232" spans="2:5">
+      <c r="B232" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C232" s="17" t="s">
+      <c r="C232" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="D232" s="17">
+      <c r="D232" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C233" s="17" t="s">
+    <row r="233" spans="2:5">
+      <c r="C233" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="D233" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C234" s="17" t="s">
+      <c r="D233" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5">
+      <c r="C234" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="D234" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C235" s="17" t="s">
+      <c r="D234" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5">
+      <c r="C235" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D235" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C236" s="17" t="s">
+      <c r="D235" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5">
+      <c r="C236" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="D236" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B237" s="17" t="s">
+      <c r="D236" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5">
+      <c r="B237" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C237" s="17" t="s">
+      <c r="C237" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="D237" s="17">
+      <c r="D237" s="13">
         <v>88</v>
       </c>
     </row>
